--- a/Analysis/Data/VSTOXX_M_Excel.xlsx
+++ b/Analysis/Data/VSTOXX_M_Excel.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,31 +450,31 @@
         <v>36192</v>
       </c>
       <c r="B2">
-        <v>34.00134545454545</v>
+        <v>36.124485</v>
       </c>
       <c r="C2">
-        <v>33.925205</v>
+        <v>38.45115</v>
       </c>
       <c r="D2">
-        <v>35.07683636363636</v>
+        <v>37.09864</v>
       </c>
       <c r="E2">
-        <v>27.07684545454546</v>
+        <v>31.124425</v>
       </c>
       <c r="F2">
-        <v>35.70880454545455</v>
+        <v>38.39523</v>
       </c>
       <c r="G2">
-        <v>33.74073636363637</v>
+        <v>35.9212</v>
       </c>
       <c r="H2">
-        <v>34.10164545454546</v>
+        <v>37.121225</v>
       </c>
       <c r="I2">
-        <v>33.10333181818181</v>
+        <v>35.557335</v>
       </c>
       <c r="J2">
-        <v>26.22490909090909</v>
+        <v>27.14438</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,31 +482,31 @@
         <v>36220</v>
       </c>
       <c r="B3">
-        <v>30.68462222222222</v>
+        <v>36.063985</v>
       </c>
       <c r="C3">
-        <v>30.36354375</v>
+        <v>36.19125555555556</v>
       </c>
       <c r="D3">
-        <v>30.76233888888889</v>
+        <v>36.141875</v>
       </c>
       <c r="E3">
-        <v>25.76238888888889</v>
+        <v>26.894375</v>
       </c>
       <c r="F3">
-        <v>33.01156111111111</v>
+        <v>37.218835</v>
       </c>
       <c r="G3">
-        <v>31.12819444444445</v>
+        <v>35.451255</v>
       </c>
       <c r="H3">
-        <v>31.93056111111111</v>
+        <v>36.37512</v>
       </c>
       <c r="I3">
-        <v>30.30847222222222</v>
+        <v>33.655575</v>
       </c>
       <c r="J3">
-        <v>24.4139</v>
+        <v>25.97712</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,31 +514,31 @@
         <v>36251</v>
       </c>
       <c r="B4">
-        <v>27.58007142857143</v>
+        <v>28.61919130434783</v>
       </c>
       <c r="C4">
-        <v>28.12044736842105</v>
+        <v>29.58515238095238</v>
       </c>
       <c r="D4">
-        <v>27.55493809523809</v>
+        <v>28.43863043478261</v>
       </c>
       <c r="E4">
-        <v>26.91271428571429</v>
+        <v>28.94576956521739</v>
       </c>
       <c r="F4">
-        <v>30.30125714285715</v>
+        <v>31.75394782608695</v>
       </c>
       <c r="G4">
-        <v>30.44503809523809</v>
+        <v>32.02823043478261</v>
       </c>
       <c r="H4">
-        <v>24.8472380952381</v>
+        <v>27.63183043478261</v>
       </c>
       <c r="I4">
-        <v>29.37310952380952</v>
+        <v>30.34264347826087</v>
       </c>
       <c r="J4">
-        <v>24.26254761904762</v>
+        <v>24.49728260869565</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -546,31 +546,31 @@
         <v>36281</v>
       </c>
       <c r="B5">
-        <v>25.78211363636364</v>
+        <v>25.11225</v>
       </c>
       <c r="C5">
-        <v>26.040905</v>
+        <v>26.14862777777778</v>
       </c>
       <c r="D5">
-        <v>26.79181818181818</v>
+        <v>26.122225</v>
       </c>
       <c r="E5">
-        <v>22.57418636363636</v>
+        <v>23.37241</v>
       </c>
       <c r="F5">
-        <v>28.77226363636363</v>
+        <v>28.000705</v>
       </c>
       <c r="G5">
-        <v>29.94227727272727</v>
+        <v>30.42873</v>
       </c>
       <c r="H5">
-        <v>22.88989090909091</v>
+        <v>19.5234</v>
       </c>
       <c r="I5">
-        <v>29.0825</v>
+        <v>29.460635</v>
       </c>
       <c r="J5">
-        <v>24.31858181818182</v>
+        <v>24.24829</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -578,31 +578,31 @@
         <v>36312</v>
       </c>
       <c r="B6">
-        <v>27.37715263157894</v>
+        <v>26.70734736842105</v>
       </c>
       <c r="C6">
-        <v>28.21202941176471</v>
+        <v>26.86526470588235</v>
       </c>
       <c r="D6">
-        <v>27.3813052631579</v>
+        <v>26.80627368421053</v>
       </c>
       <c r="E6">
-        <v>21.86471052631579</v>
+        <v>19.70094210526316</v>
       </c>
       <c r="F6">
-        <v>30.11321578947368</v>
+        <v>29.28411052631579</v>
       </c>
       <c r="G6">
-        <v>29.87945789473684</v>
+        <v>30.01402631578947</v>
       </c>
       <c r="H6">
-        <v>24.22053684210526</v>
+        <v>20.3674947368421</v>
       </c>
       <c r="I6">
-        <v>29.17946315789474</v>
+        <v>29.31781052631579</v>
       </c>
       <c r="J6">
-        <v>24.30199473684211</v>
+        <v>24.44168947368421</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -610,31 +610,31 @@
         <v>36342</v>
       </c>
       <c r="B7">
-        <v>23.30345714285714</v>
+        <v>22.86401818181818</v>
       </c>
       <c r="C7">
-        <v>23.96308947368421</v>
+        <v>23.286845</v>
       </c>
       <c r="D7">
-        <v>23.29893333333333</v>
+        <v>22.86797272727273</v>
       </c>
       <c r="E7">
-        <v>23.46196190476191</v>
+        <v>20.69735909090909</v>
       </c>
       <c r="F7">
-        <v>26.95201428571428</v>
+        <v>26.9914</v>
       </c>
       <c r="G7">
-        <v>25.57522380952381</v>
+        <v>26.85518181818182</v>
       </c>
       <c r="H7">
-        <v>25.99991904761904</v>
+        <v>24.20325909090909</v>
       </c>
       <c r="I7">
-        <v>26.1679380952381</v>
+        <v>27.31402727272727</v>
       </c>
       <c r="J7">
-        <v>21.64260476190476</v>
+        <v>22.33983181818182</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,31 +642,31 @@
         <v>36373</v>
       </c>
       <c r="B8">
-        <v>24.46305909090909</v>
+        <v>22.99613636363636</v>
       </c>
       <c r="C8">
-        <v>25.02119</v>
+        <v>23.97945</v>
       </c>
       <c r="D8">
-        <v>25.68833636363637</v>
+        <v>24.16995909090909</v>
       </c>
       <c r="E8">
-        <v>23.13299090909091</v>
+        <v>22.47764090909091</v>
       </c>
       <c r="F8">
-        <v>28.25389090909091</v>
+        <v>27.4241</v>
       </c>
       <c r="G8">
-        <v>25.04539090909091</v>
+        <v>23.05380454545454</v>
       </c>
       <c r="H8">
-        <v>26.90082272727273</v>
+        <v>27.46680454545455</v>
       </c>
       <c r="I8">
-        <v>25.56353181818182</v>
+        <v>23.79465</v>
       </c>
       <c r="J8">
-        <v>21.14113181818182</v>
+        <v>19.14341363636364</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -674,31 +674,31 @@
         <v>36404</v>
       </c>
       <c r="B9">
-        <v>25.54235652173913</v>
+        <v>27.38603636363636</v>
       </c>
       <c r="C9">
-        <v>25.31684285714286</v>
+        <v>26.2938</v>
       </c>
       <c r="D9">
-        <v>25.54790434782609</v>
+        <v>27.59710909090909</v>
       </c>
       <c r="E9">
-        <v>23.31896956521739</v>
+        <v>23.11471818181818</v>
       </c>
       <c r="F9">
-        <v>28.64566956521739</v>
+        <v>29.62676363636364</v>
       </c>
       <c r="G9">
-        <v>24.9908652173913</v>
+        <v>22.98916363636364</v>
       </c>
       <c r="H9">
-        <v>26.69224347826087</v>
+        <v>28.19675</v>
       </c>
       <c r="I9">
-        <v>27.10640434782609</v>
+        <v>25.93828636363636</v>
       </c>
       <c r="J9">
-        <v>23.62585652173913</v>
+        <v>22.58105</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -706,31 +706,31 @@
         <v>36434</v>
       </c>
       <c r="B10">
-        <v>25.70437391304348</v>
+        <v>24.65525454545455</v>
       </c>
       <c r="C10">
-        <v>26.33322857142857</v>
+        <v>25.26227</v>
       </c>
       <c r="D10">
-        <v>25.69293043478261</v>
+        <v>24.62415909090909</v>
       </c>
       <c r="E10">
-        <v>26.10431739130435</v>
+        <v>25.25335909090909</v>
       </c>
       <c r="F10">
-        <v>27.1378652173913</v>
+        <v>26.60598636363636</v>
       </c>
       <c r="G10">
-        <v>27.1153347826087</v>
+        <v>25.08346818181818</v>
       </c>
       <c r="H10">
-        <v>27.5443347826087</v>
+        <v>26.84792272727273</v>
       </c>
       <c r="I10">
-        <v>26.41448695652174</v>
+        <v>26.52318636363636</v>
       </c>
       <c r="J10">
-        <v>24.32322608695652</v>
+        <v>24.57865909090909</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -738,31 +738,31 @@
         <v>36465</v>
       </c>
       <c r="B11">
-        <v>25.91970476190476</v>
+        <v>24.92404761904762</v>
       </c>
       <c r="C11">
-        <v>25.71988421052632</v>
+        <v>25.06978421052631</v>
       </c>
       <c r="D11">
-        <v>26.86663333333333</v>
+        <v>25.83555238095238</v>
       </c>
       <c r="E11">
-        <v>25.24415714285714</v>
+        <v>26.74087142857143</v>
       </c>
       <c r="F11">
-        <v>28.08969523809524</v>
+        <v>26.70019047619047</v>
       </c>
       <c r="G11">
-        <v>28.48848095238095</v>
+        <v>28.26088095238095</v>
       </c>
       <c r="H11">
-        <v>26.87531428571429</v>
+        <v>27.60903809523809</v>
       </c>
       <c r="I11">
-        <v>26.41432380952381</v>
+        <v>25.44046666666667</v>
       </c>
       <c r="J11">
-        <v>24.53340952380952</v>
+        <v>25.00145238095238</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -770,31 +770,31 @@
         <v>36495</v>
       </c>
       <c r="B12">
-        <v>24.491915</v>
+        <v>21.70604545454546</v>
       </c>
       <c r="C12">
-        <v>25.12953888888889</v>
+        <v>21.30543</v>
       </c>
       <c r="D12">
-        <v>24.81231</v>
+        <v>22.09820909090909</v>
       </c>
       <c r="E12">
-        <v>23.390445</v>
+        <v>22.05006818181818</v>
       </c>
       <c r="F12">
-        <v>26.55383</v>
+        <v>24.08145909090909</v>
       </c>
       <c r="G12">
-        <v>26.700785</v>
+        <v>25.07983181818182</v>
       </c>
       <c r="H12">
-        <v>25.781095</v>
+        <v>23.7356</v>
       </c>
       <c r="I12">
-        <v>25.72053</v>
+        <v>23.46313181818182</v>
       </c>
       <c r="J12">
-        <v>23.71035</v>
+        <v>23.08165454545454</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -802,31 +802,31 @@
         <v>36526</v>
       </c>
       <c r="B13">
-        <v>28.64517272727273</v>
+        <v>27.19152857142857</v>
       </c>
       <c r="C13">
-        <v>29.92516</v>
+        <v>26.72634210526316</v>
       </c>
       <c r="D13">
-        <v>28.15843636363636</v>
+        <v>26.83572380952381</v>
       </c>
       <c r="E13">
-        <v>27.70376363636364</v>
+        <v>26.37721428571429</v>
       </c>
       <c r="F13">
-        <v>29.12299545454546</v>
+        <v>27.13059523809524</v>
       </c>
       <c r="G13">
-        <v>28.11460909090909</v>
+        <v>26.75883333333334</v>
       </c>
       <c r="H13">
-        <v>27.3411</v>
+        <v>25.93832857142857</v>
       </c>
       <c r="I13">
-        <v>26.66477727272727</v>
+        <v>25.05500952380952</v>
       </c>
       <c r="J13">
-        <v>22.91483181818182</v>
+        <v>22.87735714285714</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -834,31 +834,31 @@
         <v>36557</v>
       </c>
       <c r="B14">
-        <v>27.212035</v>
+        <v>28.94837619047619</v>
       </c>
       <c r="C14">
-        <v>28.81099444444444</v>
+        <v>31.11765789473684</v>
       </c>
       <c r="D14">
-        <v>27.069585</v>
+        <v>28.73423333333333</v>
       </c>
       <c r="E14">
-        <v>23.28387</v>
+        <v>26.40131428571429</v>
       </c>
       <c r="F14">
-        <v>27.32475</v>
+        <v>28.24092857142857</v>
       </c>
       <c r="G14">
-        <v>26.474115</v>
+        <v>27.07365238095238</v>
       </c>
       <c r="H14">
-        <v>25.746395</v>
+        <v>26.57271904761905</v>
       </c>
       <c r="I14">
-        <v>25.15026</v>
+        <v>25.62003333333334</v>
       </c>
       <c r="J14">
-        <v>21.791815</v>
+        <v>21.75676190476191</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -866,31 +866,31 @@
         <v>36586</v>
       </c>
       <c r="B15">
-        <v>28.55193684210526</v>
+        <v>30.04859047619048</v>
       </c>
       <c r="C15">
-        <v>30.84827058823529</v>
+        <v>33.00924210526316</v>
       </c>
       <c r="D15">
-        <v>27.44618421052632</v>
+        <v>29.00417142857142</v>
       </c>
       <c r="E15">
-        <v>20.59336315789474</v>
+        <v>21.6396380952381</v>
       </c>
       <c r="F15">
-        <v>29.30538947368421</v>
+        <v>30.00616666666667</v>
       </c>
       <c r="G15">
-        <v>28.22151578947368</v>
+        <v>28.65909047619048</v>
       </c>
       <c r="H15">
-        <v>26.56501578947368</v>
+        <v>27.7292380952381</v>
       </c>
       <c r="I15">
-        <v>25.9680947368421</v>
+        <v>26.22484285714286</v>
       </c>
       <c r="J15">
-        <v>22.76025789473684</v>
+        <v>22.96550476190476</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -898,31 +898,31 @@
         <v>36617</v>
       </c>
       <c r="B16">
-        <v>27.9698875</v>
+        <v>28.5368652173913</v>
       </c>
       <c r="C16">
-        <v>29.25312727272727</v>
+        <v>30.17514285714286</v>
       </c>
       <c r="D16">
-        <v>27.21610833333333</v>
+        <v>27.71696086956522</v>
       </c>
       <c r="E16">
-        <v>26.7753</v>
+        <v>27.01920434782609</v>
       </c>
       <c r="F16">
-        <v>28.91934583333333</v>
+        <v>29.80137826086957</v>
       </c>
       <c r="G16">
-        <v>28.57970416666667</v>
+        <v>29.454</v>
       </c>
       <c r="H16">
-        <v>24.45340416666667</v>
+        <v>25.97388260869565</v>
       </c>
       <c r="I16">
-        <v>27.00993333333333</v>
+        <v>27.81144782608696</v>
       </c>
       <c r="J16">
-        <v>23.77735833333334</v>
+        <v>24.85881304347826</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -930,31 +930,31 @@
         <v>36647</v>
       </c>
       <c r="B17">
-        <v>27.49187894736842</v>
+        <v>28.53848333333333</v>
       </c>
       <c r="C17">
-        <v>30.18712352941176</v>
+        <v>32.82115625</v>
       </c>
       <c r="D17">
-        <v>27.51989473684211</v>
+        <v>28.34127222222222</v>
       </c>
       <c r="E17">
-        <v>24.22174736842105</v>
+        <v>27.33495555555556</v>
       </c>
       <c r="F17">
-        <v>28.74321578947368</v>
+        <v>30.30373333333334</v>
       </c>
       <c r="G17">
-        <v>28.21145789473684</v>
+        <v>29.73736666666667</v>
       </c>
       <c r="H17">
-        <v>25.07594210526316</v>
+        <v>24.21004444444445</v>
       </c>
       <c r="I17">
-        <v>26.71165263157895</v>
+        <v>28.024</v>
       </c>
       <c r="J17">
-        <v>23.24037894736842</v>
+        <v>24.63177222222222</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -962,31 +962,31 @@
         <v>36678</v>
       </c>
       <c r="B18">
-        <v>26.87884285714286</v>
+        <v>27.94932727272727</v>
       </c>
       <c r="C18">
-        <v>29.01467894736842</v>
+        <v>29.15741</v>
       </c>
       <c r="D18">
-        <v>25.83655714285714</v>
+        <v>27.17503181818182</v>
       </c>
       <c r="E18">
-        <v>22.4319380952381</v>
+        <v>20.67666818181818</v>
       </c>
       <c r="F18">
-        <v>28.01777142857143</v>
+        <v>28.67375</v>
       </c>
       <c r="G18">
-        <v>27.6551</v>
+        <v>28.45495909090909</v>
       </c>
       <c r="H18">
-        <v>24.86575714285714</v>
+        <v>25.25540909090909</v>
       </c>
       <c r="I18">
-        <v>26.54936190476191</v>
+        <v>27.29171363636364</v>
       </c>
       <c r="J18">
-        <v>23.43387142857143</v>
+        <v>24.26442727272727</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -994,31 +994,31 @@
         <v>36708</v>
       </c>
       <c r="B19">
-        <v>23.92972608695652</v>
+        <v>23.37425909090909</v>
       </c>
       <c r="C19">
-        <v>24.91148571428571</v>
+        <v>24.59269</v>
       </c>
       <c r="D19">
-        <v>23.34108260869565</v>
+        <v>22.72278636363636</v>
       </c>
       <c r="E19">
-        <v>24.22347391304348</v>
+        <v>23.00495</v>
       </c>
       <c r="F19">
-        <v>26.21576086956522</v>
+        <v>26.40933636363636</v>
       </c>
       <c r="G19">
-        <v>25.49406521739131</v>
+        <v>25.7761</v>
       </c>
       <c r="H19">
-        <v>24.89034347826087</v>
+        <v>24.96059545454546</v>
       </c>
       <c r="I19">
-        <v>24.35305217391304</v>
+        <v>24.74154545454545</v>
       </c>
       <c r="J19">
-        <v>19.66583043478261</v>
+        <v>20.15695</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1026,31 +1026,31 @@
         <v>36739</v>
       </c>
       <c r="B20">
-        <v>22.56125652173913</v>
+        <v>21.09670952380952</v>
       </c>
       <c r="C20">
-        <v>23.65626666666667</v>
+        <v>21.4593947368421</v>
       </c>
       <c r="D20">
-        <v>22.63583913043478</v>
+        <v>21.29313333333333</v>
       </c>
       <c r="E20">
-        <v>20.61149565217391</v>
+        <v>20.54975714285714</v>
       </c>
       <c r="F20">
-        <v>25.01483913043478</v>
+        <v>24.32918095238095</v>
       </c>
       <c r="G20">
-        <v>24.52562608695652</v>
+        <v>23.49560952380952</v>
       </c>
       <c r="H20">
-        <v>24.50390434782609</v>
+        <v>24.58000476190476</v>
       </c>
       <c r="I20">
-        <v>23.51013913043478</v>
+        <v>22.54155714285714</v>
       </c>
       <c r="J20">
-        <v>20.18748695652174</v>
+        <v>18.83230476190476</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1058,31 +1058,31 @@
         <v>36770</v>
       </c>
       <c r="B21">
-        <v>21.93965909090909</v>
+        <v>20.80360869565217</v>
       </c>
       <c r="C21">
-        <v>22.68566</v>
+        <v>20.53526666666667</v>
       </c>
       <c r="D21">
-        <v>22.00531363636363</v>
+        <v>20.97271304347826</v>
       </c>
       <c r="E21">
-        <v>19.06947272727272</v>
+        <v>17.83000869565217</v>
       </c>
       <c r="F21">
-        <v>24.12155909090909</v>
+        <v>23.31628260869565</v>
       </c>
       <c r="G21">
-        <v>24.64493636363636</v>
+        <v>23.8885</v>
       </c>
       <c r="H21">
-        <v>24.43090909090909</v>
+        <v>24.23169130434783</v>
       </c>
       <c r="I21">
-        <v>23.67144545454545</v>
+        <v>22.72031739130435</v>
       </c>
       <c r="J21">
-        <v>20.45207272727273</v>
+        <v>19.03138695652174</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1090,31 +1090,31 @@
         <v>36800</v>
       </c>
       <c r="B22">
-        <v>23.599965</v>
+        <v>21.37119047619048</v>
       </c>
       <c r="C22">
-        <v>24.90863333333333</v>
+        <v>22.44690526315789</v>
       </c>
       <c r="D22">
-        <v>22.44745</v>
+        <v>20.28447619047619</v>
       </c>
       <c r="E22">
-        <v>23.398905</v>
+        <v>21.21199523809524</v>
       </c>
       <c r="F22">
-        <v>25.236965</v>
+        <v>23.40235714285714</v>
       </c>
       <c r="G22">
-        <v>25.25647</v>
+        <v>23.77037619047619</v>
       </c>
       <c r="H22">
-        <v>20.135185</v>
+        <v>19.73227619047619</v>
       </c>
       <c r="I22">
-        <v>24.17648</v>
+        <v>23.09937142857143</v>
       </c>
       <c r="J22">
-        <v>20.64751</v>
+        <v>19.51608571428572</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1122,31 +1122,31 @@
         <v>36831</v>
       </c>
       <c r="B23">
-        <v>26.73124090909091</v>
+        <v>26.1049</v>
       </c>
       <c r="C23">
-        <v>28.62309</v>
+        <v>28.336095</v>
       </c>
       <c r="D23">
-        <v>26.60442272727272</v>
+        <v>25.92860909090909</v>
       </c>
       <c r="E23">
-        <v>25.69201818181818</v>
+        <v>26.39330909090909</v>
       </c>
       <c r="F23">
-        <v>27.00661818181818</v>
+        <v>26.41231363636364</v>
       </c>
       <c r="G23">
-        <v>26.65437727272727</v>
+        <v>26.18357272727273</v>
       </c>
       <c r="H23">
-        <v>23.25002272727273</v>
+        <v>21.45879090909091</v>
       </c>
       <c r="I23">
-        <v>25.33293636363636</v>
+        <v>24.93639545454545</v>
       </c>
       <c r="J23">
-        <v>21.58821363636364</v>
+        <v>20.57527727272727</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1154,31 +1154,31 @@
         <v>36861</v>
       </c>
       <c r="B24">
-        <v>25.81605217391304</v>
+        <v>25.50878181818182</v>
       </c>
       <c r="C24">
-        <v>28.14026666666667</v>
+        <v>26.97079</v>
       </c>
       <c r="D24">
-        <v>25.43067391304348</v>
+        <v>25.17984090909091</v>
       </c>
       <c r="E24">
-        <v>23.06600869565217</v>
+        <v>23.08554545454545</v>
       </c>
       <c r="F24">
-        <v>26.01169130434783</v>
+        <v>25.25661363636364</v>
       </c>
       <c r="G24">
-        <v>25.81097826086957</v>
+        <v>25.24126363636364</v>
       </c>
       <c r="H24">
-        <v>23.3354347826087</v>
+        <v>22.17709090909091</v>
       </c>
       <c r="I24">
-        <v>24.74396956521739</v>
+        <v>24.37353181818182</v>
       </c>
       <c r="J24">
-        <v>23.12173478260869</v>
+        <v>23.30323636363636</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1186,31 +1186,31 @@
         <v>36892</v>
       </c>
       <c r="B25">
-        <v>25.61291578947369</v>
+        <v>25.96667368421053</v>
       </c>
       <c r="C25">
-        <v>27.46512352941177</v>
+        <v>28.20738823529412</v>
       </c>
       <c r="D25">
-        <v>24.82752105263158</v>
+        <v>25.06224736842105</v>
       </c>
       <c r="E25">
-        <v>25.20777894736842</v>
+        <v>24.48922631578947</v>
       </c>
       <c r="F25">
-        <v>26.48051578947369</v>
+        <v>26.30782631578947</v>
       </c>
       <c r="G25">
-        <v>25.67850526315789</v>
+        <v>25.50194736842105</v>
       </c>
       <c r="H25">
-        <v>24.71911052631579</v>
+        <v>24.90258947368421</v>
       </c>
       <c r="I25">
-        <v>24.84897368421052</v>
+        <v>24.73694736842105</v>
       </c>
       <c r="J25">
-        <v>19.88163684210526</v>
+        <v>20.87906315789474</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1218,31 +1218,31 @@
         <v>36923</v>
       </c>
       <c r="B26">
-        <v>24.62548421052632</v>
+        <v>24.37522272727273</v>
       </c>
       <c r="C26">
-        <v>26.08131764705882</v>
+        <v>25.78276</v>
       </c>
       <c r="D26">
-        <v>24.4732947368421</v>
+        <v>24.3041</v>
       </c>
       <c r="E26">
-        <v>22.7955</v>
+        <v>23.56240909090909</v>
       </c>
       <c r="F26">
-        <v>24.64654210526315</v>
+        <v>25.03639545454546</v>
       </c>
       <c r="G26">
-        <v>24.05368947368421</v>
+        <v>24.07998181818182</v>
       </c>
       <c r="H26">
-        <v>24.07581578947368</v>
+        <v>24.49516363636364</v>
       </c>
       <c r="I26">
-        <v>23.79584210526316</v>
+        <v>23.94071818181818</v>
       </c>
       <c r="J26">
-        <v>22.35144210526316</v>
+        <v>19.67921818181818</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1250,31 +1250,31 @@
         <v>36951</v>
       </c>
       <c r="B27">
-        <v>24.31665714285714</v>
+        <v>21.53522</v>
       </c>
       <c r="C27">
-        <v>26.21462631578947</v>
+        <v>22.73183888888889</v>
       </c>
       <c r="D27">
-        <v>23.66604761904762</v>
+        <v>21.038095</v>
       </c>
       <c r="E27">
-        <v>22.2009</v>
+        <v>19.48523</v>
       </c>
       <c r="F27">
-        <v>24.1178380952381</v>
+        <v>22.470835</v>
       </c>
       <c r="G27">
-        <v>23.22591428571429</v>
+        <v>21.92218</v>
       </c>
       <c r="H27">
-        <v>23.19600476190476</v>
+        <v>22.503375</v>
       </c>
       <c r="I27">
-        <v>23.12002380952381</v>
+        <v>22.192825</v>
       </c>
       <c r="J27">
-        <v>22.2323380952381</v>
+        <v>21.67793</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1282,31 +1282,31 @@
         <v>36982</v>
       </c>
       <c r="B28">
-        <v>28.48360909090909</v>
+        <v>26.06414545454545</v>
       </c>
       <c r="C28">
-        <v>31.14827</v>
+        <v>28.85265</v>
       </c>
       <c r="D28">
-        <v>27.42326363636364</v>
+        <v>25.11181818181818</v>
       </c>
       <c r="E28">
-        <v>26.91187272727273</v>
+        <v>24.96612727272727</v>
       </c>
       <c r="F28">
-        <v>25.97029545454545</v>
+        <v>24.61465909090909</v>
       </c>
       <c r="G28">
-        <v>24.76513636363636</v>
+        <v>23.40007727272727</v>
       </c>
       <c r="H28">
-        <v>22.60968181818182</v>
+        <v>21.90617727272727</v>
       </c>
       <c r="I28">
-        <v>23.88794090909091</v>
+        <v>22.91775454545455</v>
       </c>
       <c r="J28">
-        <v>22.93980909090909</v>
+        <v>22.35661818181818</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1314,31 +1314,31 @@
         <v>37012</v>
       </c>
       <c r="B29">
-        <v>25.99067777777778</v>
+        <v>26.82713157894737</v>
       </c>
       <c r="C29">
-        <v>27.78291875</v>
+        <v>28.58894705882353</v>
       </c>
       <c r="D29">
-        <v>25.73825</v>
+        <v>26.58195789473684</v>
       </c>
       <c r="E29">
-        <v>23.68881111111111</v>
+        <v>24.81095789473684</v>
       </c>
       <c r="F29">
-        <v>24.75059444444445</v>
+        <v>24.75380526315789</v>
       </c>
       <c r="G29">
-        <v>24.44352777777778</v>
+        <v>24.63132105263158</v>
       </c>
       <c r="H29">
-        <v>23.05716111111111</v>
+        <v>22.19916315789474</v>
       </c>
       <c r="I29">
-        <v>23.58010555555555</v>
+        <v>23.35467894736842</v>
       </c>
       <c r="J29">
-        <v>22.66963333333333</v>
+        <v>22.78276315789474</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1346,31 +1346,31 @@
         <v>37043</v>
       </c>
       <c r="B30">
-        <v>23.6474375</v>
+        <v>21.26327727272727</v>
       </c>
       <c r="C30">
-        <v>25.11612272727273</v>
+        <v>22.541065</v>
       </c>
       <c r="D30">
-        <v>23.58306666666667</v>
+        <v>21.27314090909091</v>
       </c>
       <c r="E30">
-        <v>22.2588875</v>
+        <v>20.49001818181818</v>
       </c>
       <c r="F30">
-        <v>23.5275875</v>
+        <v>21.86577727272727</v>
       </c>
       <c r="G30">
-        <v>23.4345625</v>
+        <v>22.2851</v>
       </c>
       <c r="H30">
-        <v>22.74400833333333</v>
+        <v>21.366</v>
       </c>
       <c r="I30">
-        <v>23.02542916666667</v>
+        <v>21.93906818181818</v>
       </c>
       <c r="J30">
-        <v>22.3466625</v>
+        <v>21.70618181818182</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1378,31 +1378,31 @@
         <v>37073</v>
       </c>
       <c r="B31">
-        <v>24.02747272727272</v>
+        <v>21.66623333333333</v>
       </c>
       <c r="C31">
-        <v>24.92651</v>
+        <v>22.31866315789474</v>
       </c>
       <c r="D31">
-        <v>23.73942727272727</v>
+        <v>21.49168571428572</v>
       </c>
       <c r="E31">
-        <v>23.00976818181818</v>
+        <v>21.09390476190476</v>
       </c>
       <c r="F31">
-        <v>23.85362727272727</v>
+        <v>22.32894761904762</v>
       </c>
       <c r="G31">
-        <v>23.19240909090909</v>
+        <v>22.15199523809524</v>
       </c>
       <c r="H31">
-        <v>22.97365</v>
+        <v>21.90145238095238</v>
       </c>
       <c r="I31">
-        <v>22.83493181818182</v>
+        <v>21.92519047619048</v>
       </c>
       <c r="J31">
-        <v>21.72787272727273</v>
+        <v>20.90451904761905</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1410,31 +1410,31 @@
         <v>37104</v>
       </c>
       <c r="B32">
-        <v>25.67001428571428</v>
+        <v>24.73374545454545</v>
       </c>
       <c r="C32">
-        <v>27.54085263157895</v>
+        <v>26.93265</v>
       </c>
       <c r="D32">
-        <v>25.52306666666667</v>
+        <v>24.57162272727273</v>
       </c>
       <c r="E32">
-        <v>22.91989523809524</v>
+        <v>22.97736363636364</v>
       </c>
       <c r="F32">
-        <v>25.02799523809524</v>
+        <v>24.29024090909091</v>
       </c>
       <c r="G32">
-        <v>24.65492857142857</v>
+        <v>23.83367727272728</v>
       </c>
       <c r="H32">
-        <v>24.39625714285715</v>
+        <v>23.54372727272727</v>
       </c>
       <c r="I32">
-        <v>23.39904761904762</v>
+        <v>22.38288181818182</v>
       </c>
       <c r="J32">
-        <v>22.89262857142857</v>
+        <v>21.83010909090909</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1442,31 +1442,31 @@
         <v>37135</v>
       </c>
       <c r="B33">
-        <v>26.23239565217391</v>
+        <v>25.23741304347826</v>
       </c>
       <c r="C33">
-        <v>27.45513333333334</v>
+        <v>26.20738095238095</v>
       </c>
       <c r="D33">
-        <v>25.73066086956522</v>
+        <v>24.76629565217392</v>
       </c>
       <c r="E33">
-        <v>23.49816956521739</v>
+        <v>22.66192173913043</v>
       </c>
       <c r="F33">
-        <v>25.11438260869565</v>
+        <v>24.43084347826087</v>
       </c>
       <c r="G33">
-        <v>24.40527391304348</v>
+        <v>23.95956086956522</v>
       </c>
       <c r="H33">
-        <v>24.29156956521739</v>
+        <v>24.00260434782609</v>
       </c>
       <c r="I33">
-        <v>24.36212608695652</v>
+        <v>24.21610869565217</v>
       </c>
       <c r="J33">
-        <v>23.84576086956522</v>
+        <v>24.19688695652174</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1474,31 +1474,31 @@
         <v>37165</v>
       </c>
       <c r="B34">
-        <v>39.05574285714286</v>
+        <v>43.04567</v>
       </c>
       <c r="C34">
-        <v>43.61682631578947</v>
+        <v>49.82016666666667</v>
       </c>
       <c r="D34">
-        <v>38.04932857142857</v>
+        <v>41.722365</v>
       </c>
       <c r="E34">
-        <v>34.67412857142857</v>
+        <v>36.117245</v>
       </c>
       <c r="F34">
-        <v>32.17572857142857</v>
+        <v>34.67462</v>
       </c>
       <c r="G34">
-        <v>30.03331904761905</v>
+        <v>32.042475</v>
       </c>
       <c r="H34">
-        <v>27.39192857142857</v>
+        <v>29.208525</v>
       </c>
       <c r="I34">
-        <v>27.55508095238095</v>
+        <v>29.21756</v>
       </c>
       <c r="J34">
-        <v>26.09248095238095</v>
+        <v>28.05403</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1506,31 +1506,31 @@
         <v>37196</v>
       </c>
       <c r="B35">
-        <v>36.62723333333334</v>
+        <v>41.34496086956521</v>
       </c>
       <c r="C35">
-        <v>38.9181947368421</v>
+        <v>44.39341428571429</v>
       </c>
       <c r="D35">
-        <v>35.8755380952381</v>
+        <v>40.4168652173913</v>
       </c>
       <c r="E35">
-        <v>31.6658380952381</v>
+        <v>35.5169</v>
       </c>
       <c r="F35">
-        <v>31.09400476190476</v>
+        <v>33.34046956521739</v>
       </c>
       <c r="G35">
-        <v>29.24480952380952</v>
+        <v>30.95383043478261</v>
       </c>
       <c r="H35">
-        <v>27.98672857142857</v>
+        <v>29.26812608695652</v>
       </c>
       <c r="I35">
-        <v>27.60106666666666</v>
+        <v>28.97671739130435</v>
       </c>
       <c r="J35">
-        <v>26.33756190476191</v>
+        <v>27.8020347826087</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1538,31 +1538,31 @@
         <v>37226</v>
       </c>
       <c r="B36">
-        <v>30.70336818181818</v>
+        <v>33.31541818181818</v>
       </c>
       <c r="C36">
-        <v>33.07445</v>
+        <v>34.79104</v>
       </c>
       <c r="D36">
-        <v>29.66628181818182</v>
+        <v>32.33894545454546</v>
       </c>
       <c r="E36">
-        <v>25.35406818181818</v>
+        <v>27.45549090909091</v>
       </c>
       <c r="F36">
-        <v>28.64560454545455</v>
+        <v>30.49949090909091</v>
       </c>
       <c r="G36">
-        <v>27.79596818181818</v>
+        <v>29.32752272727273</v>
       </c>
       <c r="H36">
-        <v>27.02546363636364</v>
+        <v>28.37384090909091</v>
       </c>
       <c r="I36">
-        <v>26.77497727272727</v>
+        <v>27.98545454545455</v>
       </c>
       <c r="J36">
-        <v>25.77337272727273</v>
+        <v>27.15891818181818</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1570,31 +1570,31 @@
         <v>37257</v>
       </c>
       <c r="B37">
-        <v>28.87215263157895</v>
+        <v>28.39369411764706</v>
       </c>
       <c r="C37">
-        <v>32.89562352941176</v>
+        <v>31.47523333333333</v>
       </c>
       <c r="D37">
-        <v>28.76378421052631</v>
+        <v>28.13097058823529</v>
       </c>
       <c r="E37">
-        <v>27.67971052631579</v>
+        <v>27.31569411764706</v>
       </c>
       <c r="F37">
-        <v>28.28951052631579</v>
+        <v>28.8836</v>
       </c>
       <c r="G37">
-        <v>27.21417894736842</v>
+        <v>27.93361764705882</v>
       </c>
       <c r="H37">
-        <v>26.37226842105263</v>
+        <v>27.27295294117647</v>
       </c>
       <c r="I37">
-        <v>25.93007894736842</v>
+        <v>26.87329411764706</v>
       </c>
       <c r="J37">
-        <v>24.76554210526316</v>
+        <v>26.10835882352941</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1602,31 +1602,31 @@
         <v>37288</v>
       </c>
       <c r="B38">
-        <v>30.826115</v>
+        <v>27.15014090909091</v>
       </c>
       <c r="C38">
-        <v>33.03443333333334</v>
+        <v>28.73584</v>
       </c>
       <c r="D38">
-        <v>30.55127</v>
+        <v>27.06244090909091</v>
       </c>
       <c r="E38">
-        <v>29.39147</v>
+        <v>26.78083181818182</v>
       </c>
       <c r="F38">
-        <v>29.014745</v>
+        <v>26.99082272727273</v>
       </c>
       <c r="G38">
-        <v>28.04719</v>
+        <v>26.56502272727273</v>
       </c>
       <c r="H38">
-        <v>26.969095</v>
+        <v>26.37667272727273</v>
       </c>
       <c r="I38">
-        <v>26.912405</v>
+        <v>25.74865909090909</v>
       </c>
       <c r="J38">
-        <v>25.728865</v>
+        <v>24.75206363636363</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1634,31 +1634,31 @@
         <v>37316</v>
       </c>
       <c r="B39">
-        <v>31.830115</v>
+        <v>27.2034</v>
       </c>
       <c r="C39">
-        <v>34.26227222222222</v>
+        <v>29.0469</v>
       </c>
       <c r="D39">
-        <v>31.16351</v>
+        <v>26.88029</v>
       </c>
       <c r="E39">
-        <v>28.93161</v>
+        <v>25.331085</v>
       </c>
       <c r="F39">
-        <v>29.33075</v>
+        <v>26.349335</v>
       </c>
       <c r="G39">
-        <v>28.19863</v>
+        <v>26.036405</v>
       </c>
       <c r="H39">
-        <v>26.841055</v>
+        <v>25.81759</v>
       </c>
       <c r="I39">
-        <v>26.99762</v>
+        <v>25.390315</v>
       </c>
       <c r="J39">
-        <v>25.76047</v>
+        <v>24.40531</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1666,31 +1666,31 @@
         <v>37347</v>
       </c>
       <c r="B40">
-        <v>27.975555</v>
+        <v>22.82304</v>
       </c>
       <c r="C40">
-        <v>29.61905555555556</v>
+        <v>23.57709444444444</v>
       </c>
       <c r="D40">
-        <v>27.91969</v>
+        <v>23.0456</v>
       </c>
       <c r="E40">
-        <v>27.2152</v>
+        <v>23.05134</v>
       </c>
       <c r="F40">
-        <v>27.31882</v>
+        <v>23.80461</v>
       </c>
       <c r="G40">
-        <v>26.71888</v>
+        <v>24.097005</v>
       </c>
       <c r="H40">
-        <v>23.58377</v>
+        <v>22.15821</v>
       </c>
       <c r="I40">
-        <v>26.031175</v>
+        <v>24.1519</v>
       </c>
       <c r="J40">
-        <v>25.26101</v>
+        <v>23.586275</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1698,31 +1698,31 @@
         <v>37377</v>
       </c>
       <c r="B41">
-        <v>29.54777272727273</v>
+        <v>22.95556666666667</v>
       </c>
       <c r="C41">
-        <v>32.066375</v>
+        <v>24.2036</v>
       </c>
       <c r="D41">
-        <v>29.20026818181818</v>
+        <v>22.8401</v>
       </c>
       <c r="E41">
-        <v>27.45420909090909</v>
+        <v>22.26848571428571</v>
       </c>
       <c r="F41">
-        <v>27.86647727272727</v>
+        <v>23.31474285714286</v>
       </c>
       <c r="G41">
-        <v>27.06037727272727</v>
+        <v>23.60728095238095</v>
       </c>
       <c r="H41">
-        <v>25.68991818181818</v>
+        <v>22.87184285714286</v>
       </c>
       <c r="I41">
-        <v>26.24911363636364</v>
+        <v>23.68113809523809</v>
       </c>
       <c r="J41">
-        <v>25.41269090909091</v>
+        <v>23.03380476190476</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1730,31 +1730,31 @@
         <v>37408</v>
       </c>
       <c r="B42">
-        <v>29.92181666666667</v>
+        <v>25.36361363636364</v>
       </c>
       <c r="C42">
-        <v>32.10349545454545</v>
+        <v>26.323565</v>
       </c>
       <c r="D42">
-        <v>29.5496125</v>
+        <v>25.16360909090909</v>
       </c>
       <c r="E42">
-        <v>27.7744</v>
+        <v>24.12604090909091</v>
       </c>
       <c r="F42">
-        <v>27.95973333333333</v>
+        <v>24.65013181818182</v>
       </c>
       <c r="G42">
-        <v>26.9265625</v>
+        <v>24.51587272727273</v>
       </c>
       <c r="H42">
-        <v>26.595075</v>
+        <v>24.30290454545455</v>
       </c>
       <c r="I42">
-        <v>26.127275</v>
+        <v>24.32606363636364</v>
       </c>
       <c r="J42">
-        <v>25.60539166666667</v>
+        <v>24.00725</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1762,31 +1762,31 @@
         <v>37438</v>
       </c>
       <c r="B43">
-        <v>36.39406</v>
+        <v>32.887265</v>
       </c>
       <c r="C43">
-        <v>39.74578888888889</v>
+        <v>35.28700000000001</v>
       </c>
       <c r="D43">
-        <v>35.663515</v>
+        <v>32.18349</v>
       </c>
       <c r="E43">
-        <v>33.22874</v>
+        <v>29.689655</v>
       </c>
       <c r="F43">
-        <v>31.58759</v>
+        <v>28.805575</v>
       </c>
       <c r="G43">
-        <v>29.70157</v>
+        <v>27.60596</v>
       </c>
       <c r="H43">
-        <v>28.914795</v>
+        <v>27.10356</v>
       </c>
       <c r="I43">
-        <v>28.349595</v>
+        <v>26.867605</v>
       </c>
       <c r="J43">
-        <v>27.29654</v>
+        <v>26.23065</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1794,31 +1794,31 @@
         <v>37469</v>
       </c>
       <c r="B44">
-        <v>47.41472380952381</v>
+        <v>48.07999565217391</v>
       </c>
       <c r="C44">
-        <v>52.76918947368421</v>
+        <v>54.20496666666666</v>
       </c>
       <c r="D44">
-        <v>46.07134285714286</v>
+        <v>46.59173913043478</v>
       </c>
       <c r="E44">
-        <v>39.12814761904762</v>
+        <v>39.38261739130435</v>
       </c>
       <c r="F44">
-        <v>37.33309047619048</v>
+        <v>36.77721304347826</v>
       </c>
       <c r="G44">
-        <v>33.40174761904762</v>
+        <v>32.86574347826087</v>
       </c>
       <c r="H44">
-        <v>31.53874761904762</v>
+        <v>31.85554347826087</v>
       </c>
       <c r="I44">
-        <v>30.49500952380953</v>
+        <v>30.0928347826087</v>
       </c>
       <c r="J44">
-        <v>28.21356666666667</v>
+        <v>27.67170434782609</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1826,31 +1826,31 @@
         <v>37500</v>
       </c>
       <c r="B45">
-        <v>40.51766956521739</v>
+        <v>46.74839090909091</v>
       </c>
       <c r="C45">
-        <v>42.73037619047619</v>
+        <v>51.50168499999999</v>
       </c>
       <c r="D45">
-        <v>39.48175217391304</v>
+        <v>45.30073636363637</v>
       </c>
       <c r="E45">
-        <v>36.20251739130435</v>
+        <v>40.84550909090909</v>
       </c>
       <c r="F45">
-        <v>34.9194</v>
+        <v>38.47604545454545</v>
       </c>
       <c r="G45">
-        <v>31.89478260869565</v>
+        <v>33.89672272727272</v>
       </c>
       <c r="H45">
-        <v>30.10210434782609</v>
+        <v>32.54940909090909</v>
       </c>
       <c r="I45">
-        <v>29.25858260869565</v>
+        <v>30.45745454545454</v>
       </c>
       <c r="J45">
-        <v>28.02402608695652</v>
+        <v>28.88597727272727</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1858,31 +1858,31 @@
         <v>37530</v>
       </c>
       <c r="B46">
-        <v>49.7298</v>
+        <v>54.26891904761905</v>
       </c>
       <c r="C46">
-        <v>52.27366666666666</v>
+        <v>56.98122105263158</v>
       </c>
       <c r="D46">
-        <v>49.195825</v>
+        <v>53.5329761904762</v>
       </c>
       <c r="E46">
-        <v>46.574615</v>
+        <v>49.42471904761905</v>
       </c>
       <c r="F46">
-        <v>42.05977</v>
+        <v>45.60519523809524</v>
       </c>
       <c r="G46">
-        <v>37.212325</v>
+        <v>38.92463333333334</v>
       </c>
       <c r="H46">
-        <v>31.43364</v>
+        <v>33.53835714285714</v>
       </c>
       <c r="I46">
-        <v>33.792835</v>
+        <v>34.90412857142857</v>
       </c>
       <c r="J46">
-        <v>31.98058</v>
+        <v>33.08600476190476</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1890,31 +1890,31 @@
         <v>37561</v>
       </c>
       <c r="B47">
-        <v>44.97149545454545</v>
+        <v>52.72982608695652</v>
       </c>
       <c r="C47">
-        <v>47.73548</v>
+        <v>56.11449523809523</v>
       </c>
       <c r="D47">
-        <v>44.27474090909091</v>
+        <v>51.99328260869565</v>
       </c>
       <c r="E47">
-        <v>41.03533636363637</v>
+        <v>48.2391</v>
       </c>
       <c r="F47">
-        <v>39.33304090909091</v>
+        <v>44.40803913043478</v>
       </c>
       <c r="G47">
-        <v>36.50689090909091</v>
+        <v>40.74077826086957</v>
       </c>
       <c r="H47">
-        <v>33.94217727272727</v>
+        <v>33.83368260869565</v>
       </c>
       <c r="I47">
-        <v>33.55766818181818</v>
+        <v>36.91219130434783</v>
       </c>
       <c r="J47">
-        <v>31.9822</v>
+        <v>34.93475652173913</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1922,31 +1922,31 @@
         <v>37591</v>
       </c>
       <c r="B48">
-        <v>37.4350347826087</v>
+        <v>41.0115</v>
       </c>
       <c r="C48">
-        <v>38.82815238095238</v>
+        <v>43.86996315789474</v>
       </c>
       <c r="D48">
-        <v>37.20171304347826</v>
+        <v>40.60991428571429</v>
       </c>
       <c r="E48">
-        <v>34.62993478260869</v>
+        <v>37.63518095238095</v>
       </c>
       <c r="F48">
-        <v>35.48139565217391</v>
+        <v>38.37117619047619</v>
       </c>
       <c r="G48">
-        <v>33.59205652173913</v>
+        <v>36.15685238095238</v>
       </c>
       <c r="H48">
-        <v>32.15006086956522</v>
+        <v>34.36060476190477</v>
       </c>
       <c r="I48">
-        <v>31.36830869565217</v>
+        <v>33.34512857142857</v>
       </c>
       <c r="J48">
-        <v>30.10311739130435</v>
+        <v>31.9985619047619</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1954,31 +1954,31 @@
         <v>37622</v>
       </c>
       <c r="B49">
-        <v>42.53914444444445</v>
+        <v>44.63130555555556</v>
       </c>
       <c r="C49">
-        <v>44.63500625</v>
+        <v>45.39265</v>
       </c>
       <c r="D49">
-        <v>42.41545</v>
+        <v>44.35210555555555</v>
       </c>
       <c r="E49">
-        <v>41.12243888888889</v>
+        <v>43.3355611111111</v>
       </c>
       <c r="F49">
-        <v>39.40271111111111</v>
+        <v>42.55443888888889</v>
       </c>
       <c r="G49">
-        <v>36.25546666666666</v>
+        <v>39.6007</v>
       </c>
       <c r="H49">
-        <v>34.56237777777778</v>
+        <v>37.31151666666667</v>
       </c>
       <c r="I49">
-        <v>33.06635555555555</v>
+        <v>35.71812777777777</v>
       </c>
       <c r="J49">
-        <v>31.62285</v>
+        <v>34.07285</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1986,31 +1986,31 @@
         <v>37653</v>
       </c>
       <c r="B50">
-        <v>41.05805238095238</v>
+        <v>45.16631363636364</v>
       </c>
       <c r="C50">
-        <v>41.93363157894737</v>
+        <v>45.796655</v>
       </c>
       <c r="D50">
-        <v>40.85858095238095</v>
+        <v>45.10883636363636</v>
       </c>
       <c r="E50">
-        <v>38.59939523809524</v>
+        <v>43.21229545454545</v>
       </c>
       <c r="F50">
-        <v>38.69468571428571</v>
+        <v>42.19891363636363</v>
       </c>
       <c r="G50">
-        <v>36.8874380952381</v>
+        <v>39.90850909090909</v>
       </c>
       <c r="H50">
-        <v>35.78192380952381</v>
+        <v>38.49768636363637</v>
       </c>
       <c r="I50">
-        <v>34.47322857142857</v>
+        <v>36.49578181818182</v>
       </c>
       <c r="J50">
-        <v>33.72372380952381</v>
+        <v>35.66054545454546</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2018,31 +2018,31 @@
         <v>37681</v>
       </c>
       <c r="B51">
-        <v>39.24482</v>
+        <v>44.39293</v>
       </c>
       <c r="C51">
-        <v>40.87566666666667</v>
+        <v>46.10416111111111</v>
       </c>
       <c r="D51">
-        <v>38.88652</v>
+        <v>44.19261</v>
       </c>
       <c r="E51">
-        <v>37.570715</v>
+        <v>42.215505</v>
       </c>
       <c r="F51">
-        <v>37.339815</v>
+        <v>42.21399</v>
       </c>
       <c r="G51">
-        <v>36.049765</v>
+        <v>40.38241</v>
       </c>
       <c r="H51">
-        <v>35.167135</v>
+        <v>39.30775</v>
       </c>
       <c r="I51">
-        <v>34.16918</v>
+        <v>37.665805</v>
       </c>
       <c r="J51">
-        <v>33.68051000000001</v>
+        <v>36.97699</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2050,31 +2050,31 @@
         <v>37712</v>
       </c>
       <c r="B52">
-        <v>42.02299130434783</v>
+        <v>47.46984285714286</v>
       </c>
       <c r="C52">
-        <v>46.24056666666667</v>
+        <v>53.62176842105263</v>
       </c>
       <c r="D52">
-        <v>41.49206086956521</v>
+        <v>46.7796619047619</v>
       </c>
       <c r="E52">
-        <v>39.27408260869565</v>
+        <v>43.13783333333333</v>
       </c>
       <c r="F52">
-        <v>37.86521739130435</v>
+        <v>42.40447142857143</v>
       </c>
       <c r="G52">
-        <v>36.07266956521739</v>
+        <v>39.94682380952381</v>
       </c>
       <c r="H52">
-        <v>33.49580434782609</v>
+        <v>36.9874</v>
       </c>
       <c r="I52">
-        <v>33.74061304347826</v>
+        <v>36.90685238095238</v>
       </c>
       <c r="J52">
-        <v>33.26003913043478</v>
+        <v>36.39038571428571</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2082,31 +2082,31 @@
         <v>37742</v>
       </c>
       <c r="B53">
-        <v>32.45583</v>
+        <v>36.9559</v>
       </c>
       <c r="C53">
-        <v>34.12885</v>
+        <v>40.68704444444445</v>
       </c>
       <c r="D53">
-        <v>32.335575</v>
+        <v>36.657425</v>
       </c>
       <c r="E53">
-        <v>30.923155</v>
+        <v>35.31189</v>
       </c>
       <c r="F53">
-        <v>31.824765</v>
+        <v>34.90659</v>
       </c>
       <c r="G53">
-        <v>31.30621</v>
+        <v>34.093255</v>
       </c>
       <c r="H53">
-        <v>30.686535</v>
+        <v>33.00248000000001</v>
       </c>
       <c r="I53">
-        <v>30.514925</v>
+        <v>33.01615</v>
       </c>
       <c r="J53">
-        <v>30.362085</v>
+        <v>32.78279999999999</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2114,31 +2114,31 @@
         <v>37773</v>
       </c>
       <c r="B54">
-        <v>31.5923</v>
+        <v>32.04016666666666</v>
       </c>
       <c r="C54">
-        <v>32.907485</v>
+        <v>34.08779999999999</v>
       </c>
       <c r="D54">
-        <v>30.99235454545455</v>
+        <v>31.37764285714286</v>
       </c>
       <c r="E54">
-        <v>29.51475909090909</v>
+        <v>29.67513333333333</v>
       </c>
       <c r="F54">
-        <v>30.31826818181818</v>
+        <v>30.41564285714286</v>
       </c>
       <c r="G54">
-        <v>29.60529545454546</v>
+        <v>29.74647142857143</v>
       </c>
       <c r="H54">
-        <v>29.10742727272727</v>
+        <v>29.14890476190476</v>
       </c>
       <c r="I54">
-        <v>28.77745909090909</v>
+        <v>29.06929047619048</v>
       </c>
       <c r="J54">
-        <v>28.63897272727273</v>
+        <v>29.13505714285714</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2146,31 +2146,31 @@
         <v>37803</v>
       </c>
       <c r="B55">
-        <v>29.99262</v>
+        <v>27.84754285714286</v>
       </c>
       <c r="C55">
-        <v>32.44392222222222</v>
+        <v>30.52955789473684</v>
       </c>
       <c r="D55">
-        <v>29.91789</v>
+        <v>27.67053809523809</v>
       </c>
       <c r="E55">
-        <v>29.49788</v>
+        <v>27.41831428571428</v>
       </c>
       <c r="F55">
-        <v>29.5577</v>
+        <v>27.56910476190476</v>
       </c>
       <c r="G55">
-        <v>29.053925</v>
+        <v>27.37871904761905</v>
       </c>
       <c r="H55">
-        <v>28.579045</v>
+        <v>26.83662380952381</v>
       </c>
       <c r="I55">
-        <v>28.24453</v>
+        <v>26.89061904761905</v>
       </c>
       <c r="J55">
-        <v>27.93186</v>
+        <v>26.7329</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2178,31 +2178,31 @@
         <v>37834</v>
       </c>
       <c r="B56">
-        <v>29.99497826086957</v>
+        <v>26.77627826086956</v>
       </c>
       <c r="C56">
-        <v>31.67123333333333</v>
+        <v>28.06234285714286</v>
       </c>
       <c r="D56">
-        <v>30.0006</v>
+        <v>26.78813913043478</v>
       </c>
       <c r="E56">
-        <v>28.99344347826087</v>
+        <v>26.23856086956522</v>
       </c>
       <c r="F56">
-        <v>29.64468260869565</v>
+        <v>27.10486521739131</v>
       </c>
       <c r="G56">
-        <v>28.86130434782609</v>
+        <v>26.57286086956521</v>
       </c>
       <c r="H56">
-        <v>28.48458260869565</v>
+        <v>26.35653478260869</v>
       </c>
       <c r="I56">
-        <v>28.11234347826087</v>
+        <v>26.29913478260869</v>
       </c>
       <c r="J56">
-        <v>27.4728</v>
+        <v>25.63800434782609</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2210,31 +2210,31 @@
         <v>37865</v>
       </c>
       <c r="B57">
-        <v>27.28644761904762</v>
+        <v>25.90127142857143</v>
       </c>
       <c r="C57">
-        <v>28.33105263157895</v>
+        <v>26.94868421052631</v>
       </c>
       <c r="D57">
-        <v>27.55131904761905</v>
+        <v>26.16326666666667</v>
       </c>
       <c r="E57">
-        <v>26.88507619047619</v>
+        <v>25.35688095238095</v>
       </c>
       <c r="F57">
-        <v>27.69065238095238</v>
+        <v>26.61171428571429</v>
       </c>
       <c r="G57">
-        <v>27.41487142857143</v>
+        <v>26.20695714285714</v>
       </c>
       <c r="H57">
-        <v>27.68330476190476</v>
+        <v>26.60583333333333</v>
       </c>
       <c r="I57">
-        <v>26.96578571428572</v>
+        <v>25.86840476190476</v>
       </c>
       <c r="J57">
-        <v>26.48846666666666</v>
+        <v>25.29952857142857</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2242,31 +2242,31 @@
         <v>37895</v>
       </c>
       <c r="B58">
-        <v>29.367525</v>
+        <v>27.29710909090909</v>
       </c>
       <c r="C58">
-        <v>31.28223333333333</v>
+        <v>28.48644</v>
       </c>
       <c r="D58">
-        <v>28.98726</v>
+        <v>26.98266363636364</v>
       </c>
       <c r="E58">
-        <v>29.103735</v>
+        <v>27.0903</v>
       </c>
       <c r="F58">
-        <v>28.619375</v>
+        <v>27.13163181818182</v>
       </c>
       <c r="G58">
-        <v>28.456575</v>
+        <v>27.11379090909091</v>
       </c>
       <c r="H58">
-        <v>26.821975</v>
+        <v>25.84316363636364</v>
       </c>
       <c r="I58">
-        <v>27.83285</v>
+        <v>26.69454090909091</v>
       </c>
       <c r="J58">
-        <v>27.361115</v>
+        <v>26.18955</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2274,31 +2274,31 @@
         <v>37926</v>
       </c>
       <c r="B59">
-        <v>28.248888</v>
+        <v>26.76461739130434</v>
       </c>
       <c r="C59">
-        <v>29.32451304347826</v>
+        <v>27.70124285714286</v>
       </c>
       <c r="D59">
-        <v>28.370152</v>
+        <v>26.84880434782609</v>
       </c>
       <c r="E59">
-        <v>27.878448</v>
+        <v>26.4713</v>
       </c>
       <c r="F59">
-        <v>28.410228</v>
+        <v>26.85717391304348</v>
       </c>
       <c r="G59">
-        <v>28.283808</v>
+        <v>26.92260434782609</v>
       </c>
       <c r="H59">
-        <v>28.008548</v>
+        <v>26.77476956521739</v>
       </c>
       <c r="I59">
-        <v>27.743972</v>
+        <v>26.62524782608696</v>
       </c>
       <c r="J59">
-        <v>27.415384</v>
+        <v>26.27362173913044</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2306,31 +2306,31 @@
         <v>37956</v>
       </c>
       <c r="B60">
-        <v>27.38039523809524</v>
+        <v>23.88348</v>
       </c>
       <c r="C60">
-        <v>28.38877368421053</v>
+        <v>24.11708888888889</v>
       </c>
       <c r="D60">
-        <v>27.45582380952381</v>
+        <v>23.9681</v>
       </c>
       <c r="E60">
-        <v>26.75693333333333</v>
+        <v>23.156765</v>
       </c>
       <c r="F60">
-        <v>27.21225714285714</v>
+        <v>24.0629</v>
       </c>
       <c r="G60">
-        <v>27.1569</v>
+        <v>24.528115</v>
       </c>
       <c r="H60">
-        <v>26.9666619047619</v>
+        <v>24.61383</v>
       </c>
       <c r="I60">
-        <v>26.8268380952381</v>
+        <v>24.731365</v>
       </c>
       <c r="J60">
-        <v>26.58914285714285</v>
+        <v>24.61405</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2338,31 +2338,31 @@
         <v>37987</v>
       </c>
       <c r="B61">
-        <v>25.58052941176471</v>
+        <v>20.80296842105263</v>
       </c>
       <c r="C61">
-        <v>28.04212666666666</v>
+        <v>20.54977058823529</v>
       </c>
       <c r="D61">
-        <v>25.72864117647059</v>
+        <v>21.08895263157895</v>
       </c>
       <c r="E61">
-        <v>26.32001764705882</v>
+        <v>22.78105263157894</v>
       </c>
       <c r="F61">
-        <v>26.75295294117647</v>
+        <v>23.16210526315789</v>
       </c>
       <c r="G61">
-        <v>26.75257647058823</v>
+        <v>23.72839473684211</v>
       </c>
       <c r="H61">
-        <v>26.64065882352941</v>
+        <v>24.00141052631579</v>
       </c>
       <c r="I61">
-        <v>26.33288235294118</v>
+        <v>24.0336947368421</v>
       </c>
       <c r="J61">
-        <v>26.05916470588235</v>
+        <v>23.89373157894737</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2370,31 +2370,31 @@
         <v>38018</v>
       </c>
       <c r="B62">
-        <v>18.93048181818182</v>
+        <v>19.5050619047619</v>
       </c>
       <c r="C62">
-        <v>19.30376</v>
+        <v>20.25188947368421</v>
       </c>
       <c r="D62">
-        <v>19.33695454545455</v>
+        <v>19.90318095238095</v>
       </c>
       <c r="E62">
-        <v>19.32195</v>
+        <v>19.90761428571429</v>
       </c>
       <c r="F62">
-        <v>20.30051363636364</v>
+        <v>20.69194761904762</v>
       </c>
       <c r="G62">
-        <v>20.90513181818182</v>
+        <v>21.08282380952381</v>
       </c>
       <c r="H62">
-        <v>21.23418181818182</v>
+        <v>21.38261428571429</v>
       </c>
       <c r="I62">
-        <v>21.52303636363636</v>
+        <v>21.35197619047619</v>
       </c>
       <c r="J62">
-        <v>21.56746818181818</v>
+        <v>21.26347619047619</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2402,31 +2402,31 @@
         <v>38047</v>
       </c>
       <c r="B63">
-        <v>18.53208095238095</v>
+        <v>18.983875</v>
       </c>
       <c r="C63">
-        <v>18.67523157894737</v>
+        <v>18.88531666666667</v>
       </c>
       <c r="D63">
-        <v>18.65172857142857</v>
+        <v>19.11964</v>
       </c>
       <c r="E63">
-        <v>19.25474761904762</v>
+        <v>19.717395</v>
       </c>
       <c r="F63">
-        <v>20.49626666666667</v>
+        <v>20.72569</v>
       </c>
       <c r="G63">
-        <v>21.31909047619047</v>
+        <v>21.367335</v>
       </c>
       <c r="H63">
-        <v>21.72896190476191</v>
+        <v>21.66706</v>
       </c>
       <c r="I63">
-        <v>22.2568</v>
+        <v>21.891985</v>
       </c>
       <c r="J63">
-        <v>22.24408571428572</v>
+        <v>21.80855</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2434,31 +2434,31 @@
         <v>38078</v>
       </c>
       <c r="B64">
-        <v>23.4313</v>
+        <v>23.15044782608695</v>
       </c>
       <c r="C64">
-        <v>23.92648421052631</v>
+        <v>23.81259523809524</v>
       </c>
       <c r="D64">
-        <v>23.4648</v>
+        <v>23.17140434782609</v>
       </c>
       <c r="E64">
-        <v>23.5012</v>
+        <v>23.57800434782608</v>
       </c>
       <c r="F64">
-        <v>24.02071428571428</v>
+        <v>23.89135652173913</v>
       </c>
       <c r="G64">
-        <v>24.40084761904762</v>
+        <v>24.32752608695652</v>
       </c>
       <c r="H64">
-        <v>22.85724285714286</v>
+        <v>22.91997826086956</v>
       </c>
       <c r="I64">
-        <v>24.73555238095238</v>
+        <v>24.60752173913043</v>
       </c>
       <c r="J64">
-        <v>24.82047619047619</v>
+        <v>24.64341739130435</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2466,31 +2466,31 @@
         <v>38108</v>
       </c>
       <c r="B65">
-        <v>19.76687619047619</v>
+        <v>20.285415</v>
       </c>
       <c r="C65">
-        <v>19.81274736842105</v>
+        <v>20.40073333333333</v>
       </c>
       <c r="D65">
-        <v>20.29404761904762</v>
+        <v>20.84041</v>
       </c>
       <c r="E65">
-        <v>20.13133333333333</v>
+        <v>20.839485</v>
       </c>
       <c r="F65">
-        <v>21.80014761904762</v>
+        <v>22.574625</v>
       </c>
       <c r="G65">
-        <v>22.64455714285715</v>
+        <v>23.33738</v>
       </c>
       <c r="H65">
-        <v>22.85914761904762</v>
+        <v>22.93817</v>
       </c>
       <c r="I65">
-        <v>23.39950476190476</v>
+        <v>23.96558</v>
       </c>
       <c r="J65">
-        <v>23.65977619047619</v>
+        <v>24.17672</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2498,31 +2498,31 @@
         <v>38139</v>
       </c>
       <c r="B66">
-        <v>21.27733636363637</v>
+        <v>23.20029523809524</v>
       </c>
       <c r="C66">
-        <v>21.92436</v>
+        <v>24.3728947368421</v>
       </c>
       <c r="D66">
-        <v>21.24429545454545</v>
+        <v>23.12807142857143</v>
       </c>
       <c r="E66">
-        <v>20.89948181818182</v>
+        <v>22.42023333333334</v>
       </c>
       <c r="F66">
-        <v>22.66509545454545</v>
+        <v>24.08694761904762</v>
       </c>
       <c r="G66">
-        <v>23.51769545454546</v>
+        <v>24.80291904761905</v>
       </c>
       <c r="H66">
-        <v>23.87487272727273</v>
+        <v>25.08780476190476</v>
       </c>
       <c r="I66">
-        <v>24.25263181818182</v>
+        <v>25.25405238095238</v>
       </c>
       <c r="J66">
-        <v>24.53740454545455</v>
+        <v>25.53559047619047</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2530,31 +2530,31 @@
         <v>38169</v>
       </c>
       <c r="B67">
-        <v>18.74164090909091</v>
+        <v>18.93558636363636</v>
       </c>
       <c r="C67">
-        <v>19.246885</v>
+        <v>18.991565</v>
       </c>
       <c r="D67">
-        <v>18.82980909090909</v>
+        <v>19.07560454545455</v>
       </c>
       <c r="E67">
-        <v>19.63621818181818</v>
+        <v>19.59237272727273</v>
       </c>
       <c r="F67">
-        <v>20.98988636363636</v>
+        <v>21.38095909090909</v>
       </c>
       <c r="G67">
-        <v>21.90780454545455</v>
+        <v>22.57413636363637</v>
       </c>
       <c r="H67">
-        <v>22.26608181818182</v>
+        <v>23.08201818181818</v>
       </c>
       <c r="I67">
-        <v>22.77090454545455</v>
+        <v>23.58300454545455</v>
       </c>
       <c r="J67">
-        <v>22.90427272727273</v>
+        <v>23.78028636363636</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2562,31 +2562,31 @@
         <v>38200</v>
       </c>
       <c r="B68">
-        <v>18.76076818181818</v>
+        <v>18.83709090909091</v>
       </c>
       <c r="C68">
-        <v>19.07956</v>
+        <v>19.116205</v>
       </c>
       <c r="D68">
-        <v>19.36178181818182</v>
+        <v>19.44964545454545</v>
       </c>
       <c r="E68">
-        <v>19.60681363636364</v>
+        <v>19.94222272727273</v>
       </c>
       <c r="F68">
-        <v>21.55890454545455</v>
+        <v>22.0232</v>
       </c>
       <c r="G68">
-        <v>22.50153181818182</v>
+        <v>22.79527727272727</v>
       </c>
       <c r="H68">
-        <v>23.11525454545454</v>
+        <v>23.47522727272727</v>
       </c>
       <c r="I68">
-        <v>23.7385</v>
+        <v>23.93227272727273</v>
       </c>
       <c r="J68">
-        <v>23.62279090909091</v>
+        <v>23.61449545454546</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2594,31 +2594,31 @@
         <v>38231</v>
       </c>
       <c r="B69">
-        <v>18.56397727272727</v>
+        <v>19.90836363636364</v>
       </c>
       <c r="C69">
-        <v>18.41623</v>
+        <v>19.94945</v>
       </c>
       <c r="D69">
-        <v>18.73493636363636</v>
+        <v>20.10555909090909</v>
       </c>
       <c r="E69">
-        <v>19.31923636363636</v>
+        <v>20.30659545454546</v>
       </c>
       <c r="F69">
-        <v>20.66334090909091</v>
+        <v>21.9064</v>
       </c>
       <c r="G69">
-        <v>21.72766818181818</v>
+        <v>22.79770909090909</v>
       </c>
       <c r="H69">
-        <v>22.52554545454545</v>
+        <v>23.71567727272727</v>
       </c>
       <c r="I69">
-        <v>23.47797272727273</v>
+        <v>24.54130454545454</v>
       </c>
       <c r="J69">
-        <v>23.50969090909091</v>
+        <v>24.33349090909091</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2626,31 +2626,31 @@
         <v>38261</v>
       </c>
       <c r="B70">
-        <v>17.3674347826087</v>
+        <v>16.68717727272727</v>
       </c>
       <c r="C70">
-        <v>17.36775238095238</v>
+        <v>16.405145</v>
       </c>
       <c r="D70">
-        <v>17.52802608695652</v>
+        <v>16.89738636363636</v>
       </c>
       <c r="E70">
-        <v>18.35433913043478</v>
+        <v>17.84003636363636</v>
       </c>
       <c r="F70">
-        <v>19.56436086956522</v>
+        <v>19.04490454545455</v>
       </c>
       <c r="G70">
-        <v>20.77685217391304</v>
+        <v>20.46802272727273</v>
       </c>
       <c r="H70">
-        <v>21.01360434782609</v>
+        <v>20.92364090909091</v>
       </c>
       <c r="I70">
-        <v>22.24673478260869</v>
+        <v>22.52121363636364</v>
       </c>
       <c r="J70">
-        <v>22.54431304347826</v>
+        <v>22.75006363636363</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2658,31 +2658,31 @@
         <v>38292</v>
       </c>
       <c r="B71">
-        <v>18.07685714285714</v>
+        <v>17.25684285714286</v>
       </c>
       <c r="C71">
-        <v>18.34368421052632</v>
+        <v>17.96389473684211</v>
       </c>
       <c r="D71">
-        <v>18.24064761904762</v>
+        <v>17.40148095238095</v>
       </c>
       <c r="E71">
-        <v>18.32369523809524</v>
+        <v>17.53797619047619</v>
       </c>
       <c r="F71">
-        <v>19.39210952380952</v>
+        <v>18.6945</v>
       </c>
       <c r="G71">
-        <v>20.39964761904762</v>
+        <v>19.77793333333333</v>
       </c>
       <c r="H71">
-        <v>20.99138095238095</v>
+        <v>20.30988095238095</v>
       </c>
       <c r="I71">
-        <v>21.62204761904762</v>
+        <v>21.04835714285715</v>
       </c>
       <c r="J71">
-        <v>22.15753333333333</v>
+        <v>21.74117619047619</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2690,31 +2690,31 @@
         <v>38322</v>
       </c>
       <c r="B72">
-        <v>16.9973947368421</v>
+        <v>15.53503181818182</v>
       </c>
       <c r="C72">
-        <v>17.94472352941176</v>
+        <v>15.899445</v>
       </c>
       <c r="D72">
-        <v>16.94048421052631</v>
+        <v>15.48976818181818</v>
       </c>
       <c r="E72">
-        <v>16.98404736842106</v>
+        <v>15.54983636363636</v>
       </c>
       <c r="F72">
-        <v>17.88786842105263</v>
+        <v>16.45178636363636</v>
       </c>
       <c r="G72">
-        <v>18.91632105263158</v>
+        <v>17.61834090909091</v>
       </c>
       <c r="H72">
-        <v>19.56624736842105</v>
+        <v>18.36568636363636</v>
       </c>
       <c r="I72">
-        <v>20.18842105263158</v>
+        <v>19.11520909090909</v>
       </c>
       <c r="J72">
-        <v>20.95962105263158</v>
+        <v>20.09092272727273</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2722,31 +2722,31 @@
         <v>38353</v>
       </c>
       <c r="B73">
-        <v>16.30889523809524</v>
+        <v>14.47363809523809</v>
       </c>
       <c r="C73">
-        <v>17.59244210526316</v>
+        <v>15.48556315789474</v>
       </c>
       <c r="D73">
-        <v>16.58874761904762</v>
+        <v>14.69516190476191</v>
       </c>
       <c r="E73">
-        <v>17.1589</v>
+        <v>15.3408619047619</v>
       </c>
       <c r="F73">
-        <v>18.46013333333334</v>
+        <v>16.52898095238096</v>
       </c>
       <c r="G73">
-        <v>19.47264761904762</v>
+        <v>17.73453809523809</v>
       </c>
       <c r="H73">
-        <v>20.15432857142857</v>
+        <v>18.5626</v>
       </c>
       <c r="I73">
-        <v>20.81049523809524</v>
+        <v>19.34484761904762</v>
       </c>
       <c r="J73">
-        <v>21.43821428571428</v>
+        <v>20.2960380952381</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2754,31 +2754,31 @@
         <v>38384</v>
       </c>
       <c r="B74">
-        <v>13.43005909090909</v>
+        <v>13.61016666666667</v>
       </c>
       <c r="C74">
-        <v>13.651145</v>
+        <v>13.8858947368421</v>
       </c>
       <c r="D74">
-        <v>13.51278181818182</v>
+        <v>13.69453333333333</v>
       </c>
       <c r="E74">
-        <v>13.81367272727273</v>
+        <v>14.25287619047619</v>
       </c>
       <c r="F74">
-        <v>14.99118181818182</v>
+        <v>15.71256666666667</v>
       </c>
       <c r="G74">
-        <v>15.88931363636364</v>
+        <v>16.75588571428571</v>
       </c>
       <c r="H74">
-        <v>16.52097727272727</v>
+        <v>17.59231428571429</v>
       </c>
       <c r="I74">
-        <v>17.70576363636363</v>
+        <v>18.7440619047619</v>
       </c>
       <c r="J74">
-        <v>18.42715454545455</v>
+        <v>19.40308571428572</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2786,31 +2786,31 @@
         <v>38412</v>
       </c>
       <c r="B75">
-        <v>13.46118947368421</v>
+        <v>12.642285</v>
       </c>
       <c r="C75">
-        <v>13.84621052631579</v>
+        <v>13.066055</v>
       </c>
       <c r="D75">
-        <v>13.43294736842105</v>
+        <v>12.59582</v>
       </c>
       <c r="E75">
-        <v>13.04900625</v>
+        <v>12.15399411764706</v>
       </c>
       <c r="F75">
-        <v>14.10306842105263</v>
+        <v>13.344575</v>
       </c>
       <c r="G75">
-        <v>14.73132631578947</v>
+        <v>13.98943</v>
       </c>
       <c r="H75">
-        <v>15.2744052631579</v>
+        <v>14.699045</v>
       </c>
       <c r="I75">
-        <v>16.39474736842105</v>
+        <v>15.837425</v>
       </c>
       <c r="J75">
-        <v>17.0535</v>
+        <v>16.46014</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2818,31 +2818,31 @@
         <v>38443</v>
       </c>
       <c r="B76">
-        <v>13.46336666666667</v>
+        <v>12.90177727272727</v>
       </c>
       <c r="C76">
-        <v>13.76188571428571</v>
+        <v>13.39999545454545</v>
       </c>
       <c r="D76">
-        <v>13.70061428571429</v>
+        <v>13.08018181818182</v>
       </c>
       <c r="E76">
-        <v>14.17967619047619</v>
+        <v>13.73271363636364</v>
       </c>
       <c r="F76">
-        <v>14.98867619047619</v>
+        <v>14.35629090909091</v>
       </c>
       <c r="G76">
-        <v>15.72139047619048</v>
+        <v>14.93471363636364</v>
       </c>
       <c r="H76">
-        <v>15.60233333333333</v>
+        <v>14.73959473684211</v>
       </c>
       <c r="I76">
-        <v>17.16196190476191</v>
+        <v>16.41389090909091</v>
       </c>
       <c r="J76">
-        <v>17.76441428571429</v>
+        <v>16.9438</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2850,31 +2850,31 @@
         <v>38473</v>
       </c>
       <c r="B77">
-        <v>14.88941818181818</v>
+        <v>14.49095714285714</v>
       </c>
       <c r="C77">
-        <v>15.01411818181818</v>
+        <v>14.88804761904762</v>
       </c>
       <c r="D77">
-        <v>15.06960454545455</v>
+        <v>14.66280476190476</v>
       </c>
       <c r="E77">
-        <v>14.11481578947369</v>
+        <v>13.91843333333333</v>
       </c>
       <c r="F77">
-        <v>15.91613636363636</v>
+        <v>15.85531904761905</v>
       </c>
       <c r="G77">
-        <v>16.75775909090909</v>
+        <v>16.7704380952381</v>
       </c>
       <c r="H77">
-        <v>16.84069545454545</v>
+        <v>16.54892857142857</v>
       </c>
       <c r="I77">
-        <v>18.22008181818182</v>
+        <v>18.10965238095238</v>
       </c>
       <c r="J77">
-        <v>18.86475454545455</v>
+        <v>18.7472380952381</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2882,31 +2882,31 @@
         <v>38504</v>
       </c>
       <c r="B78">
-        <v>13.91429047619048</v>
+        <v>14.18407727272727</v>
       </c>
       <c r="C78">
-        <v>14.24906666666667</v>
+        <v>14.47647727272727</v>
       </c>
       <c r="D78">
-        <v>13.80898095238095</v>
+        <v>14.10965</v>
       </c>
       <c r="E78">
-        <v>13.60116111111111</v>
+        <v>13.53985263157895</v>
       </c>
       <c r="F78">
-        <v>14.7603</v>
+        <v>14.90824090909091</v>
       </c>
       <c r="G78">
-        <v>15.86534285714286</v>
+        <v>16.06065</v>
       </c>
       <c r="H78">
-        <v>16.27140476190476</v>
+        <v>16.41784090909091</v>
       </c>
       <c r="I78">
-        <v>17.65840476190476</v>
+        <v>17.80123636363636</v>
       </c>
       <c r="J78">
-        <v>18.65536190476191</v>
+        <v>18.92519090909091</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2914,31 +2914,31 @@
         <v>38534</v>
       </c>
       <c r="B79">
-        <v>13.00778181818182</v>
+        <v>12.76201818181818</v>
       </c>
       <c r="C79">
-        <v>13.21445</v>
+        <v>12.91339090909091</v>
       </c>
       <c r="D79">
-        <v>13.12497272727273</v>
+        <v>12.88329090909091</v>
       </c>
       <c r="E79">
-        <v>13.59279545454545</v>
+        <v>13.27192272727273</v>
       </c>
       <c r="F79">
-        <v>14.53714545454545</v>
+        <v>14.11098636363636</v>
       </c>
       <c r="G79">
-        <v>15.38295454545455</v>
+        <v>15.00419090909091</v>
       </c>
       <c r="H79">
-        <v>16.15818181818182</v>
+        <v>15.81978636363636</v>
       </c>
       <c r="I79">
-        <v>17.40331818181818</v>
+        <v>17.02956363636364</v>
       </c>
       <c r="J79">
-        <v>18.32065263157895</v>
+        <v>18.02452631578947</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2946,31 +2946,31 @@
         <v>38565</v>
       </c>
       <c r="B80">
-        <v>13.44550869565217</v>
+        <v>13.12457142857143</v>
       </c>
       <c r="C80">
-        <v>13.63326521739131</v>
+        <v>13.61960952380952</v>
       </c>
       <c r="D80">
-        <v>13.72011304347826</v>
+        <v>13.41873333333333</v>
       </c>
       <c r="E80">
-        <v>13.441335</v>
+        <v>13.11205555555556</v>
       </c>
       <c r="F80">
-        <v>14.6081652173913</v>
+        <v>14.32647619047619</v>
       </c>
       <c r="G80">
-        <v>15.40481739130435</v>
+        <v>15.04882857142857</v>
       </c>
       <c r="H80">
-        <v>16.03520434782609</v>
+        <v>15.80819523809524</v>
       </c>
       <c r="I80">
-        <v>17.12720434782609</v>
+        <v>16.90691428571429</v>
       </c>
       <c r="J80">
-        <v>18.0126</v>
+        <v>17.84987142857143</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2978,31 +2978,31 @@
         <v>38596</v>
       </c>
       <c r="B81">
-        <v>14.7106</v>
+        <v>15.01242173913043</v>
       </c>
       <c r="C81">
-        <v>15.20424545454546</v>
+        <v>15.42489130434783</v>
       </c>
       <c r="D81">
-        <v>14.59037272727273</v>
+        <v>14.92273478260869</v>
       </c>
       <c r="E81">
-        <v>13.99805263157895</v>
+        <v>14.112015</v>
       </c>
       <c r="F81">
-        <v>15.4375</v>
+        <v>15.63361304347826</v>
       </c>
       <c r="G81">
-        <v>15.91136818181818</v>
+        <v>16.1700347826087</v>
       </c>
       <c r="H81">
-        <v>16.49877272727273</v>
+        <v>16.83106086956522</v>
       </c>
       <c r="I81">
-        <v>17.56925</v>
+        <v>17.92626086956522</v>
       </c>
       <c r="J81">
-        <v>18.15258181818182</v>
+        <v>18.65740869565218</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3010,31 +3010,31 @@
         <v>38626</v>
       </c>
       <c r="B82">
-        <v>14.55013636363636</v>
+        <v>14.86771363636364</v>
       </c>
       <c r="C82">
-        <v>14.76760909090909</v>
+        <v>15.08474090909091</v>
       </c>
       <c r="D82">
-        <v>14.51927272727273</v>
+        <v>14.85056363636364</v>
       </c>
       <c r="E82">
-        <v>14.67937727272727</v>
+        <v>15.01337272727273</v>
       </c>
       <c r="F82">
-        <v>15.28029545454545</v>
+        <v>15.4934</v>
       </c>
       <c r="G82">
-        <v>16.06754545454545</v>
+        <v>16.14941818181818</v>
       </c>
       <c r="H82">
-        <v>16.19245789473684</v>
+        <v>16.39837894736842</v>
       </c>
       <c r="I82">
-        <v>17.4566</v>
+        <v>17.66963181818182</v>
       </c>
       <c r="J82">
-        <v>18.28537727272727</v>
+        <v>18.4428</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3042,31 +3042,31 @@
         <v>38657</v>
       </c>
       <c r="B83">
-        <v>16.13018571428572</v>
+        <v>16.92212857142857</v>
       </c>
       <c r="C83">
-        <v>16.89449523809524</v>
+        <v>17.69480952380952</v>
       </c>
       <c r="D83">
-        <v>15.9903380952381</v>
+        <v>16.77773333333333</v>
       </c>
       <c r="E83">
-        <v>15.54563888888889</v>
+        <v>16.49385</v>
       </c>
       <c r="F83">
-        <v>16.58852380952381</v>
+        <v>17.19033809523809</v>
       </c>
       <c r="G83">
-        <v>17.22837142857143</v>
+        <v>17.77997619047619</v>
       </c>
       <c r="H83">
-        <v>17.40776666666667</v>
+        <v>17.78262380952381</v>
       </c>
       <c r="I83">
-        <v>18.25571428571429</v>
+        <v>18.59897142857143</v>
       </c>
       <c r="J83">
-        <v>19.06952857142857</v>
+        <v>19.34477619047619</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3074,31 +3074,31 @@
         <v>38687</v>
       </c>
       <c r="B84">
-        <v>14.03531818181818</v>
+        <v>14.80913636363636</v>
       </c>
       <c r="C84">
-        <v>14.84063684210526</v>
+        <v>15.42264736842105</v>
       </c>
       <c r="D84">
-        <v>14.05617727272727</v>
+        <v>14.83884090909091</v>
       </c>
       <c r="E84">
-        <v>14.09941363636364</v>
+        <v>14.63263181818182</v>
       </c>
       <c r="F84">
-        <v>15.17839090909091</v>
+        <v>15.6545</v>
       </c>
       <c r="G84">
-        <v>16.02065909090909</v>
+        <v>16.37157727272728</v>
       </c>
       <c r="H84">
-        <v>16.28001818181818</v>
+        <v>16.45366818181818</v>
       </c>
       <c r="I84">
-        <v>17.30831363636364</v>
+        <v>17.38914545454545</v>
       </c>
       <c r="J84">
-        <v>17.77454545454546</v>
+        <v>17.70360454545454</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3106,31 +3106,31 @@
         <v>38718</v>
       </c>
       <c r="B85">
-        <v>13.49127142857143</v>
+        <v>13.09161904761905</v>
       </c>
       <c r="C85">
-        <v>14.77781666666667</v>
+        <v>13.81186111111111</v>
       </c>
       <c r="D85">
-        <v>13.66265714285714</v>
+        <v>13.2794380952381</v>
       </c>
       <c r="E85">
-        <v>14.23194285714286</v>
+        <v>13.99711428571428</v>
       </c>
       <c r="F85">
-        <v>15.40408571428571</v>
+        <v>15.20262857142857</v>
       </c>
       <c r="G85">
-        <v>16.26665714285715</v>
+        <v>16.23642857142857</v>
       </c>
       <c r="H85">
-        <v>16.96849523809524</v>
+        <v>16.92355714285714</v>
       </c>
       <c r="I85">
-        <v>17.84737619047619</v>
+        <v>17.72053809523809</v>
       </c>
       <c r="J85">
-        <v>18.70178571428572</v>
+        <v>18.57792380952381</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3138,31 +3138,31 @@
         <v>38749</v>
       </c>
       <c r="B86">
-        <v>15.86078</v>
+        <v>14.83441363636364</v>
       </c>
       <c r="C86">
-        <v>16.86161176470588</v>
+        <v>15.67074736842105</v>
       </c>
       <c r="D86">
-        <v>15.872765</v>
+        <v>14.83092727272727</v>
       </c>
       <c r="E86">
-        <v>15.6868</v>
+        <v>14.90134545454546</v>
       </c>
       <c r="F86">
-        <v>16.41036</v>
+        <v>15.80748636363636</v>
       </c>
       <c r="G86">
-        <v>16.74413</v>
+        <v>16.28119090909091</v>
       </c>
       <c r="H86">
-        <v>17.614915</v>
+        <v>17.2417</v>
       </c>
       <c r="I86">
-        <v>18.104775</v>
+        <v>18.07162272727273</v>
       </c>
       <c r="J86">
-        <v>18.75689</v>
+        <v>18.86625454545455</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3170,31 +3170,31 @@
         <v>38777</v>
       </c>
       <c r="B87">
-        <v>15.582565</v>
+        <v>15.386525</v>
       </c>
       <c r="C87">
-        <v>16.34024705882353</v>
+        <v>16.22330588235294</v>
       </c>
       <c r="D87">
-        <v>15.59129</v>
+        <v>15.391185</v>
       </c>
       <c r="E87">
-        <v>15.52178</v>
+        <v>15.240735</v>
       </c>
       <c r="F87">
-        <v>16.348995</v>
+        <v>16.11084</v>
       </c>
       <c r="G87">
-        <v>16.816355</v>
+        <v>16.533195</v>
       </c>
       <c r="H87">
-        <v>17.410055</v>
+        <v>17.187795</v>
       </c>
       <c r="I87">
-        <v>18.034425</v>
+        <v>17.908105</v>
       </c>
       <c r="J87">
-        <v>18.739985</v>
+        <v>18.65323</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3202,31 +3202,31 @@
         <v>38808</v>
       </c>
       <c r="B88">
-        <v>14.64223333333333</v>
+        <v>14.27384782608696</v>
       </c>
       <c r="C88">
-        <v>15.12907619047619</v>
+        <v>15.03204</v>
       </c>
       <c r="D88">
-        <v>14.80514583333333</v>
+        <v>14.39811304347826</v>
       </c>
       <c r="E88">
-        <v>15.201425</v>
+        <v>14.85133913043478</v>
       </c>
       <c r="F88">
-        <v>15.97110416666666</v>
+        <v>15.6494</v>
       </c>
       <c r="G88">
-        <v>16.566075</v>
+        <v>16.35553043478261</v>
       </c>
       <c r="H88">
-        <v>16.74672083333333</v>
+        <v>16.55225217391304</v>
       </c>
       <c r="I88">
-        <v>17.78623333333333</v>
+        <v>17.78668695652174</v>
       </c>
       <c r="J88">
-        <v>18.65860416666667</v>
+        <v>18.78127391304348</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3234,31 +3234,31 @@
         <v>38838</v>
       </c>
       <c r="B89">
-        <v>15.36615</v>
+        <v>14.65428888888889</v>
       </c>
       <c r="C89">
-        <v>15.91905333333333</v>
+        <v>15.03613333333333</v>
       </c>
       <c r="D89">
-        <v>15.42436111111111</v>
+        <v>14.71555555555556</v>
       </c>
       <c r="E89">
-        <v>15.4828</v>
+        <v>14.90058888888889</v>
       </c>
       <c r="F89">
-        <v>16.16457222222222</v>
+        <v>15.56697222222222</v>
       </c>
       <c r="G89">
-        <v>16.59491666666667</v>
+        <v>16.08431111111111</v>
       </c>
       <c r="H89">
-        <v>17.00857777777778</v>
+        <v>16.40731666666667</v>
       </c>
       <c r="I89">
-        <v>17.45508888888889</v>
+        <v>16.94441666666667</v>
       </c>
       <c r="J89">
-        <v>18.20097222222222</v>
+        <v>17.81186666666667</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3266,31 +3266,31 @@
         <v>38869</v>
       </c>
       <c r="B90">
-        <v>19.49479523809524</v>
+        <v>18.76244090909091</v>
       </c>
       <c r="C90">
-        <v>21.91972222222222</v>
+        <v>21.10831578947368</v>
       </c>
       <c r="D90">
-        <v>19.15009523809524</v>
+        <v>18.43293181818182</v>
       </c>
       <c r="E90">
-        <v>18.26343809523809</v>
+        <v>17.46066818181818</v>
       </c>
       <c r="F90">
-        <v>18.45554761904762</v>
+        <v>17.66642727272727</v>
       </c>
       <c r="G90">
-        <v>18.28288095238095</v>
+        <v>17.66263636363636</v>
       </c>
       <c r="H90">
-        <v>18.4456</v>
+        <v>17.63128636363636</v>
       </c>
       <c r="I90">
-        <v>18.56115238095238</v>
+        <v>17.92178636363636</v>
       </c>
       <c r="J90">
-        <v>19.02316190476191</v>
+        <v>18.47520909090909</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3298,31 +3298,31 @@
         <v>38899</v>
       </c>
       <c r="B91">
-        <v>19.745975</v>
+        <v>22.38036363636364</v>
       </c>
       <c r="C91">
-        <v>18.732935</v>
+        <v>22.51673888888889</v>
       </c>
       <c r="D91">
-        <v>19.54470416666667</v>
+        <v>22.09121818181818</v>
       </c>
       <c r="E91">
-        <v>19.24999166666667</v>
+        <v>21.55450909090909</v>
       </c>
       <c r="F91">
-        <v>19.36427916666667</v>
+        <v>21.39680454545454</v>
       </c>
       <c r="G91">
-        <v>19.16805</v>
+        <v>20.71594545454546</v>
       </c>
       <c r="H91">
-        <v>19.424925</v>
+        <v>20.70217727272727</v>
       </c>
       <c r="I91">
-        <v>19.56993333333333</v>
+        <v>20.60590909090909</v>
       </c>
       <c r="J91">
-        <v>19.98767083333333</v>
+        <v>20.87935909090909</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3330,31 +3330,31 @@
         <v>38930</v>
       </c>
       <c r="B92">
-        <v>18.93048636363637</v>
+        <v>19.49147142857143</v>
       </c>
       <c r="C92">
-        <v>20.33264210526316</v>
+        <v>20.97956666666667</v>
       </c>
       <c r="D92">
-        <v>18.89887272727273</v>
+        <v>19.47476190476191</v>
       </c>
       <c r="E92">
-        <v>18.79328636363637</v>
+        <v>19.52862380952381</v>
       </c>
       <c r="F92">
-        <v>19.04031363636364</v>
+        <v>19.527</v>
       </c>
       <c r="G92">
-        <v>19.05363181818182</v>
+        <v>19.43894285714286</v>
       </c>
       <c r="H92">
-        <v>19.35679545454545</v>
+        <v>19.76482380952381</v>
       </c>
       <c r="I92">
-        <v>19.70335</v>
+        <v>20.12511904761905</v>
       </c>
       <c r="J92">
-        <v>20.08635</v>
+        <v>20.43631428571429</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3362,31 +3362,31 @@
         <v>38961</v>
       </c>
       <c r="B93">
-        <v>17.03369090909091</v>
+        <v>17.90130434782609</v>
       </c>
       <c r="C93">
-        <v>17.52057368421053</v>
+        <v>18.298995</v>
       </c>
       <c r="D93">
-        <v>17.14612727272727</v>
+        <v>18.03587826086957</v>
       </c>
       <c r="E93">
-        <v>17.00097727272727</v>
+        <v>17.88695652173913</v>
       </c>
       <c r="F93">
-        <v>17.82504545454546</v>
+        <v>18.52545217391304</v>
       </c>
       <c r="G93">
-        <v>18.0085</v>
+        <v>18.59612173913044</v>
       </c>
       <c r="H93">
-        <v>18.30787727272727</v>
+        <v>18.91337391304348</v>
       </c>
       <c r="I93">
-        <v>18.78615454545455</v>
+        <v>19.42745217391304</v>
       </c>
       <c r="J93">
-        <v>19.3881</v>
+        <v>19.9531347826087</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3394,31 +3394,31 @@
         <v>38991</v>
       </c>
       <c r="B94">
-        <v>16.24858095238095</v>
+        <v>16.4235</v>
       </c>
       <c r="C94">
-        <v>16.53831666666667</v>
+        <v>16.73938333333333</v>
       </c>
       <c r="D94">
-        <v>16.35726666666667</v>
+        <v>16.56607142857143</v>
       </c>
       <c r="E94">
-        <v>16.67192380952381</v>
+        <v>16.87152380952381</v>
       </c>
       <c r="F94">
-        <v>17.24933333333333</v>
+        <v>17.50594285714286</v>
       </c>
       <c r="G94">
-        <v>17.43883333333333</v>
+        <v>17.69140476190476</v>
       </c>
       <c r="H94">
-        <v>17.12062857142857</v>
+        <v>17.24662857142857</v>
       </c>
       <c r="I94">
-        <v>18.14947142857143</v>
+        <v>18.24467619047619</v>
       </c>
       <c r="J94">
-        <v>18.71802857142857</v>
+        <v>18.73414761904762</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3426,31 +3426,31 @@
         <v>39022</v>
       </c>
       <c r="B95">
-        <v>15.20437727272727</v>
+        <v>15.34896818181818</v>
       </c>
       <c r="C95">
-        <v>15.41584210526316</v>
+        <v>15.29522631578947</v>
       </c>
       <c r="D95">
-        <v>15.26360909090909</v>
+        <v>15.44505909090909</v>
       </c>
       <c r="E95">
-        <v>15.41090454545454</v>
+        <v>15.71369545454546</v>
       </c>
       <c r="F95">
-        <v>16.36485</v>
+        <v>16.56690909090909</v>
       </c>
       <c r="G95">
-        <v>16.89017727272727</v>
+        <v>17.03986818181818</v>
       </c>
       <c r="H95">
-        <v>17.64045909090909</v>
+        <v>17.93849545454546</v>
       </c>
       <c r="I95">
-        <v>17.70020454545454</v>
+        <v>17.6617</v>
       </c>
       <c r="J95">
-        <v>18.34342727272727</v>
+        <v>18.25517727272727</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3458,31 +3458,31 @@
         <v>39052</v>
       </c>
       <c r="B96">
-        <v>14.98844545454545</v>
+        <v>14.15778636363636</v>
       </c>
       <c r="C96">
-        <v>16.03294210526316</v>
+        <v>14.46546842105263</v>
       </c>
       <c r="D96">
-        <v>14.92904090909091</v>
+        <v>14.14561363636364</v>
       </c>
       <c r="E96">
-        <v>15.12816818181818</v>
+        <v>14.11729545454545</v>
       </c>
       <c r="F96">
-        <v>16.16227727272727</v>
+        <v>15.47551363636364</v>
       </c>
       <c r="G96">
-        <v>16.80715454545455</v>
+        <v>16.26946363636364</v>
       </c>
       <c r="H96">
-        <v>17.32547727272727</v>
+        <v>16.9842</v>
       </c>
       <c r="I96">
-        <v>17.54016363636364</v>
+        <v>16.96058636363636</v>
       </c>
       <c r="J96">
-        <v>18.03105454545454</v>
+        <v>17.4265</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3490,31 +3490,31 @@
         <v>39083</v>
       </c>
       <c r="B97">
-        <v>15.07532105263158</v>
+        <v>14.57224210526316</v>
       </c>
       <c r="C97">
-        <v>16.12508125</v>
+        <v>15.382125</v>
       </c>
       <c r="D97">
-        <v>15.52983684210527</v>
+        <v>14.9955947368421</v>
       </c>
       <c r="E97">
-        <v>16.21446842105263</v>
+        <v>15.67854736842105</v>
       </c>
       <c r="F97">
-        <v>17.09969473684211</v>
+        <v>16.70027368421053</v>
       </c>
       <c r="G97">
-        <v>17.59424736842105</v>
+        <v>17.34552631578947</v>
       </c>
       <c r="H97">
-        <v>17.89862105263158</v>
+        <v>17.71688947368421</v>
       </c>
       <c r="I97">
-        <v>18.22605263157895</v>
+        <v>17.95111052631579</v>
       </c>
       <c r="J97">
-        <v>18.70362105263158</v>
+        <v>18.35113684210526</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3522,31 +3522,31 @@
         <v>39114</v>
       </c>
       <c r="B98">
-        <v>16.92980526315789</v>
+        <v>15.64834090909091</v>
       </c>
       <c r="C98">
-        <v>17.73596875</v>
+        <v>15.79018421052632</v>
       </c>
       <c r="D98">
-        <v>16.90033684210526</v>
+        <v>15.72522272727273</v>
       </c>
       <c r="E98">
-        <v>16.65485263157895</v>
+        <v>16.01643181818182</v>
       </c>
       <c r="F98">
-        <v>17.60743157894737</v>
+        <v>17.01862272727273</v>
       </c>
       <c r="G98">
-        <v>18.12628947368421</v>
+        <v>17.62184090909091</v>
       </c>
       <c r="H98">
-        <v>18.31728421052632</v>
+        <v>17.89985454545455</v>
       </c>
       <c r="I98">
-        <v>18.89582631578947</v>
+        <v>18.41730909090909</v>
       </c>
       <c r="J98">
-        <v>19.32545789473684</v>
+        <v>18.84433636363636</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3554,31 +3554,31 @@
         <v>39142</v>
       </c>
       <c r="B99">
-        <v>16.46707142857143</v>
+        <v>14.55809</v>
       </c>
       <c r="C99">
-        <v>17.38430555555556</v>
+        <v>14.97067647058823</v>
       </c>
       <c r="D99">
-        <v>16.40834285714286</v>
+        <v>14.526585</v>
       </c>
       <c r="E99">
-        <v>16.41294761904762</v>
+        <v>14.744975</v>
       </c>
       <c r="F99">
-        <v>17.37008095238095</v>
+        <v>15.977825</v>
       </c>
       <c r="G99">
-        <v>17.99401904761905</v>
+        <v>16.905425</v>
       </c>
       <c r="H99">
-        <v>18.17748571428571</v>
+        <v>17.33569</v>
       </c>
       <c r="I99">
-        <v>18.87749523809524</v>
+        <v>17.974755</v>
       </c>
       <c r="J99">
-        <v>19.32548571428571</v>
+        <v>18.483375</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3586,31 +3586,31 @@
         <v>39173</v>
       </c>
       <c r="B100">
-        <v>19.45140454545455</v>
+        <v>19.52135</v>
       </c>
       <c r="C100">
-        <v>20.02099473684211</v>
+        <v>21.38406315789474</v>
       </c>
       <c r="D100">
-        <v>19.43767727272727</v>
+        <v>19.28714090909091</v>
       </c>
       <c r="E100">
-        <v>19.26197272727273</v>
+        <v>18.71179545454545</v>
       </c>
       <c r="F100">
-        <v>19.37640454545454</v>
+        <v>18.90183181818182</v>
       </c>
       <c r="G100">
-        <v>19.30358181818182</v>
+        <v>18.72559545454546</v>
       </c>
       <c r="H100">
-        <v>18.89693636363636</v>
+        <v>18.37018636363636</v>
       </c>
       <c r="I100">
-        <v>19.57357272727273</v>
+        <v>18.95766363636364</v>
       </c>
       <c r="J100">
-        <v>20.59893636363637</v>
+        <v>19.22318636363636</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3618,31 +3618,31 @@
         <v>39203</v>
       </c>
       <c r="B101">
-        <v>17.99613</v>
+        <v>17.3246</v>
       </c>
       <c r="C101">
-        <v>17.96301176470588</v>
+        <v>16.876275</v>
       </c>
       <c r="D101">
-        <v>18.035715</v>
+        <v>17.4317</v>
       </c>
       <c r="E101">
-        <v>17.984395</v>
+        <v>17.50228421052632</v>
       </c>
       <c r="F101">
-        <v>18.46217</v>
+        <v>17.81464210526316</v>
       </c>
       <c r="G101">
-        <v>18.652105</v>
+        <v>17.96137894736842</v>
       </c>
       <c r="H101">
-        <v>18.45647</v>
+        <v>17.50273684210526</v>
       </c>
       <c r="I101">
-        <v>19.10073</v>
+        <v>18.26192631578947</v>
       </c>
       <c r="J101">
-        <v>19.58745</v>
+        <v>18.68298947368421</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3650,31 +3650,31 @@
         <v>39234</v>
       </c>
       <c r="B102">
-        <v>17.5287</v>
+        <v>16.92185454545455</v>
       </c>
       <c r="C102">
-        <v>17.99952857142857</v>
+        <v>17.24446842105263</v>
       </c>
       <c r="D102">
-        <v>17.56157083333333</v>
+        <v>16.98765</v>
       </c>
       <c r="E102">
-        <v>17.5517375</v>
+        <v>16.77211818181818</v>
       </c>
       <c r="F102">
-        <v>18.29002083333333</v>
+        <v>17.47986818181818</v>
       </c>
       <c r="G102">
-        <v>18.64862916666667</v>
+        <v>17.73335454545455</v>
       </c>
       <c r="H102">
-        <v>18.71102083333333</v>
+        <v>17.83500454545455</v>
       </c>
       <c r="I102">
-        <v>19.17853333333333</v>
+        <v>18.21713636363636</v>
       </c>
       <c r="J102">
-        <v>19.70527083333333</v>
+        <v>18.78243181818182</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3682,31 +3682,31 @@
         <v>39264</v>
       </c>
       <c r="B103">
-        <v>18.47072857142857</v>
+        <v>17.48599047619048</v>
       </c>
       <c r="C103">
-        <v>19.45093888888889</v>
+        <v>18.66966666666666</v>
       </c>
       <c r="D103">
-        <v>18.47191904761905</v>
+        <v>17.51208095238095</v>
       </c>
       <c r="E103">
-        <v>18.56995238095238</v>
+        <v>17.57814761904762</v>
       </c>
       <c r="F103">
-        <v>19.08190476190476</v>
+        <v>18.17979047619048</v>
       </c>
       <c r="G103">
-        <v>19.35682380952381</v>
+        <v>18.48113809523809</v>
       </c>
       <c r="H103">
-        <v>19.62044761904762</v>
+        <v>18.78669523809524</v>
       </c>
       <c r="I103">
-        <v>20.11233333333333</v>
+        <v>19.23699047619047</v>
       </c>
       <c r="J103">
-        <v>20.56596190476191</v>
+        <v>19.72156190476191</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3714,31 +3714,31 @@
         <v>39295</v>
       </c>
       <c r="B104">
-        <v>20.71343333333333</v>
+        <v>19.50789090909091</v>
       </c>
       <c r="C104">
-        <v>22.43047222222222</v>
+        <v>20.58702105263158</v>
       </c>
       <c r="D104">
-        <v>20.41049523809524</v>
+        <v>19.28703181818182</v>
       </c>
       <c r="E104">
-        <v>19.98236190476191</v>
+        <v>19.21940454545455</v>
       </c>
       <c r="F104">
-        <v>20.38475238095238</v>
+        <v>19.66267727272728</v>
       </c>
       <c r="G104">
-        <v>20.51648095238095</v>
+        <v>19.87156818181818</v>
       </c>
       <c r="H104">
-        <v>20.687</v>
+        <v>20.22393181818182</v>
       </c>
       <c r="I104">
-        <v>21.12520952380952</v>
+        <v>20.66984090909091</v>
       </c>
       <c r="J104">
-        <v>21.54098571428571</v>
+        <v>21.12239090909091</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3746,31 +3746,31 @@
         <v>39326</v>
       </c>
       <c r="B105">
-        <v>24.71567826086957</v>
+        <v>27.17892608695652</v>
       </c>
       <c r="C105">
-        <v>24.226985</v>
+        <v>27.632215</v>
       </c>
       <c r="D105">
-        <v>24.51624782608696</v>
+        <v>26.85635217391305</v>
       </c>
       <c r="E105">
-        <v>23.27680434782609</v>
+        <v>25.02525217391304</v>
       </c>
       <c r="F105">
-        <v>23.12251739130435</v>
+        <v>24.46187391304348</v>
       </c>
       <c r="G105">
-        <v>22.64694782608696</v>
+        <v>23.7203</v>
       </c>
       <c r="H105">
-        <v>22.60245652173913</v>
+        <v>23.74999130434783</v>
       </c>
       <c r="I105">
-        <v>22.99796521739131</v>
+        <v>24.02369565217391</v>
       </c>
       <c r="J105">
-        <v>23.34142173913044</v>
+        <v>24.31293913043478</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3778,31 +3778,31 @@
         <v>39356</v>
       </c>
       <c r="B106">
-        <v>21.369595</v>
+        <v>24.32909</v>
       </c>
       <c r="C106">
-        <v>22.71535882352941</v>
+        <v>26.13233529411765</v>
       </c>
       <c r="D106">
-        <v>21.425905</v>
+        <v>24.38324</v>
       </c>
       <c r="E106">
-        <v>21.21853</v>
+        <v>23.883285</v>
       </c>
       <c r="F106">
-        <v>21.272215</v>
+        <v>23.578</v>
       </c>
       <c r="G106">
-        <v>21.11423</v>
+        <v>22.79654</v>
       </c>
       <c r="H106">
-        <v>20.60503</v>
+        <v>22.20004</v>
       </c>
       <c r="I106">
-        <v>21.3804</v>
+        <v>22.69488</v>
       </c>
       <c r="J106">
-        <v>21.766705</v>
+        <v>23.06506</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3810,31 +3810,31 @@
         <v>39387</v>
       </c>
       <c r="B107">
-        <v>20.66244285714286</v>
+        <v>19.83728260869565</v>
       </c>
       <c r="C107">
-        <v>21.44379444444444</v>
+        <v>19.5652</v>
       </c>
       <c r="D107">
-        <v>20.72549523809524</v>
+        <v>20.00198695652174</v>
       </c>
       <c r="E107">
-        <v>20.6314380952381</v>
+        <v>20.30129565217391</v>
       </c>
       <c r="F107">
-        <v>21.38148095238095</v>
+        <v>21.16524347826087</v>
       </c>
       <c r="G107">
-        <v>21.68915238095238</v>
+        <v>21.62375217391304</v>
       </c>
       <c r="H107">
-        <v>21.13218095238095</v>
+        <v>20.84086086956522</v>
       </c>
       <c r="I107">
-        <v>22.09477619047619</v>
+        <v>22.05790434782609</v>
       </c>
       <c r="J107">
-        <v>22.40555238095238</v>
+        <v>22.38509130434782</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3842,31 +3842,31 @@
         <v>39417</v>
       </c>
       <c r="B108">
-        <v>22.24804090909091</v>
+        <v>23.93940909090909</v>
       </c>
       <c r="C108">
-        <v>22.53916842105263</v>
+        <v>24.75147368421053</v>
       </c>
       <c r="D108">
-        <v>22.04305454545455</v>
+        <v>23.69491363636364</v>
       </c>
       <c r="E108">
-        <v>21.96031818181818</v>
+        <v>23.18842727272727</v>
       </c>
       <c r="F108">
-        <v>22.80014090909091</v>
+        <v>24.16789545454546</v>
       </c>
       <c r="G108">
-        <v>23.26996818181818</v>
+        <v>24.72719090909091</v>
       </c>
       <c r="H108">
-        <v>22.38612272727272</v>
+        <v>23.40364090909091</v>
       </c>
       <c r="I108">
-        <v>23.75228181818182</v>
+        <v>25.22105909090909</v>
       </c>
       <c r="J108">
-        <v>24.18929545454546</v>
+        <v>25.57535</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3874,31 +3874,31 @@
         <v>39448</v>
       </c>
       <c r="B109">
-        <v>19.274555</v>
+        <v>19.23622777777778</v>
       </c>
       <c r="C109">
-        <v>21.60760588235294</v>
+        <v>21.49468666666667</v>
       </c>
       <c r="D109">
-        <v>19.25377</v>
+        <v>19.17697777777778</v>
       </c>
       <c r="E109">
-        <v>19.90361</v>
+        <v>20.38122222222222</v>
       </c>
       <c r="F109">
-        <v>20.64787</v>
+        <v>21.30875555555555</v>
       </c>
       <c r="G109">
-        <v>21.213415</v>
+        <v>22.3596</v>
       </c>
       <c r="H109">
-        <v>21.434065</v>
+        <v>22.97516666666667</v>
       </c>
       <c r="I109">
-        <v>21.984845</v>
+        <v>23.35022222222222</v>
       </c>
       <c r="J109">
-        <v>22.48565</v>
+        <v>24.86086111111111</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3906,31 +3906,31 @@
         <v>39479</v>
       </c>
       <c r="B110">
-        <v>30.87531428571429</v>
+        <v>27.15712272727272</v>
       </c>
       <c r="C110">
-        <v>33.77920555555556</v>
+        <v>28.45393684210526</v>
       </c>
       <c r="D110">
-        <v>30.03903809523809</v>
+        <v>26.63920454545455</v>
       </c>
       <c r="E110">
-        <v>28.36313333333333</v>
+        <v>25.36896363636364</v>
       </c>
       <c r="F110">
-        <v>28.26258571428572</v>
+        <v>25.6065</v>
       </c>
       <c r="G110">
-        <v>27.49890476190476</v>
+        <v>25.31956363636364</v>
       </c>
       <c r="H110">
-        <v>26.88865238095238</v>
+        <v>25.28205454545455</v>
       </c>
       <c r="I110">
-        <v>27.15981428571428</v>
+        <v>25.45651363636364</v>
       </c>
       <c r="J110">
-        <v>26.5038</v>
+        <v>25.77617727272727</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3938,31 +3938,31 @@
         <v>39508</v>
       </c>
       <c r="B111">
-        <v>28.29741904761905</v>
+        <v>28.68864761904762</v>
       </c>
       <c r="C111">
-        <v>29.19116666666667</v>
+        <v>30.73381666666667</v>
       </c>
       <c r="D111">
-        <v>28.05389047619048</v>
+        <v>28.50017619047619</v>
       </c>
       <c r="E111">
-        <v>27.32512380952381</v>
+        <v>27.36355238095238</v>
       </c>
       <c r="F111">
-        <v>27.94895238095238</v>
+        <v>27.78920476190476</v>
       </c>
       <c r="G111">
-        <v>27.25643333333333</v>
+        <v>26.82228571428572</v>
       </c>
       <c r="H111">
-        <v>26.53513333333333</v>
+        <v>26.19706666666667</v>
       </c>
       <c r="I111">
-        <v>26.82774761904762</v>
+        <v>26.14143809523809</v>
       </c>
       <c r="J111">
-        <v>26.17244761904762</v>
+        <v>26.25425714285714</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3970,31 +3970,31 @@
         <v>39539</v>
       </c>
       <c r="B112">
-        <v>31.351585</v>
+        <v>30.32215263157895</v>
       </c>
       <c r="C112">
-        <v>34.41007647058824</v>
+        <v>33.5437625</v>
       </c>
       <c r="D112">
-        <v>31.220625</v>
+        <v>30.19265263157895</v>
       </c>
       <c r="E112">
-        <v>30.82935</v>
+        <v>29.81976315789474</v>
       </c>
       <c r="F112">
-        <v>30.731675</v>
+        <v>29.93433684210526</v>
       </c>
       <c r="G112">
-        <v>29.84122</v>
+        <v>28.9401</v>
       </c>
       <c r="H112">
-        <v>28.177305</v>
+        <v>27.68461052631579</v>
       </c>
       <c r="I112">
-        <v>29.064025</v>
+        <v>27.88746842105263</v>
       </c>
       <c r="J112">
-        <v>28.08366</v>
+        <v>27.77572631578947</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4002,31 +4002,31 @@
         <v>39569</v>
       </c>
       <c r="B113">
-        <v>25.98296956521739</v>
+        <v>23.20884090909091</v>
       </c>
       <c r="C113">
-        <v>27.46066</v>
+        <v>24.11364210526316</v>
       </c>
       <c r="D113">
-        <v>25.98174782608696</v>
+        <v>23.27512272727273</v>
       </c>
       <c r="E113">
-        <v>26.06618695652174</v>
+        <v>23.67613636363636</v>
       </c>
       <c r="F113">
-        <v>26.59479565217391</v>
+        <v>24.25354545454545</v>
       </c>
       <c r="G113">
-        <v>26.37326956521739</v>
+        <v>24.52522727272727</v>
       </c>
       <c r="H113">
-        <v>25.8021347826087</v>
+        <v>24.11572272727273</v>
       </c>
       <c r="I113">
-        <v>26.31624347826087</v>
+        <v>24.66887727272727</v>
       </c>
       <c r="J113">
-        <v>25.8606347826087</v>
+        <v>25.02617727272727</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4034,31 +4034,31 @@
         <v>39600</v>
       </c>
       <c r="B114">
-        <v>24.67796818181818</v>
+        <v>20.15296666666667</v>
       </c>
       <c r="C114">
-        <v>26.41514736842105</v>
+        <v>20.657</v>
       </c>
       <c r="D114">
-        <v>24.94886363636364</v>
+        <v>20.57821428571429</v>
       </c>
       <c r="E114">
-        <v>24.89996363636364</v>
+        <v>21.0184619047619</v>
       </c>
       <c r="F114">
-        <v>25.9115</v>
+        <v>22.15522380952381</v>
       </c>
       <c r="G114">
-        <v>26.13906363636363</v>
+        <v>22.88337619047619</v>
       </c>
       <c r="H114">
-        <v>25.64523636363636</v>
+        <v>22.93373333333333</v>
       </c>
       <c r="I114">
-        <v>25.95256818181818</v>
+        <v>23.30821428571429</v>
       </c>
       <c r="J114">
-        <v>25.68144090909091</v>
+        <v>23.75356666666667</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4066,31 +4066,31 @@
         <v>39630</v>
       </c>
       <c r="B115">
-        <v>27.32231052631579</v>
+        <v>23.21468571428571</v>
       </c>
       <c r="C115">
-        <v>30.6575375</v>
+        <v>24.08073333333333</v>
       </c>
       <c r="D115">
-        <v>26.96995789473684</v>
+        <v>23.20318571428572</v>
       </c>
       <c r="E115">
-        <v>26.24231052631579</v>
+        <v>23.27462857142857</v>
       </c>
       <c r="F115">
-        <v>26.40402105263158</v>
+        <v>24.18228095238095</v>
       </c>
       <c r="G115">
-        <v>26.07467894736842</v>
+        <v>24.48738095238095</v>
       </c>
       <c r="H115">
-        <v>25.70143157894737</v>
+        <v>24.58500952380952</v>
       </c>
       <c r="I115">
-        <v>26.08171578947368</v>
+        <v>24.83118571428571</v>
       </c>
       <c r="J115">
-        <v>25.49355263157895</v>
+        <v>24.99674285714286</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4098,31 +4098,31 @@
         <v>39661</v>
       </c>
       <c r="B116">
-        <v>27.84929565217391</v>
+        <v>25.91952173913043</v>
       </c>
       <c r="C116">
-        <v>30.61326</v>
+        <v>28.04665</v>
       </c>
       <c r="D116">
-        <v>27.67161739130434</v>
+        <v>25.80728695652174</v>
       </c>
       <c r="E116">
-        <v>26.87082608695652</v>
+        <v>25.31018260869565</v>
       </c>
       <c r="F116">
-        <v>26.65483043478261</v>
+        <v>25.07384347826087</v>
       </c>
       <c r="G116">
-        <v>26.01241739130435</v>
+        <v>24.59212173913043</v>
       </c>
       <c r="H116">
-        <v>25.61077391304348</v>
+        <v>24.73732173913043</v>
       </c>
       <c r="I116">
-        <v>25.89384347826087</v>
+        <v>24.75998260869565</v>
       </c>
       <c r="J116">
-        <v>24.7298</v>
+        <v>23.8610695652174</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4130,31 +4130,31 @@
         <v>39692</v>
       </c>
       <c r="B117">
-        <v>26.35054545454545</v>
+        <v>22.6991619047619</v>
       </c>
       <c r="C117">
-        <v>29.00908947368421</v>
+        <v>23.64526111111111</v>
       </c>
       <c r="D117">
-        <v>26.32257727272728</v>
+        <v>22.86019523809524</v>
       </c>
       <c r="E117">
-        <v>26.11288181818182</v>
+        <v>23.01686190476191</v>
       </c>
       <c r="F117">
-        <v>26.22862727272727</v>
+        <v>23.88721904761905</v>
       </c>
       <c r="G117">
-        <v>26.08910909090909</v>
+        <v>23.93751428571429</v>
       </c>
       <c r="H117">
-        <v>25.72755</v>
+        <v>24.11871904761905</v>
       </c>
       <c r="I117">
-        <v>26.08065454545455</v>
+        <v>24.37467619047619</v>
       </c>
       <c r="J117">
-        <v>24.93866818181818</v>
+        <v>23.59717619047619</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4162,31 +4162,31 @@
         <v>39722</v>
       </c>
       <c r="B118">
-        <v>34.141545</v>
+        <v>30.91322272727273</v>
       </c>
       <c r="C118">
-        <v>40.38987058823529</v>
+        <v>35.3458</v>
       </c>
       <c r="D118">
-        <v>33.3918</v>
+        <v>30.33105454545455</v>
       </c>
       <c r="E118">
-        <v>30.81757</v>
+        <v>27.83647727272728</v>
       </c>
       <c r="F118">
-        <v>29.44826</v>
+        <v>27.22904090909091</v>
       </c>
       <c r="G118">
-        <v>28.47101</v>
+        <v>26.51580454545455</v>
       </c>
       <c r="H118">
-        <v>27.276995</v>
+        <v>25.90171363636364</v>
       </c>
       <c r="I118">
-        <v>28.003915</v>
+        <v>26.61865909090909</v>
       </c>
       <c r="J118">
-        <v>26.12319</v>
+        <v>25.09983636363637</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4194,31 +4194,31 @@
         <v>39753</v>
       </c>
       <c r="B119">
-        <v>57.15643333333333</v>
+        <v>63.27197826086957</v>
       </c>
       <c r="C119">
-        <v>61.4273</v>
+        <v>71.840475</v>
       </c>
       <c r="D119">
-        <v>55.62530416666667</v>
+        <v>61.00961304347826</v>
       </c>
       <c r="E119">
-        <v>50.0915625</v>
+        <v>54.04943478260869</v>
       </c>
       <c r="F119">
-        <v>45.57710833333334</v>
+        <v>47.11416956521739</v>
       </c>
       <c r="G119">
-        <v>41.83705416666667</v>
+        <v>42.76452608695652</v>
       </c>
       <c r="H119">
-        <v>36.44010416666666</v>
+        <v>36.7549652173913</v>
       </c>
       <c r="I119">
-        <v>38.84940416666667</v>
+        <v>39.51344782608696</v>
       </c>
       <c r="J119">
-        <v>32.48795833333333</v>
+        <v>32.09914347826087</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4226,31 +4226,31 @@
         <v>39783</v>
       </c>
       <c r="B120">
-        <v>49.21377727272727</v>
+        <v>60.59941999999999</v>
       </c>
       <c r="C120">
-        <v>51.21845263157894</v>
+        <v>64.85945294117647</v>
       </c>
       <c r="D120">
-        <v>48.8603</v>
+        <v>60.068915</v>
       </c>
       <c r="E120">
-        <v>45.97660909090909</v>
+        <v>55.01907</v>
       </c>
       <c r="F120">
-        <v>45.37410909090909</v>
+        <v>54.248215</v>
       </c>
       <c r="G120">
-        <v>42.09065454545455</v>
+        <v>49.417115</v>
       </c>
       <c r="H120">
-        <v>37.55575454545454</v>
+        <v>42.50319</v>
       </c>
       <c r="I120">
-        <v>39.74253181818182</v>
+        <v>46.05449</v>
       </c>
       <c r="J120">
-        <v>32.91312272727273</v>
+        <v>36.342745</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4258,31 +4258,31 @@
         <v>39814</v>
       </c>
       <c r="B121">
-        <v>40.02562352941177</v>
+        <v>49.98714736842106</v>
       </c>
       <c r="C121">
-        <v>44.83147142857143</v>
+        <v>56.836225</v>
       </c>
       <c r="D121">
-        <v>39.99175882352942</v>
+        <v>49.53784736842105</v>
       </c>
       <c r="E121">
-        <v>40.98364705882353</v>
+        <v>51.55095263157895</v>
       </c>
       <c r="F121">
-        <v>41.36674117647059</v>
+        <v>51.81914736842106</v>
       </c>
       <c r="G121">
-        <v>40.13793529411765</v>
+        <v>49.98752105263158</v>
       </c>
       <c r="H121">
-        <v>38.52953529411765</v>
+        <v>46.64706315789474</v>
       </c>
       <c r="I121">
-        <v>37.34919411764706</v>
+        <v>45.71027894736842</v>
       </c>
       <c r="J121">
-        <v>34.62953529411764</v>
+        <v>40.11981578947368</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4290,31 +4290,31 @@
         <v>39845</v>
       </c>
       <c r="B122">
-        <v>43.76334</v>
+        <v>46.52352857142857</v>
       </c>
       <c r="C122">
-        <v>44.54811176470588</v>
+        <v>48.17093333333334</v>
       </c>
       <c r="D122">
-        <v>44.035465</v>
+        <v>46.76080952380952</v>
       </c>
       <c r="E122">
-        <v>42.966075</v>
+        <v>45.90172857142857</v>
       </c>
       <c r="F122">
-        <v>44.5548</v>
+        <v>47.1903380952381</v>
       </c>
       <c r="G122">
-        <v>43.76959</v>
+        <v>45.98264761904763</v>
       </c>
       <c r="H122">
-        <v>42.37388</v>
+        <v>44.75625238095238</v>
       </c>
       <c r="I122">
-        <v>41.391505</v>
+        <v>42.51018571428571</v>
       </c>
       <c r="J122">
-        <v>39.728265</v>
+        <v>41.2964</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4322,31 +4322,31 @@
         <v>39873</v>
       </c>
       <c r="B123">
-        <v>41.52071428571428</v>
+        <v>45.124615</v>
       </c>
       <c r="C123">
-        <v>42.53606111111111</v>
+        <v>47.38295882352941</v>
       </c>
       <c r="D123">
-        <v>41.44371904761905</v>
+        <v>45.015155</v>
       </c>
       <c r="E123">
-        <v>40.68852857142857</v>
+        <v>43.4604</v>
       </c>
       <c r="F123">
-        <v>41.93749047619048</v>
+        <v>45.20823</v>
       </c>
       <c r="G123">
-        <v>41.3124619047619</v>
+        <v>44.49183</v>
       </c>
       <c r="H123">
-        <v>40.53446666666667</v>
+        <v>43.92825000000001</v>
       </c>
       <c r="I123">
-        <v>39.78057142857143</v>
+        <v>42.43495</v>
       </c>
       <c r="J123">
-        <v>38.30126666666666</v>
+        <v>40.791705</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4354,31 +4354,31 @@
         <v>39904</v>
       </c>
       <c r="B124">
-        <v>39.34217727272728</v>
+        <v>44.18716363636364</v>
       </c>
       <c r="C124">
-        <v>40.49124210526316</v>
+        <v>47.6582</v>
       </c>
       <c r="D124">
-        <v>39.47097272727273</v>
+        <v>44.09209545454546</v>
       </c>
       <c r="E124">
-        <v>39.83912727272727</v>
+        <v>44.13465909090909</v>
       </c>
       <c r="F124">
-        <v>40.34709090909091</v>
+        <v>44.42214545454545</v>
       </c>
       <c r="G124">
-        <v>39.99981363636363</v>
+        <v>43.56784545454546</v>
       </c>
       <c r="H124">
-        <v>37.21063181818182</v>
+        <v>40.87008636363636</v>
       </c>
       <c r="I124">
-        <v>38.83435909090909</v>
+        <v>41.79227272727272</v>
       </c>
       <c r="J124">
-        <v>37.52148181818182</v>
+        <v>40.0336090909091</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4386,31 +4386,31 @@
         <v>39934</v>
       </c>
       <c r="B125">
-        <v>36.64815238095238</v>
+        <v>39.30816</v>
       </c>
       <c r="C125">
-        <v>36.98534444444445</v>
+        <v>39.18849411764705</v>
       </c>
       <c r="D125">
-        <v>36.7617</v>
+        <v>39.49844</v>
       </c>
       <c r="E125">
-        <v>36.41484761904762</v>
+        <v>39.392685</v>
       </c>
       <c r="F125">
-        <v>37.68329523809524</v>
+        <v>40.405565</v>
       </c>
       <c r="G125">
-        <v>37.88680952380953</v>
+        <v>40.34502999999999</v>
       </c>
       <c r="H125">
-        <v>34.39320476190476</v>
+        <v>34.10662</v>
       </c>
       <c r="I125">
-        <v>37.33765714285714</v>
+        <v>39.646725</v>
       </c>
       <c r="J125">
-        <v>36.44146666666667</v>
+        <v>38.62054999999999</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4418,31 +4418,31 @@
         <v>39965</v>
       </c>
       <c r="B126">
-        <v>34.13699047619048</v>
+        <v>34.49126</v>
       </c>
       <c r="C126">
-        <v>34.72122777777778</v>
+        <v>35.99055882352941</v>
       </c>
       <c r="D126">
-        <v>34.12861428571428</v>
+        <v>34.40225</v>
       </c>
       <c r="E126">
-        <v>34.14704285714286</v>
+        <v>34.17713999999999</v>
       </c>
       <c r="F126">
-        <v>35.09670476190476</v>
+        <v>34.981695</v>
       </c>
       <c r="G126">
-        <v>35.31466666666667</v>
+        <v>35.17387</v>
       </c>
       <c r="H126">
-        <v>34.70891428571429</v>
+        <v>34.243925</v>
       </c>
       <c r="I126">
-        <v>34.49723333333333</v>
+        <v>34.45688</v>
       </c>
       <c r="J126">
-        <v>33.95866666666667</v>
+        <v>33.940915</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4450,31 +4450,31 @@
         <v>39995</v>
       </c>
       <c r="B127">
-        <v>33.72962380952381</v>
+        <v>31.244</v>
       </c>
       <c r="C127">
-        <v>35.47246111111112</v>
+        <v>31.67394736842105</v>
       </c>
       <c r="D127">
-        <v>33.69930952380953</v>
+        <v>31.34717272727272</v>
       </c>
       <c r="E127">
-        <v>33.89747619047619</v>
+        <v>31.97687727272728</v>
       </c>
       <c r="F127">
-        <v>35.02213809523809</v>
+        <v>33.0693</v>
       </c>
       <c r="G127">
-        <v>35.37031428571429</v>
+        <v>33.77910454545454</v>
       </c>
       <c r="H127">
-        <v>34.95504761904762</v>
+        <v>33.73377272727273</v>
       </c>
       <c r="I127">
-        <v>34.78217619047619</v>
+        <v>33.10143181818182</v>
       </c>
       <c r="J127">
-        <v>33.70188571428572</v>
+        <v>32.79386363636364</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -4482,31 +4482,31 @@
         <v>40026</v>
       </c>
       <c r="B128">
-        <v>29.35474347826087</v>
+        <v>29.36426521739131</v>
       </c>
       <c r="C128">
-        <v>30.79168</v>
+        <v>31.10457</v>
       </c>
       <c r="D128">
-        <v>29.72221304347826</v>
+        <v>29.66776521739131</v>
       </c>
       <c r="E128">
-        <v>30.48564782608696</v>
+        <v>30.43882173913044</v>
       </c>
       <c r="F128">
-        <v>31.72771304347826</v>
+        <v>31.8305</v>
       </c>
       <c r="G128">
-        <v>32.09375217391305</v>
+        <v>32.09990869565218</v>
       </c>
       <c r="H128">
-        <v>32.12888695652174</v>
+        <v>32.51785652173913</v>
       </c>
       <c r="I128">
-        <v>32.70541304347826</v>
+        <v>32.79791304347826</v>
       </c>
       <c r="J128">
-        <v>31.28293043478261</v>
+        <v>30.83757826086957</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4514,31 +4514,31 @@
         <v>40057</v>
       </c>
       <c r="B129">
-        <v>30.24447142857143</v>
+        <v>28.21274285714285</v>
       </c>
       <c r="C129">
-        <v>30.96151666666667</v>
+        <v>28.30319444444444</v>
       </c>
       <c r="D129">
-        <v>30.34580952380952</v>
+        <v>28.39118095238095</v>
       </c>
       <c r="E129">
-        <v>30.58675714285715</v>
+        <v>28.56781428571428</v>
       </c>
       <c r="F129">
-        <v>31.96829047619048</v>
+        <v>30.00183809523809</v>
       </c>
       <c r="G129">
-        <v>32.24699523809524</v>
+        <v>30.25051904761905</v>
       </c>
       <c r="H129">
-        <v>32.26001428571428</v>
+        <v>30.89150952380952</v>
       </c>
       <c r="I129">
-        <v>32.66113809523809</v>
+        <v>31.27812857142857</v>
       </c>
       <c r="J129">
-        <v>31.5658</v>
+        <v>30.07557619047619</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4546,31 +4546,31 @@
         <v>40087</v>
       </c>
       <c r="B130">
-        <v>29.58559565217391</v>
+        <v>27.09919090909091</v>
       </c>
       <c r="C130">
-        <v>30.26289</v>
+        <v>26.78148421052632</v>
       </c>
       <c r="D130">
-        <v>29.74965217391304</v>
+        <v>27.33152272727273</v>
       </c>
       <c r="E130">
-        <v>30.69557391304348</v>
+        <v>28.18451818181818</v>
       </c>
       <c r="F130">
-        <v>31.85503478260869</v>
+        <v>29.39841818181818</v>
       </c>
       <c r="G130">
-        <v>32.55005652173913</v>
+        <v>30.24849090909091</v>
       </c>
       <c r="H130">
-        <v>31.66480434782609</v>
+        <v>29.89712272727273</v>
       </c>
       <c r="I130">
-        <v>32.93027826086956</v>
+        <v>31.18997727272727</v>
       </c>
       <c r="J130">
-        <v>32.00567391304348</v>
+        <v>30.214</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -4578,31 +4578,31 @@
         <v>40118</v>
       </c>
       <c r="B131">
-        <v>28.41637727272727</v>
+        <v>26.76906363636364</v>
       </c>
       <c r="C131">
-        <v>30.07558947368421</v>
+        <v>28.31293157894737</v>
       </c>
       <c r="D131">
-        <v>28.84855</v>
+        <v>27.20046818181818</v>
       </c>
       <c r="E131">
-        <v>29.08569090909091</v>
+        <v>27.59609545454546</v>
       </c>
       <c r="F131">
-        <v>30.3634</v>
+        <v>28.86251363636363</v>
       </c>
       <c r="G131">
-        <v>31.14014545454546</v>
+        <v>29.92280454545454</v>
       </c>
       <c r="H131">
-        <v>31.36976818181818</v>
+        <v>30.04694545454545</v>
       </c>
       <c r="I131">
-        <v>31.50385454545454</v>
+        <v>30.44077727272727</v>
       </c>
       <c r="J131">
-        <v>30.94574090909091</v>
+        <v>29.93795454545455</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -4610,31 +4610,31 @@
         <v>40148</v>
       </c>
       <c r="B132">
-        <v>28.88416</v>
+        <v>27.30151428571429</v>
       </c>
       <c r="C132">
-        <v>30.13212352941176</v>
+        <v>27.79577222222222</v>
       </c>
       <c r="D132">
-        <v>28.788825</v>
+        <v>27.2742380952381</v>
       </c>
       <c r="E132">
-        <v>29.04763</v>
+        <v>27.17528095238095</v>
       </c>
       <c r="F132">
-        <v>30.768355</v>
+        <v>29.05986190476191</v>
       </c>
       <c r="G132">
-        <v>31.556975</v>
+        <v>29.99941904761905</v>
       </c>
       <c r="H132">
-        <v>31.87963</v>
+        <v>30.41669523809524</v>
       </c>
       <c r="I132">
-        <v>32.061805</v>
+        <v>30.81899523809524</v>
       </c>
       <c r="J132">
-        <v>31.488705</v>
+        <v>30.24112857142857</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -4642,31 +4642,31 @@
         <v>40179</v>
       </c>
       <c r="B133">
-        <v>28.089735</v>
+        <v>24.84286666666667</v>
       </c>
       <c r="C133">
-        <v>30.02629411764706</v>
+        <v>25.41348333333333</v>
       </c>
       <c r="D133">
-        <v>28.22184</v>
+        <v>24.9892</v>
       </c>
       <c r="E133">
-        <v>29.58231</v>
+        <v>27.09505238095238</v>
       </c>
       <c r="F133">
-        <v>30.992025</v>
+        <v>28.49273809523809</v>
       </c>
       <c r="G133">
-        <v>31.894545</v>
+        <v>29.82223333333333</v>
       </c>
       <c r="H133">
-        <v>32.16408</v>
+        <v>30.3507380952381</v>
       </c>
       <c r="I133">
-        <v>32.265835</v>
+        <v>30.77448095238095</v>
       </c>
       <c r="J133">
-        <v>31.989035</v>
+        <v>30.6494</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -4674,31 +4674,31 @@
         <v>40210</v>
       </c>
       <c r="B134">
-        <v>25.73556363636364</v>
+        <v>23.93327</v>
       </c>
       <c r="C134">
-        <v>26.62737368421053</v>
+        <v>24.71199411764706</v>
       </c>
       <c r="D134">
-        <v>25.93851818181818</v>
+        <v>24.16229</v>
       </c>
       <c r="E134">
-        <v>26.04640909090909</v>
+        <v>24.630685</v>
       </c>
       <c r="F134">
-        <v>27.49592727272727</v>
+        <v>26.22455</v>
       </c>
       <c r="G134">
-        <v>28.10812272727273</v>
+        <v>26.693795</v>
       </c>
       <c r="H134">
-        <v>28.47712727272727</v>
+        <v>27.00465</v>
       </c>
       <c r="I134">
-        <v>28.61882272727273</v>
+        <v>27.11765</v>
       </c>
       <c r="J134">
-        <v>27.87935</v>
+        <v>27.2279</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -4706,31 +4706,31 @@
         <v>40238</v>
       </c>
       <c r="B135">
-        <v>26.21822777777778</v>
+        <v>26.81756</v>
       </c>
       <c r="C135">
-        <v>26.92783333333334</v>
+        <v>28.03386470588235</v>
       </c>
       <c r="D135">
-        <v>26.28526111111111</v>
+        <v>26.776075</v>
       </c>
       <c r="E135">
-        <v>26.49213333333334</v>
+        <v>26.467705</v>
       </c>
       <c r="F135">
-        <v>27.96025</v>
+        <v>27.52703</v>
       </c>
       <c r="G135">
-        <v>28.71018333333334</v>
+        <v>27.72447</v>
       </c>
       <c r="H135">
-        <v>29.22547222222222</v>
+        <v>28.051755</v>
       </c>
       <c r="I135">
-        <v>29.50511666666667</v>
+        <v>27.849555</v>
       </c>
       <c r="J135">
-        <v>28.5146</v>
+        <v>28.200165</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -4738,31 +4738,31 @@
         <v>40269</v>
       </c>
       <c r="B136">
-        <v>22.7916380952381</v>
+        <v>21.35496956521739</v>
       </c>
       <c r="C136">
-        <v>22.85289444444444</v>
+        <v>21.028815</v>
       </c>
       <c r="D136">
-        <v>23.13824285714286</v>
+        <v>21.65934782608696</v>
       </c>
       <c r="E136">
-        <v>24.17340476190476</v>
+        <v>22.76144782608695</v>
       </c>
       <c r="F136">
-        <v>25.57745238095238</v>
+        <v>24.13549565217391</v>
       </c>
       <c r="G136">
-        <v>26.6501380952381</v>
+        <v>25.09586956521739</v>
       </c>
       <c r="H136">
-        <v>26.40932380952381</v>
+        <v>24.94478695652174</v>
       </c>
       <c r="I136">
-        <v>28.02516190476191</v>
+        <v>26.55854347826087</v>
       </c>
       <c r="J136">
-        <v>27.87653333333333</v>
+        <v>26.85891304347826</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -4770,31 +4770,31 @@
         <v>40299</v>
       </c>
       <c r="B137">
-        <v>25.59576363636364</v>
+        <v>23.42415</v>
       </c>
       <c r="C137">
-        <v>26.58493157894737</v>
+        <v>23.8842</v>
       </c>
       <c r="D137">
-        <v>25.70725909090909</v>
+        <v>23.60407</v>
       </c>
       <c r="E137">
-        <v>25.40956363636364</v>
+        <v>23.598885</v>
       </c>
       <c r="F137">
-        <v>27.06376818181818</v>
+        <v>25.41029</v>
       </c>
       <c r="G137">
-        <v>27.97298636363637</v>
+        <v>26.37059</v>
       </c>
       <c r="H137">
-        <v>28.32999090909091</v>
+        <v>26.821895</v>
       </c>
       <c r="I137">
-        <v>28.99045</v>
+        <v>27.75639</v>
       </c>
       <c r="J137">
-        <v>29.19834545454546</v>
+        <v>28.29537</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -4802,31 +4802,31 @@
         <v>40330</v>
       </c>
       <c r="B138">
-        <v>35.12247142857143</v>
+        <v>38.98694285714286</v>
       </c>
       <c r="C138">
-        <v>34.52928888888889</v>
+        <v>39.86311111111111</v>
       </c>
       <c r="D138">
-        <v>35.14565238095238</v>
+        <v>38.83028571428571</v>
       </c>
       <c r="E138">
-        <v>34.76720952380953</v>
+        <v>37.58967142857143</v>
       </c>
       <c r="F138">
-        <v>35.32729047619048</v>
+        <v>37.25656666666667</v>
       </c>
       <c r="G138">
-        <v>35.08874285714286</v>
+        <v>36.6436</v>
       </c>
       <c r="H138">
-        <v>34.88629047619048</v>
+        <v>36.27621904761905</v>
       </c>
       <c r="I138">
-        <v>34.81451904761905</v>
+        <v>35.88191904761905</v>
       </c>
       <c r="J138">
-        <v>33.74478095238095</v>
+        <v>35.60838571428572</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -4834,31 +4834,31 @@
         <v>40360</v>
       </c>
       <c r="B139">
-        <v>28.57600476190476</v>
+        <v>32.39198636363636</v>
       </c>
       <c r="C139">
-        <v>28.70502777777778</v>
+        <v>33.1195947368421</v>
       </c>
       <c r="D139">
-        <v>28.85867142857143</v>
+        <v>32.66071363636364</v>
       </c>
       <c r="E139">
-        <v>30.27366190476191</v>
+        <v>33.78434545454545</v>
       </c>
       <c r="F139">
-        <v>31.65694285714286</v>
+        <v>34.67354090909091</v>
       </c>
       <c r="G139">
-        <v>32.33656666666667</v>
+        <v>34.81821818181818</v>
       </c>
       <c r="H139">
-        <v>32.61067142857143</v>
+        <v>34.91675</v>
       </c>
       <c r="I139">
-        <v>33.06205238095238</v>
+        <v>35.00495454545455</v>
       </c>
       <c r="J139">
-        <v>29.17357142857143</v>
+        <v>32.14826818181818</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -4866,31 +4866,31 @@
         <v>40391</v>
       </c>
       <c r="B140">
-        <v>28.21270909090909</v>
+        <v>28.75113181818182</v>
       </c>
       <c r="C140">
-        <v>28.53587368421053</v>
+        <v>28.80407894736842</v>
       </c>
       <c r="D140">
-        <v>28.99999090909091</v>
+        <v>29.62974090909091</v>
       </c>
       <c r="E140">
-        <v>30.31120454545454</v>
+        <v>31.44789090909091</v>
       </c>
       <c r="F140">
-        <v>31.77893181818182</v>
+        <v>33.44465</v>
       </c>
       <c r="G140">
-        <v>32.69560454545455</v>
+        <v>34.01783181818182</v>
       </c>
       <c r="H140">
-        <v>33.16570454545455</v>
+        <v>34.57713181818182</v>
       </c>
       <c r="I140">
-        <v>33.65372272727273</v>
+        <v>35.0177</v>
       </c>
       <c r="J140">
-        <v>27.48405454545454</v>
+        <v>25.77328181818182</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -4898,31 +4898,31 @@
         <v>40422</v>
       </c>
       <c r="B141">
-        <v>27.70137826086957</v>
+        <v>28.20326818181818</v>
       </c>
       <c r="C141">
-        <v>27.30855</v>
+        <v>27.23193684210526</v>
       </c>
       <c r="D141">
-        <v>27.79639130434783</v>
+        <v>28.44930454545454</v>
       </c>
       <c r="E141">
-        <v>28.67449565217391</v>
+        <v>29.25931818181818</v>
       </c>
       <c r="F141">
-        <v>30.18259565217391</v>
+        <v>30.93926363636364</v>
       </c>
       <c r="G141">
-        <v>31.42718695652174</v>
+        <v>32.10203181818181</v>
       </c>
       <c r="H141">
-        <v>32.18751304347826</v>
+        <v>32.76387727272727</v>
       </c>
       <c r="I141">
-        <v>33.09078260869565</v>
+        <v>33.81082727272727</v>
       </c>
       <c r="J141">
-        <v>29.67354782608696</v>
+        <v>29.08588181818182</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -4930,31 +4930,31 @@
         <v>40452</v>
       </c>
       <c r="B142">
-        <v>24.87960869565217</v>
+        <v>24.71488181818182</v>
       </c>
       <c r="C142">
-        <v>24.63285238095238</v>
+        <v>24.38903</v>
       </c>
       <c r="D142">
-        <v>25.17686956521739</v>
+        <v>25.04780454545454</v>
       </c>
       <c r="E142">
-        <v>26.67477391304348</v>
+        <v>26.56010454545455</v>
       </c>
       <c r="F142">
-        <v>28.28665652173913</v>
+        <v>28.05287272727272</v>
       </c>
       <c r="G142">
-        <v>29.96926956521739</v>
+        <v>30.10972272727273</v>
       </c>
       <c r="H142">
-        <v>29.69151818181818</v>
+        <v>30.20197619047619</v>
       </c>
       <c r="I142">
-        <v>31.72677391304348</v>
+        <v>32.82061363636364</v>
       </c>
       <c r="J142">
-        <v>29.13616086956522</v>
+        <v>29.28971363636364</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -4962,31 +4962,31 @@
         <v>40483</v>
       </c>
       <c r="B143">
-        <v>24.11408095238095</v>
+        <v>23.01794761904762</v>
       </c>
       <c r="C143">
-        <v>24.61873684210526</v>
+        <v>23.77374736842106</v>
       </c>
       <c r="D143">
-        <v>24.88121904761904</v>
+        <v>23.7624380952381</v>
       </c>
       <c r="E143">
-        <v>25.57692</v>
+        <v>24.705865</v>
       </c>
       <c r="F143">
-        <v>27.23479047619048</v>
+        <v>26.96618571428571</v>
       </c>
       <c r="G143">
-        <v>29.01849523809524</v>
+        <v>29.06038571428572</v>
       </c>
       <c r="H143">
-        <v>29.65730476190476</v>
+        <v>29.57329523809524</v>
       </c>
       <c r="I143">
-        <v>30.45760476190476</v>
+        <v>30.71062380952381</v>
       </c>
       <c r="J143">
-        <v>30.12676666666667</v>
+        <v>30.2469380952381</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -4994,31 +4994,31 @@
         <v>40513</v>
       </c>
       <c r="B144">
-        <v>26.635395</v>
+        <v>24.68792727272728</v>
       </c>
       <c r="C144">
-        <v>28.7153</v>
+        <v>26.453625</v>
       </c>
       <c r="D144">
-        <v>26.34414</v>
+        <v>24.39412727272727</v>
       </c>
       <c r="E144">
-        <v>26.26067368421053</v>
+        <v>24.04218095238095</v>
       </c>
       <c r="F144">
-        <v>28.15155</v>
+        <v>26.45955909090909</v>
       </c>
       <c r="G144">
-        <v>29.96566</v>
+        <v>28.86205909090909</v>
       </c>
       <c r="H144">
-        <v>30.19591</v>
+        <v>29.12927272727273</v>
       </c>
       <c r="I144">
-        <v>30.4545</v>
+        <v>29.54661363636363</v>
       </c>
       <c r="J144">
-        <v>30.32727</v>
+        <v>29.69972272727273</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5026,31 +5026,31 @@
         <v>40544</v>
       </c>
       <c r="B145">
-        <v>22.60535454545455</v>
+        <v>21.65354761904762</v>
       </c>
       <c r="C145">
-        <v>23.521325</v>
+        <v>22.2045947368421</v>
       </c>
       <c r="D145">
-        <v>23.42375454545454</v>
+        <v>22.52254285714286</v>
       </c>
       <c r="E145">
-        <v>24.93358636363637</v>
+        <v>24.39609047619048</v>
       </c>
       <c r="F145">
-        <v>27.22158636363637</v>
+        <v>26.64713809523809</v>
       </c>
       <c r="G145">
-        <v>29.01662727272727</v>
+        <v>29.23135714285715</v>
       </c>
       <c r="H145">
-        <v>29.34468181818182</v>
+        <v>29.73482380952381</v>
       </c>
       <c r="I145">
-        <v>29.86226363636364</v>
+        <v>29.95763333333334</v>
       </c>
       <c r="J145">
-        <v>29.49076190476191</v>
+        <v>30.216705</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -5058,31 +5058,31 @@
         <v>40575</v>
       </c>
       <c r="B146">
-        <v>23.95598181818182</v>
+        <v>22.08917142857143</v>
       </c>
       <c r="C146">
-        <v>24.59045</v>
+        <v>21.96484210526316</v>
       </c>
       <c r="D146">
-        <v>24.04469545454545</v>
+        <v>22.36372380952381</v>
       </c>
       <c r="E146">
-        <v>24.83619523809524</v>
+        <v>23.540925</v>
       </c>
       <c r="F146">
-        <v>26.77725</v>
+        <v>26.41079047619048</v>
       </c>
       <c r="G146">
-        <v>28.38572272727273</v>
+        <v>28.37434285714286</v>
       </c>
       <c r="H146">
-        <v>28.41415</v>
+        <v>28.35844761904762</v>
       </c>
       <c r="I146">
-        <v>29.2461</v>
+        <v>29.43171428571429</v>
       </c>
       <c r="J146">
-        <v>29.34724545454545</v>
+        <v>29.64950952380952</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -5090,31 +5090,31 @@
         <v>40603</v>
       </c>
       <c r="B147">
-        <v>25.15368947368421</v>
+        <v>21.437585</v>
       </c>
       <c r="C147">
-        <v>26.37192352941176</v>
+        <v>21.67268888888889</v>
       </c>
       <c r="D147">
-        <v>25.1847947368421</v>
+        <v>21.577515</v>
       </c>
       <c r="E147">
-        <v>25.50151666666666</v>
+        <v>22.30607894736842</v>
       </c>
       <c r="F147">
-        <v>26.4116052631579</v>
+        <v>23.818795</v>
       </c>
       <c r="G147">
-        <v>27.49934210526316</v>
+        <v>25.4834</v>
       </c>
       <c r="H147">
-        <v>27.78196315789474</v>
+        <v>26.055035</v>
       </c>
       <c r="I147">
-        <v>28.34348947368421</v>
+        <v>27.30636</v>
       </c>
       <c r="J147">
-        <v>28.44278947368421</v>
+        <v>27.538135</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -5122,31 +5122,31 @@
         <v>40634</v>
       </c>
       <c r="B148">
-        <v>26.81468636363636</v>
+        <v>24.98117826086957</v>
       </c>
       <c r="C148">
-        <v>28.360185</v>
+        <v>26.13440476190476</v>
       </c>
       <c r="D148">
-        <v>27.02244545454545</v>
+        <v>25.1937</v>
       </c>
       <c r="E148">
-        <v>26.89647727272727</v>
+        <v>25.35991739130435</v>
       </c>
       <c r="F148">
-        <v>27.98092272727273</v>
+        <v>26.39470869565217</v>
       </c>
       <c r="G148">
-        <v>28.37654090909091</v>
+        <v>27.16311304347826</v>
       </c>
       <c r="H148">
-        <v>27.92042857142857</v>
+        <v>26.71052272727272</v>
       </c>
       <c r="I148">
-        <v>28.50621818181818</v>
+        <v>27.39927826086956</v>
       </c>
       <c r="J148">
-        <v>28.68773181818182</v>
+        <v>27.61723043478261</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -5154,31 +5154,31 @@
         <v>40664</v>
       </c>
       <c r="B149">
-        <v>23.773985</v>
+        <v>20.22095263157895</v>
       </c>
       <c r="C149">
-        <v>24.16995</v>
+        <v>20.311</v>
       </c>
       <c r="D149">
-        <v>24.303315</v>
+        <v>20.81391578947369</v>
       </c>
       <c r="E149">
-        <v>24.90407894736842</v>
+        <v>21.87500555555555</v>
       </c>
       <c r="F149">
-        <v>26.600985</v>
+        <v>24.37691052631579</v>
       </c>
       <c r="G149">
-        <v>27.151295</v>
+        <v>25.04183157894737</v>
       </c>
       <c r="H149">
-        <v>27.386085</v>
+        <v>25.47742631578947</v>
       </c>
       <c r="I149">
-        <v>27.901265</v>
+        <v>26.11532105263158</v>
       </c>
       <c r="J149">
-        <v>28.17467</v>
+        <v>26.71615789473684</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -5186,31 +5186,31 @@
         <v>40695</v>
       </c>
       <c r="B150">
-        <v>25.94740952380953</v>
+        <v>21.93569545454546</v>
       </c>
       <c r="C150">
-        <v>27.23560526315789</v>
+        <v>21.85351</v>
       </c>
       <c r="D150">
-        <v>25.86475714285714</v>
+        <v>22.05805454545455</v>
       </c>
       <c r="E150">
-        <v>26.268205</v>
+        <v>22.54886666666667</v>
       </c>
       <c r="F150">
-        <v>26.92758095238095</v>
+        <v>23.68207272727273</v>
       </c>
       <c r="G150">
-        <v>27.91056190476191</v>
+        <v>25.06891363636364</v>
       </c>
       <c r="H150">
-        <v>28.18856666666666</v>
+        <v>25.71107272727273</v>
       </c>
       <c r="I150">
-        <v>28.4831619047619</v>
+        <v>26.53049090909091</v>
       </c>
       <c r="J150">
-        <v>28.84625238095238</v>
+        <v>27.08970454545454</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -5218,31 +5218,31 @@
         <v>40725</v>
       </c>
       <c r="B151">
-        <v>26.38383636363636</v>
+        <v>23.80556363636364</v>
       </c>
       <c r="C151">
-        <v>27.828965</v>
+        <v>24.780945</v>
       </c>
       <c r="D151">
-        <v>26.15949090909091</v>
+        <v>23.60215909090909</v>
       </c>
       <c r="E151">
-        <v>26.37390909090909</v>
+        <v>23.77928636363637</v>
       </c>
       <c r="F151">
-        <v>27.04347272727273</v>
+        <v>24.25604090909091</v>
       </c>
       <c r="G151">
-        <v>27.71787727272728</v>
+        <v>25.26565</v>
       </c>
       <c r="H151">
-        <v>28.0942</v>
+        <v>25.87689545454545</v>
       </c>
       <c r="I151">
-        <v>28.43153636363636</v>
+        <v>26.54051363636364</v>
       </c>
       <c r="J151">
-        <v>28.93230952380952</v>
+        <v>27.23058571428572</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5250,31 +5250,31 @@
         <v>40756</v>
       </c>
       <c r="B152">
-        <v>27.85359565217391</v>
+        <v>24.8857</v>
       </c>
       <c r="C152">
-        <v>28.63142857142857</v>
+        <v>26.02194736842105</v>
       </c>
       <c r="D152">
-        <v>27.84042608695652</v>
+        <v>24.89661428571429</v>
       </c>
       <c r="E152">
-        <v>27.89625909090909</v>
+        <v>24.99926</v>
       </c>
       <c r="F152">
-        <v>28.38414782608696</v>
+        <v>25.77425238095238</v>
       </c>
       <c r="G152">
-        <v>28.78353913043478</v>
+        <v>26.27647619047619</v>
       </c>
       <c r="H152">
-        <v>29.05611739130435</v>
+        <v>26.82740476190476</v>
       </c>
       <c r="I152">
-        <v>29.34776956521739</v>
+        <v>27.53998095238095</v>
       </c>
       <c r="J152">
-        <v>29.71422608695652</v>
+        <v>27.97384285714286</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -5282,31 +5282,31 @@
         <v>40787</v>
       </c>
       <c r="B153">
-        <v>37.12234545454545</v>
+        <v>40.81231739130435</v>
       </c>
       <c r="C153">
-        <v>38.834825</v>
+        <v>44.78555238095238</v>
       </c>
       <c r="D153">
-        <v>36.58734090909091</v>
+        <v>40.09</v>
       </c>
       <c r="E153">
-        <v>35.27366666666666</v>
+        <v>37.63314090909091</v>
       </c>
       <c r="F153">
-        <v>34.61974545454546</v>
+        <v>35.77033913043478</v>
       </c>
       <c r="G153">
-        <v>33.64422272727273</v>
+        <v>34.10885217391304</v>
       </c>
       <c r="H153">
-        <v>32.91788181818182</v>
+        <v>33.21827391304348</v>
       </c>
       <c r="I153">
-        <v>32.06551818181818</v>
+        <v>32.14560434782609</v>
       </c>
       <c r="J153">
-        <v>31.55481363636363</v>
+        <v>31.52722173913043</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -5314,31 +5314,31 @@
         <v>40817</v>
       </c>
       <c r="B154">
-        <v>40.98966818181818</v>
+        <v>45.54927272727272</v>
       </c>
       <c r="C154">
-        <v>44.234905</v>
+        <v>49.993905</v>
       </c>
       <c r="D154">
-        <v>40.5291</v>
+        <v>44.98530454545455</v>
       </c>
       <c r="E154">
-        <v>40.27528181818182</v>
+        <v>44.08519545454545</v>
       </c>
       <c r="F154">
-        <v>39.44868181818182</v>
+        <v>42.90954090909091</v>
       </c>
       <c r="G154">
-        <v>38.30183181818182</v>
+        <v>40.95317272727272</v>
       </c>
       <c r="H154">
-        <v>35.54671904761905</v>
+        <v>37.69782380952381</v>
       </c>
       <c r="I154">
-        <v>36.42405909090909</v>
+        <v>37.90588181818182</v>
       </c>
       <c r="J154">
-        <v>36.07576818181818</v>
+        <v>37.19107727272728</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -5346,31 +5346,31 @@
         <v>40848</v>
       </c>
       <c r="B155">
-        <v>34.85188571428571</v>
+        <v>39.37007142857143</v>
       </c>
       <c r="C155">
-        <v>36.50496842105263</v>
+        <v>40.36177894736842</v>
       </c>
       <c r="D155">
-        <v>34.73128095238095</v>
+        <v>39.31424285714286</v>
       </c>
       <c r="E155">
-        <v>34.17472</v>
+        <v>39.133095</v>
       </c>
       <c r="F155">
-        <v>34.60314761904762</v>
+        <v>38.98971428571429</v>
       </c>
       <c r="G155">
-        <v>34.73943809523809</v>
+        <v>38.84689047619048</v>
       </c>
       <c r="H155">
-        <v>34.34820952380952</v>
+        <v>38.10302857142857</v>
       </c>
       <c r="I155">
-        <v>33.75539047619048</v>
+        <v>36.84869999999999</v>
       </c>
       <c r="J155">
-        <v>33.58224761904762</v>
+        <v>36.54128571428571</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -5378,31 +5378,31 @@
         <v>40878</v>
       </c>
       <c r="B156">
-        <v>35.22891363636364</v>
+        <v>40.28689090909091</v>
       </c>
       <c r="C156">
-        <v>37.20272</v>
+        <v>43.13476</v>
       </c>
       <c r="D156">
-        <v>35.20555454545455</v>
+        <v>40.11194090909091</v>
       </c>
       <c r="E156">
-        <v>35.35771904761905</v>
+        <v>39.77198095238095</v>
       </c>
       <c r="F156">
-        <v>36.37398636363636</v>
+        <v>40.4576090909091</v>
       </c>
       <c r="G156">
-        <v>36.53345909090909</v>
+        <v>39.93848181818182</v>
       </c>
       <c r="H156">
-        <v>35.77030909090909</v>
+        <v>38.82500909090909</v>
       </c>
       <c r="I156">
-        <v>35.24015</v>
+        <v>37.92282272727272</v>
       </c>
       <c r="J156">
-        <v>34.69205454545455</v>
+        <v>37.05085909090909</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -5410,31 +5410,31 @@
         <v>40909</v>
       </c>
       <c r="B157">
-        <v>31.94805714285715</v>
+        <v>33.26090952380952</v>
       </c>
       <c r="C157">
-        <v>35.18493157894736</v>
+        <v>36.14040526315789</v>
       </c>
       <c r="D157">
-        <v>32.30904285714286</v>
+        <v>33.46255238095238</v>
       </c>
       <c r="E157">
-        <v>33.23394761904762</v>
+        <v>34.83442857142857</v>
       </c>
       <c r="F157">
-        <v>34.48477142857143</v>
+        <v>36.17387619047619</v>
       </c>
       <c r="G157">
-        <v>34.92770952380953</v>
+        <v>36.98249523809524</v>
       </c>
       <c r="H157">
-        <v>34.70772857142858</v>
+        <v>36.97659047619048</v>
       </c>
       <c r="I157">
-        <v>33.99213333333334</v>
+        <v>35.83909523809524</v>
       </c>
       <c r="J157">
-        <v>33.39568</v>
+        <v>35.22019</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -5442,31 +5442,31 @@
         <v>40940</v>
       </c>
       <c r="B158">
-        <v>26.23418947368421</v>
+        <v>27.78647272727273</v>
       </c>
       <c r="C158">
-        <v>26.23056470588235</v>
+        <v>28.137675</v>
       </c>
       <c r="D158">
-        <v>26.71381578947368</v>
+        <v>28.15171818181818</v>
       </c>
       <c r="E158">
-        <v>27.94236111111111</v>
+        <v>29.60410476190476</v>
       </c>
       <c r="F158">
-        <v>29.94002105263158</v>
+        <v>31.76085454545455</v>
       </c>
       <c r="G158">
-        <v>31.20152105263158</v>
+        <v>32.80272727272727</v>
       </c>
       <c r="H158">
-        <v>31.39172105263158</v>
+        <v>32.79590909090909</v>
       </c>
       <c r="I158">
-        <v>31.35133157894737</v>
+        <v>32.23163636363636</v>
       </c>
       <c r="J158">
-        <v>31.36848421052632</v>
+        <v>32.12351363636364</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -5474,31 +5474,31 @@
         <v>40969</v>
       </c>
       <c r="B159">
-        <v>24.74138181818182</v>
+        <v>24.93557142857143</v>
       </c>
       <c r="C159">
-        <v>24.090345</v>
+        <v>24.02803684210526</v>
       </c>
       <c r="D159">
-        <v>25.22370454545455</v>
+        <v>25.46625714285714</v>
       </c>
       <c r="E159">
-        <v>26.49435238095238</v>
+        <v>26.813345</v>
       </c>
       <c r="F159">
-        <v>28.23923636363636</v>
+        <v>28.49162380952381</v>
       </c>
       <c r="G159">
-        <v>30.11193181818182</v>
+        <v>30.43058571428571</v>
       </c>
       <c r="H159">
-        <v>30.60245454545455</v>
+        <v>31.03439523809524</v>
       </c>
       <c r="I159">
-        <v>30.98370909090909</v>
+        <v>31.32818095238095</v>
       </c>
       <c r="J159">
-        <v>31.25446363636364</v>
+        <v>31.63240476190476</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -5506,31 +5506,31 @@
         <v>41000</v>
       </c>
       <c r="B160">
-        <v>22.33010869565217</v>
+        <v>22.43295454545455</v>
       </c>
       <c r="C160">
-        <v>22.55380476190476</v>
+        <v>22.91879</v>
       </c>
       <c r="D160">
-        <v>23.12818695652174</v>
+        <v>23.22091818181818</v>
       </c>
       <c r="E160">
-        <v>24.63020434782609</v>
+        <v>24.80173181818182</v>
       </c>
       <c r="F160">
-        <v>26.60147391304348</v>
+        <v>26.62348181818182</v>
       </c>
       <c r="G160">
-        <v>28.05730869565217</v>
+        <v>28.47937727272727</v>
       </c>
       <c r="H160">
-        <v>28.00367272727273</v>
+        <v>28.44039047619048</v>
       </c>
       <c r="I160">
-        <v>29.49964782608696</v>
+        <v>30.08864545454545</v>
       </c>
       <c r="J160">
-        <v>29.99634782608695</v>
+        <v>30.77368181818182</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -5538,31 +5538,31 @@
         <v>41030</v>
       </c>
       <c r="B161">
-        <v>27.28925</v>
+        <v>27.09795263157894</v>
       </c>
       <c r="C161">
-        <v>27.86665555555556</v>
+        <v>27.93057647058824</v>
       </c>
       <c r="D161">
-        <v>27.378225</v>
+        <v>27.19868947368421</v>
       </c>
       <c r="E161">
-        <v>28.15787368421053</v>
+        <v>27.96222222222222</v>
       </c>
       <c r="F161">
-        <v>29.73265</v>
+        <v>29.59180526315789</v>
       </c>
       <c r="G161">
-        <v>30.675125</v>
+        <v>30.25298421052631</v>
       </c>
       <c r="H161">
-        <v>30.514415</v>
+        <v>30.02834210526316</v>
       </c>
       <c r="I161">
-        <v>30.60374</v>
+        <v>30.20552105263158</v>
       </c>
       <c r="J161">
-        <v>30.631165</v>
+        <v>30.41204736842105</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -5570,31 +5570,31 @@
         <v>41061</v>
       </c>
       <c r="B162">
-        <v>29.60739130434783</v>
+        <v>31.27221818181818</v>
       </c>
       <c r="C162">
-        <v>29.46401428571428</v>
+        <v>32.021915</v>
       </c>
       <c r="D162">
-        <v>30.08211739130435</v>
+        <v>31.66469545454545</v>
       </c>
       <c r="E162">
-        <v>30.66716363636364</v>
+        <v>32.09729047619047</v>
       </c>
       <c r="F162">
-        <v>31.84953913043478</v>
+        <v>32.92811363636363</v>
       </c>
       <c r="G162">
-        <v>32.77149130434783</v>
+        <v>33.59332272727273</v>
       </c>
       <c r="H162">
-        <v>32.61286086956522</v>
+        <v>33.03051363636364</v>
       </c>
       <c r="I162">
-        <v>32.44419565217391</v>
+        <v>32.68128636363636</v>
       </c>
       <c r="J162">
-        <v>32.17872173913043</v>
+        <v>32.23355909090909</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -5602,31 +5602,31 @@
         <v>41091</v>
       </c>
       <c r="B163">
-        <v>27.22511363636363</v>
+        <v>30.31832380952381</v>
       </c>
       <c r="C163">
-        <v>26.407755</v>
+        <v>29.29819473684211</v>
       </c>
       <c r="D163">
-        <v>27.64991363636364</v>
+        <v>30.84079047619048</v>
       </c>
       <c r="E163">
-        <v>28.68916818181818</v>
+        <v>31.77927619047619</v>
       </c>
       <c r="F163">
-        <v>30.41336818181818</v>
+        <v>33.20253333333334</v>
       </c>
       <c r="G163">
-        <v>31.49030454545455</v>
+        <v>34.10545714285714</v>
       </c>
       <c r="H163">
-        <v>31.81126363636364</v>
+        <v>33.96803333333334</v>
       </c>
       <c r="I163">
-        <v>31.92837727272727</v>
+        <v>33.82162380952381</v>
       </c>
       <c r="J163">
-        <v>31.70509523809524</v>
+        <v>33.36003</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -5634,31 +5634,31 @@
         <v>41122</v>
       </c>
       <c r="B164">
-        <v>24.81558095238095</v>
+        <v>24.66534090909091</v>
       </c>
       <c r="C164">
-        <v>25.1172052631579</v>
+        <v>24.390185</v>
       </c>
       <c r="D164">
-        <v>24.96956666666667</v>
+        <v>24.87430909090909</v>
       </c>
       <c r="E164">
-        <v>25.99643</v>
+        <v>26.24875714285714</v>
       </c>
       <c r="F164">
-        <v>28.1664</v>
+        <v>29.06173636363636</v>
       </c>
       <c r="G164">
-        <v>29.49222857142857</v>
+        <v>30.09463636363636</v>
       </c>
       <c r="H164">
-        <v>30.12101904761905</v>
+        <v>30.63644545454546</v>
       </c>
       <c r="I164">
-        <v>30.73476190476191</v>
+        <v>31.25507727272727</v>
       </c>
       <c r="J164">
-        <v>30.64659047619048</v>
+        <v>30.82111818181818</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -5666,31 +5666,31 @@
         <v>41153</v>
       </c>
       <c r="B165">
-        <v>24.63400909090909</v>
+        <v>24.22805652173913</v>
       </c>
       <c r="C165">
-        <v>24.414485</v>
+        <v>23.7906619047619</v>
       </c>
       <c r="D165">
-        <v>25.27871363636364</v>
+        <v>24.84923043478261</v>
       </c>
       <c r="E165">
-        <v>26.30912380952381</v>
+        <v>25.96775909090909</v>
       </c>
       <c r="F165">
-        <v>27.6033</v>
+        <v>27.4135347826087</v>
       </c>
       <c r="G165">
-        <v>29.20793636363636</v>
+        <v>28.95094347826087</v>
       </c>
       <c r="H165">
-        <v>30.00876363636364</v>
+        <v>29.90449565217391</v>
       </c>
       <c r="I165">
-        <v>30.63252727272727</v>
+        <v>30.68025217391304</v>
       </c>
       <c r="J165">
-        <v>30.88556818181818</v>
+        <v>30.95177826086956</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -5698,31 +5698,31 @@
         <v>41183</v>
       </c>
       <c r="B166">
-        <v>22.930695</v>
+        <v>22.60147</v>
       </c>
       <c r="C166">
-        <v>23.18422222222222</v>
+        <v>23.05615555555556</v>
       </c>
       <c r="D166">
-        <v>23.029815</v>
+        <v>22.677605</v>
       </c>
       <c r="E166">
-        <v>24.233725</v>
+        <v>23.770635</v>
       </c>
       <c r="F166">
-        <v>25.903295</v>
+        <v>25.06423</v>
       </c>
       <c r="G166">
-        <v>27.65519</v>
+        <v>27.05905</v>
       </c>
       <c r="H166">
-        <v>27.65304210526315</v>
+        <v>27.34415263157895</v>
       </c>
       <c r="I166">
-        <v>29.613685</v>
+        <v>29.49676</v>
       </c>
       <c r="J166">
-        <v>29.84417</v>
+        <v>29.66184</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -5730,31 +5730,31 @@
         <v>41214</v>
       </c>
       <c r="B167">
-        <v>23.08033181818182</v>
+        <v>21.84411304347826</v>
       </c>
       <c r="C167">
-        <v>23.422795</v>
+        <v>21.74215238095238</v>
       </c>
       <c r="D167">
-        <v>23.20862727272727</v>
+        <v>22.0237652173913</v>
       </c>
       <c r="E167">
-        <v>23.97943809523809</v>
+        <v>22.80000909090909</v>
       </c>
       <c r="F167">
-        <v>25.44775</v>
+        <v>24.31233043478261</v>
       </c>
       <c r="G167">
-        <v>27.08503636363637</v>
+        <v>26.18290869565217</v>
       </c>
       <c r="H167">
-        <v>27.96453181818182</v>
+        <v>27.31932608695652</v>
       </c>
       <c r="I167">
-        <v>28.41952272727273</v>
+        <v>27.90587391304348</v>
       </c>
       <c r="J167">
-        <v>28.75505909090909</v>
+        <v>28.28372608695652</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -5762,31 +5762,31 @@
         <v>41244</v>
       </c>
       <c r="B168">
-        <v>21.38351363636363</v>
+        <v>20.13180454545455</v>
       </c>
       <c r="C168">
-        <v>21.68737</v>
+        <v>20.49016</v>
       </c>
       <c r="D168">
-        <v>21.48370454545455</v>
+        <v>20.21359090909091</v>
       </c>
       <c r="E168">
-        <v>22.66213333333333</v>
+        <v>20.73524761904762</v>
       </c>
       <c r="F168">
-        <v>24.01555454545454</v>
+        <v>22.33051818181818</v>
       </c>
       <c r="G168">
-        <v>25.7845</v>
+        <v>24.12529090909091</v>
       </c>
       <c r="H168">
-        <v>26.68372727272727</v>
+        <v>25.13732727272727</v>
       </c>
       <c r="I168">
-        <v>27.17239090909091</v>
+        <v>25.79521363636363</v>
       </c>
       <c r="J168">
-        <v>27.60286818181818</v>
+        <v>26.44329545454546</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -5794,31 +5794,31 @@
         <v>41275</v>
       </c>
       <c r="B169">
-        <v>20.86548888888889</v>
+        <v>17.19394705882353</v>
       </c>
       <c r="C169">
-        <v>21.294025</v>
+        <v>17.14688666666667</v>
       </c>
       <c r="D169">
-        <v>20.89212222222222</v>
+        <v>17.23251764705882</v>
       </c>
       <c r="E169">
-        <v>22.36658888888889</v>
+        <v>18.97394117647059</v>
       </c>
       <c r="F169">
-        <v>23.88946666666667</v>
+        <v>20.29267058823529</v>
       </c>
       <c r="G169">
-        <v>25.78472222222222</v>
+        <v>22.55835294117647</v>
       </c>
       <c r="H169">
-        <v>26.70517777777778</v>
+        <v>23.72808823529412</v>
       </c>
       <c r="I169">
-        <v>27.37114444444444</v>
+        <v>24.66109411764706</v>
       </c>
       <c r="J169">
-        <v>28.05714117647059</v>
+        <v>25.69933125</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -5826,31 +5826,31 @@
         <v>41306</v>
       </c>
       <c r="B170">
-        <v>16.88231</v>
+        <v>16.0792</v>
       </c>
       <c r="C170">
-        <v>16.51698333333333</v>
+        <v>15.72448</v>
       </c>
       <c r="D170">
-        <v>16.76244</v>
+        <v>16.28185</v>
       </c>
       <c r="E170">
-        <v>17.48921578947368</v>
+        <v>17.50643333333333</v>
       </c>
       <c r="F170">
-        <v>19.333815</v>
+        <v>19.73762727272727</v>
       </c>
       <c r="G170">
-        <v>20.64269</v>
+        <v>21.2335</v>
       </c>
       <c r="H170">
-        <v>21.570655</v>
+        <v>22.29470909090909</v>
       </c>
       <c r="I170">
-        <v>22.89697</v>
+        <v>23.76632727272727</v>
       </c>
       <c r="J170">
-        <v>23.68864</v>
+        <v>24.65140909090909</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -5858,31 +5858,31 @@
         <v>41334</v>
       </c>
       <c r="B171">
-        <v>19.875195</v>
+        <v>19.901415</v>
       </c>
       <c r="C171">
-        <v>20.26332222222222</v>
+        <v>20.68526111111111</v>
       </c>
       <c r="D171">
-        <v>19.66626</v>
+        <v>19.646975</v>
       </c>
       <c r="E171">
-        <v>19.6679</v>
+        <v>19.43473684210526</v>
       </c>
       <c r="F171">
-        <v>20.77925</v>
+        <v>20.467835</v>
       </c>
       <c r="G171">
-        <v>21.63618</v>
+        <v>21.292215</v>
       </c>
       <c r="H171">
-        <v>22.25477</v>
+        <v>22.055345</v>
       </c>
       <c r="I171">
-        <v>23.38847</v>
+        <v>23.233825</v>
       </c>
       <c r="J171">
-        <v>23.991755</v>
+        <v>24.029475</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -5890,31 +5890,31 @@
         <v>41365</v>
       </c>
       <c r="B172">
-        <v>19.618165</v>
+        <v>19.306195</v>
       </c>
       <c r="C172">
-        <v>20.20772777777778</v>
+        <v>19.70136111111111</v>
       </c>
       <c r="D172">
-        <v>19.74145</v>
+        <v>19.464695</v>
       </c>
       <c r="E172">
-        <v>20.354595</v>
+        <v>20.010675</v>
       </c>
       <c r="F172">
-        <v>21.290315</v>
+        <v>20.93151</v>
       </c>
       <c r="G172">
-        <v>22.08775</v>
+        <v>21.733325</v>
       </c>
       <c r="H172">
-        <v>20.65367368421053</v>
+        <v>20.30468947368421</v>
       </c>
       <c r="I172">
-        <v>23.28741</v>
+        <v>23.012765</v>
       </c>
       <c r="J172">
-        <v>23.82198</v>
+        <v>23.69496</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -5922,31 +5922,31 @@
         <v>41395</v>
       </c>
       <c r="B173">
-        <v>20.04368181818182</v>
+        <v>20.38142380952381</v>
       </c>
       <c r="C173">
-        <v>20.591195</v>
+        <v>21.06436315789474</v>
       </c>
       <c r="D173">
-        <v>20.10524545454545</v>
+        <v>20.45529523809524</v>
       </c>
       <c r="E173">
-        <v>20.22547142857143</v>
+        <v>20.650645</v>
       </c>
       <c r="F173">
-        <v>21.36159545454545</v>
+        <v>21.67029047619048</v>
       </c>
       <c r="G173">
-        <v>22.06407727272727</v>
+        <v>22.24173333333333</v>
       </c>
       <c r="H173">
-        <v>22.54796818181818</v>
+        <v>22.60464761904762</v>
       </c>
       <c r="I173">
-        <v>23.20367727272727</v>
+        <v>23.2188619047619</v>
       </c>
       <c r="J173">
-        <v>23.81600909090909</v>
+        <v>23.91779047619048</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -5954,31 +5954,31 @@
         <v>41426</v>
       </c>
       <c r="B174">
-        <v>18.53056666666667</v>
+        <v>17.66758181818182</v>
       </c>
       <c r="C174">
-        <v>18.85351363636364</v>
+        <v>17.733615</v>
       </c>
       <c r="D174">
-        <v>18.72132083333333</v>
+        <v>17.92313181818182</v>
       </c>
       <c r="E174">
-        <v>19.09215217391304</v>
+        <v>18.32251428571429</v>
       </c>
       <c r="F174">
-        <v>20.40356666666667</v>
+        <v>19.79724545454545</v>
       </c>
       <c r="G174">
-        <v>21.55098333333333</v>
+        <v>21.04404545454545</v>
       </c>
       <c r="H174">
-        <v>21.9636375</v>
+        <v>21.42402727272727</v>
       </c>
       <c r="I174">
-        <v>22.78012916666667</v>
+        <v>22.22506363636364</v>
       </c>
       <c r="J174">
-        <v>23.5021875</v>
+        <v>23.1809</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -5986,31 +5986,31 @@
         <v>41456</v>
       </c>
       <c r="B175">
-        <v>21.046655</v>
+        <v>21.90055</v>
       </c>
       <c r="C175">
-        <v>21.88802777777778</v>
+        <v>23.13265</v>
       </c>
       <c r="D175">
-        <v>21.03756</v>
+        <v>21.831845</v>
       </c>
       <c r="E175">
-        <v>21.457655</v>
+        <v>22.25482</v>
       </c>
       <c r="F175">
-        <v>22.08078</v>
+        <v>22.668805</v>
       </c>
       <c r="G175">
-        <v>22.63081</v>
+        <v>23.199155</v>
       </c>
       <c r="H175">
-        <v>23.016435</v>
+        <v>23.44147</v>
       </c>
       <c r="I175">
-        <v>23.54344</v>
+        <v>23.876035</v>
       </c>
       <c r="J175">
-        <v>23.98233684210526</v>
+        <v>24.38213157894737</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6018,31 +6018,31 @@
         <v>41487</v>
       </c>
       <c r="B176">
-        <v>18.31083333333333</v>
+        <v>19.40465652173913</v>
       </c>
       <c r="C176">
-        <v>18.10864210526316</v>
+        <v>19.27714285714286</v>
       </c>
       <c r="D176">
-        <v>18.53552857142857</v>
+        <v>19.61105652173913</v>
       </c>
       <c r="E176">
-        <v>19.139035</v>
+        <v>20.39535909090909</v>
       </c>
       <c r="F176">
-        <v>20.71504761904762</v>
+        <v>21.74889130434783</v>
       </c>
       <c r="G176">
-        <v>21.58900476190476</v>
+        <v>22.35457826086957</v>
       </c>
       <c r="H176">
-        <v>22.34672380952381</v>
+        <v>23.02794347826087</v>
       </c>
       <c r="I176">
-        <v>23.18315714285714</v>
+        <v>23.60639130434783</v>
       </c>
       <c r="J176">
-        <v>23.55360952380952</v>
+        <v>23.66435652173913</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -6050,31 +6050,31 @@
         <v>41518</v>
       </c>
       <c r="B177">
-        <v>18.99951739130435</v>
+        <v>18.80561363636363</v>
       </c>
       <c r="C177">
-        <v>18.8279</v>
+        <v>17.81561</v>
       </c>
       <c r="D177">
-        <v>19.25602608695652</v>
+        <v>18.84148181818182</v>
       </c>
       <c r="E177">
-        <v>19.65032727272727</v>
+        <v>19.29360952380952</v>
       </c>
       <c r="F177">
-        <v>20.81049565217391</v>
+        <v>20.52393636363636</v>
       </c>
       <c r="G177">
-        <v>21.78813043478261</v>
+        <v>21.56456363636363</v>
       </c>
       <c r="H177">
-        <v>22.50814347826087</v>
+        <v>22.43923181818182</v>
       </c>
       <c r="I177">
-        <v>23.52114347826087</v>
+        <v>23.50418636363636</v>
       </c>
       <c r="J177">
-        <v>23.75457391304348</v>
+        <v>23.58641818181818</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -6082,31 +6082,31 @@
         <v>41548</v>
       </c>
       <c r="B178">
-        <v>18.14266</v>
+        <v>18.88671428571428</v>
       </c>
       <c r="C178">
-        <v>18.24647777777778</v>
+        <v>18.80918421052631</v>
       </c>
       <c r="D178">
-        <v>18.26753</v>
+        <v>19.02427619047619</v>
       </c>
       <c r="E178">
-        <v>19.0712</v>
+        <v>19.50725238095238</v>
       </c>
       <c r="F178">
-        <v>20.235825</v>
+        <v>20.53213809523809</v>
       </c>
       <c r="G178">
-        <v>21.36286</v>
+        <v>21.62542380952381</v>
       </c>
       <c r="H178">
-        <v>21.75096315789474</v>
+        <v>22.23309</v>
       </c>
       <c r="I178">
-        <v>23.043495</v>
+        <v>23.49979047619048</v>
       </c>
       <c r="J178">
-        <v>23.474585</v>
+        <v>23.84325714285714</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -6114,31 +6114,31 @@
         <v>41579</v>
       </c>
       <c r="B179">
-        <v>17.27817272727273</v>
+        <v>17.88028260869566</v>
       </c>
       <c r="C179">
-        <v>17.379555</v>
+        <v>18.07539523809524</v>
       </c>
       <c r="D179">
-        <v>17.51029545454545</v>
+        <v>18.09740869565217</v>
       </c>
       <c r="E179">
-        <v>18.0345</v>
+        <v>18.4763</v>
       </c>
       <c r="F179">
-        <v>19.53149090909091</v>
+        <v>19.82864347826087</v>
       </c>
       <c r="G179">
-        <v>20.6073</v>
+        <v>20.85720434782609</v>
       </c>
       <c r="H179">
-        <v>21.24048636363636</v>
+        <v>21.10616086956522</v>
       </c>
       <c r="I179">
-        <v>22.08734090909091</v>
+        <v>22.17974347826087</v>
       </c>
       <c r="J179">
-        <v>22.74425</v>
+        <v>22.77972173913043</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -6146,31 +6146,31 @@
         <v>41609</v>
       </c>
       <c r="B180">
-        <v>16.4337</v>
+        <v>15.72684761904762</v>
       </c>
       <c r="C180">
-        <v>16.56228095238095</v>
+        <v>15.79473684210526</v>
       </c>
       <c r="D180">
-        <v>16.63203913043478</v>
+        <v>15.97241428571429</v>
       </c>
       <c r="E180">
-        <v>17.61204090909091</v>
+        <v>16.56941</v>
       </c>
       <c r="F180">
-        <v>18.95211739130435</v>
+        <v>18.24220952380952</v>
       </c>
       <c r="G180">
-        <v>20.29489130434782</v>
+        <v>19.6145</v>
       </c>
       <c r="H180">
-        <v>21.08115217391304</v>
+        <v>20.45649047619047</v>
       </c>
       <c r="I180">
-        <v>21.83284782608696</v>
+        <v>21.09920952380952</v>
       </c>
       <c r="J180">
-        <v>22.46177391304348</v>
+        <v>21.67401904761905</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -6178,31 +6178,31 @@
         <v>41640</v>
       </c>
       <c r="B181">
-        <v>17.82365</v>
+        <v>17.03706111111111</v>
       </c>
       <c r="C181">
-        <v>20.602675</v>
+        <v>20.52356875</v>
       </c>
       <c r="D181">
-        <v>17.82649444444444</v>
+        <v>16.90155555555556</v>
       </c>
       <c r="E181">
-        <v>18.45041666666667</v>
+        <v>17.75110555555555</v>
       </c>
       <c r="F181">
-        <v>19.38473333333333</v>
+        <v>18.55205555555555</v>
       </c>
       <c r="G181">
-        <v>20.39831666666667</v>
+        <v>19.75788333333334</v>
       </c>
       <c r="H181">
-        <v>21.16031666666667</v>
+        <v>20.58269444444444</v>
       </c>
       <c r="I181">
-        <v>21.90775</v>
+        <v>21.2243</v>
       </c>
       <c r="J181">
-        <v>22.4669</v>
+        <v>21.63585294117647</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -6210,31 +6210,31 @@
         <v>41671</v>
       </c>
       <c r="B182">
-        <v>18.23659047619048</v>
+        <v>18.15219545454545</v>
       </c>
       <c r="C182">
-        <v>18.97252105263158</v>
+        <v>18.83842</v>
       </c>
       <c r="D182">
-        <v>18.22257142857143</v>
+        <v>18.14465</v>
       </c>
       <c r="E182">
-        <v>18.40642</v>
+        <v>18.33315714285714</v>
       </c>
       <c r="F182">
-        <v>19.19421904761905</v>
+        <v>19.19831363636364</v>
       </c>
       <c r="G182">
-        <v>19.85160952380953</v>
+        <v>19.96318181818182</v>
       </c>
       <c r="H182">
-        <v>20.43200952380952</v>
+        <v>20.62325454545454</v>
       </c>
       <c r="I182">
-        <v>21.10407142857143</v>
+        <v>21.32811818181818</v>
       </c>
       <c r="J182">
-        <v>21.55298095238095</v>
+        <v>21.76376818181818</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -6242,31 +6242,31 @@
         <v>41699</v>
       </c>
       <c r="B183">
-        <v>17.297755</v>
+        <v>18.419215</v>
       </c>
       <c r="C183">
-        <v>17.19941111111111</v>
+        <v>18.27093888888889</v>
       </c>
       <c r="D183">
-        <v>17.338355</v>
+        <v>18.48931</v>
       </c>
       <c r="E183">
-        <v>17.61038421052632</v>
+        <v>18.5434</v>
       </c>
       <c r="F183">
-        <v>18.570135</v>
+        <v>19.397695</v>
       </c>
       <c r="G183">
-        <v>19.394785</v>
+        <v>20.150895</v>
       </c>
       <c r="H183">
-        <v>19.91382</v>
+        <v>20.57352</v>
       </c>
       <c r="I183">
-        <v>20.600665</v>
+        <v>21.29098</v>
       </c>
       <c r="J183">
-        <v>21.00891</v>
+        <v>21.611465</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -6274,31 +6274,31 @@
         <v>41730</v>
       </c>
       <c r="B184">
-        <v>18.93125652173913</v>
+        <v>19.36646666666667</v>
       </c>
       <c r="C184">
-        <v>20.20139523809524</v>
+        <v>20.89452105263158</v>
       </c>
       <c r="D184">
-        <v>18.8314347826087</v>
+        <v>19.29837619047619</v>
       </c>
       <c r="E184">
-        <v>18.98342173913043</v>
+        <v>19.29345714285714</v>
       </c>
       <c r="F184">
-        <v>19.53741304347826</v>
+        <v>19.81691428571428</v>
       </c>
       <c r="G184">
-        <v>20.03706956521739</v>
+        <v>20.28595714285714</v>
       </c>
       <c r="H184">
-        <v>20.19186818181818</v>
+        <v>20.40927</v>
       </c>
       <c r="I184">
-        <v>20.73137391304348</v>
+        <v>21.05413809523809</v>
       </c>
       <c r="J184">
-        <v>21.1367</v>
+        <v>21.42920952380952</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -6306,31 +6306,31 @@
         <v>41760</v>
       </c>
       <c r="B185">
-        <v>17.91972</v>
+        <v>17.44451</v>
       </c>
       <c r="C185">
-        <v>18.52886666666667</v>
+        <v>17.82236111111111</v>
       </c>
       <c r="D185">
-        <v>18.011985</v>
+        <v>17.606195</v>
       </c>
       <c r="E185">
-        <v>18.33463684210526</v>
+        <v>18.20911578947369</v>
       </c>
       <c r="F185">
-        <v>18.971415</v>
+        <v>19.063735</v>
       </c>
       <c r="G185">
-        <v>19.502775</v>
+        <v>19.650355</v>
       </c>
       <c r="H185">
-        <v>19.93387</v>
+        <v>20.008435</v>
       </c>
       <c r="I185">
-        <v>20.321665</v>
+        <v>20.249</v>
       </c>
       <c r="J185">
-        <v>20.735305</v>
+        <v>20.69903</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -6338,31 +6338,31 @@
         <v>41791</v>
       </c>
       <c r="B186">
-        <v>16.63049545454545</v>
+        <v>16.25373333333333</v>
       </c>
       <c r="C186">
-        <v>16.41453</v>
+        <v>15.61872105263158</v>
       </c>
       <c r="D186">
-        <v>16.90705909090909</v>
+        <v>16.59544285714286</v>
       </c>
       <c r="E186">
-        <v>17.31718095238095</v>
+        <v>17.0601</v>
       </c>
       <c r="F186">
-        <v>17.95323181818182</v>
+        <v>17.79914285714286</v>
       </c>
       <c r="G186">
-        <v>18.62757272727273</v>
+        <v>18.48722857142857</v>
       </c>
       <c r="H186">
-        <v>19.11738181818182</v>
+        <v>18.9449380952381</v>
       </c>
       <c r="I186">
-        <v>19.49283181818182</v>
+        <v>19.24465714285714</v>
       </c>
       <c r="J186">
-        <v>19.96402272727273</v>
+        <v>19.7488619047619</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -6370,31 +6370,31 @@
         <v>41821</v>
       </c>
       <c r="B187">
-        <v>15.89998</v>
+        <v>14.32126190476191</v>
       </c>
       <c r="C187">
-        <v>16.66187222222222</v>
+        <v>14.44260526315789</v>
       </c>
       <c r="D187">
-        <v>15.993855</v>
+        <v>14.4558</v>
       </c>
       <c r="E187">
-        <v>16.63457</v>
+        <v>15.3369</v>
       </c>
       <c r="F187">
-        <v>17.529955</v>
+        <v>16.35370476190476</v>
       </c>
       <c r="G187">
-        <v>18.40514</v>
+        <v>17.43662857142857</v>
       </c>
       <c r="H187">
-        <v>19.02616</v>
+        <v>18.18656666666667</v>
       </c>
       <c r="I187">
-        <v>19.734385</v>
+        <v>18.90547142857143</v>
       </c>
       <c r="J187">
-        <v>20.36441052631579</v>
+        <v>19.65488</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -6402,31 +6402,31 @@
         <v>41852</v>
       </c>
       <c r="B188">
-        <v>17.39564782608696</v>
+        <v>15.80365652173913</v>
       </c>
       <c r="C188">
-        <v>17.90673333333334</v>
+        <v>15.85824285714286</v>
       </c>
       <c r="D188">
-        <v>17.42407826086957</v>
+        <v>15.89971304347826</v>
       </c>
       <c r="E188">
-        <v>17.58062727272727</v>
+        <v>16.21576363636364</v>
       </c>
       <c r="F188">
-        <v>18.30063043478261</v>
+        <v>17.29839565217391</v>
       </c>
       <c r="G188">
-        <v>18.80665652173913</v>
+        <v>17.90870869565217</v>
       </c>
       <c r="H188">
-        <v>19.3382652173913</v>
+        <v>18.58026956521739</v>
       </c>
       <c r="I188">
-        <v>20.00627826086957</v>
+        <v>19.45301304347826</v>
       </c>
       <c r="J188">
-        <v>20.41602173913043</v>
+        <v>19.99844782608696</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -6434,31 +6434,31 @@
         <v>41883</v>
       </c>
       <c r="B189">
-        <v>17.35049523809524</v>
+        <v>18.0796380952381</v>
       </c>
       <c r="C189">
-        <v>17.31293684210526</v>
+        <v>18.58433157894737</v>
       </c>
       <c r="D189">
-        <v>17.4059</v>
+        <v>18.09635714285714</v>
       </c>
       <c r="E189">
-        <v>17.7429</v>
+        <v>18.2306</v>
       </c>
       <c r="F189">
-        <v>18.28628095238095</v>
+        <v>18.57304761904762</v>
       </c>
       <c r="G189">
-        <v>18.81823809523809</v>
+        <v>18.97975714285714</v>
       </c>
       <c r="H189">
-        <v>19.40075238095238</v>
+        <v>19.54952380952381</v>
       </c>
       <c r="I189">
-        <v>20.10970476190476</v>
+        <v>20.29019047619047</v>
       </c>
       <c r="J189">
-        <v>20.62977619047619</v>
+        <v>20.80392380952381</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -6466,31 +6466,31 @@
         <v>41913</v>
       </c>
       <c r="B190">
-        <v>17.016115</v>
+        <v>16.72609090909091</v>
       </c>
       <c r="C190">
-        <v>18.13010555555556</v>
+        <v>17.517505</v>
       </c>
       <c r="D190">
-        <v>17.02689</v>
+        <v>16.74085909090909</v>
       </c>
       <c r="E190">
-        <v>17.611445</v>
+        <v>17.32094090909091</v>
       </c>
       <c r="F190">
-        <v>18.227865</v>
+        <v>17.78065909090909</v>
       </c>
       <c r="G190">
-        <v>18.922155</v>
+        <v>18.51270909090909</v>
       </c>
       <c r="H190">
-        <v>19.23823157894737</v>
+        <v>18.91289047619048</v>
       </c>
       <c r="I190">
-        <v>20.123825</v>
+        <v>19.99835909090909</v>
       </c>
       <c r="J190">
-        <v>20.776295</v>
+        <v>20.7323</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -6498,31 +6498,31 @@
         <v>41944</v>
       </c>
       <c r="B191">
-        <v>21.304276</v>
+        <v>22.36105652173913</v>
       </c>
       <c r="C191">
-        <v>22.10849130434783</v>
+        <v>23.51375714285714</v>
       </c>
       <c r="D191">
-        <v>21.126076</v>
+        <v>22.12562173913043</v>
       </c>
       <c r="E191">
-        <v>20.47550416666667</v>
+        <v>21.33490909090909</v>
       </c>
       <c r="F191">
-        <v>20.769764</v>
+        <v>21.34782173913043</v>
       </c>
       <c r="G191">
-        <v>20.974464</v>
+        <v>21.43922608695652</v>
       </c>
       <c r="H191">
-        <v>20.826456</v>
+        <v>21.17487826086957</v>
       </c>
       <c r="I191">
-        <v>21.1135</v>
+        <v>21.31365652173913</v>
       </c>
       <c r="J191">
-        <v>21.08908</v>
+        <v>21.24556521739131</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -6530,31 +6530,31 @@
         <v>41974</v>
       </c>
       <c r="B192">
-        <v>18.58213809523809</v>
+        <v>19.7701</v>
       </c>
       <c r="C192">
-        <v>19.03033684210526</v>
+        <v>20.53251111111111</v>
       </c>
       <c r="D192">
-        <v>18.47598095238095</v>
+        <v>19.56333</v>
       </c>
       <c r="E192">
-        <v>18.50511</v>
+        <v>19.13211578947368</v>
       </c>
       <c r="F192">
-        <v>19.31902857142857</v>
+        <v>19.837105</v>
       </c>
       <c r="G192">
-        <v>19.80047619047619</v>
+        <v>20.13573</v>
       </c>
       <c r="H192">
-        <v>20.07996190476191</v>
+        <v>20.26688</v>
       </c>
       <c r="I192">
-        <v>20.38746666666666</v>
+        <v>20.349185</v>
       </c>
       <c r="J192">
-        <v>20.54790476190476</v>
+        <v>20.28965</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -6562,31 +6562,31 @@
         <v>42005</v>
       </c>
       <c r="B193">
-        <v>22.0942294117647</v>
+        <v>22.29438421052632</v>
       </c>
       <c r="C193">
-        <v>25.49283333333333</v>
+        <v>26.19737058823529</v>
       </c>
       <c r="D193">
-        <v>22.14761176470588</v>
+        <v>22.18434210526316</v>
       </c>
       <c r="E193">
-        <v>22.20805294117647</v>
+        <v>22.62817368421053</v>
       </c>
       <c r="F193">
-        <v>22.26328235294118</v>
+        <v>22.63017894736842</v>
       </c>
       <c r="G193">
-        <v>22.17788235294118</v>
+        <v>22.51468947368421</v>
       </c>
       <c r="H193">
-        <v>22.18058235294118</v>
+        <v>22.51426842105263</v>
       </c>
       <c r="I193">
-        <v>22.11085294117647</v>
+        <v>22.35707368421053</v>
       </c>
       <c r="J193">
-        <v>21.90713125</v>
+        <v>22.06066111111111</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -6594,31 +6594,31 @@
         <v>42036</v>
       </c>
       <c r="B194">
-        <v>26.14523000000001</v>
+        <v>26.4186380952381</v>
       </c>
       <c r="C194">
-        <v>26.62893333333334</v>
+        <v>26.72308947368421</v>
       </c>
       <c r="D194">
-        <v>25.89191</v>
+        <v>26.40123333333333</v>
       </c>
       <c r="E194">
-        <v>25.07921052631579</v>
+        <v>25.682015</v>
       </c>
       <c r="F194">
-        <v>24.79996</v>
+        <v>24.96237619047619</v>
       </c>
       <c r="G194">
-        <v>24.473605</v>
+        <v>24.54314761904762</v>
       </c>
       <c r="H194">
-        <v>24.177455</v>
+        <v>24.1927</v>
       </c>
       <c r="I194">
-        <v>24.13729</v>
+        <v>23.99117619047619</v>
       </c>
       <c r="J194">
-        <v>23.792825</v>
+        <v>23.5765380952381</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -6626,31 +6626,31 @@
         <v>42064</v>
       </c>
       <c r="B195">
-        <v>23.35935238095238</v>
+        <v>22.55293</v>
       </c>
       <c r="C195">
-        <v>24.00256842105263</v>
+        <v>22.71938333333333</v>
       </c>
       <c r="D195">
-        <v>23.41284761904762</v>
+        <v>22.79929</v>
       </c>
       <c r="E195">
-        <v>23.299595</v>
+        <v>22.78880526315789</v>
       </c>
       <c r="F195">
-        <v>23.51202857142857</v>
+        <v>23.32997</v>
       </c>
       <c r="G195">
-        <v>23.66578571428571</v>
+        <v>23.638295</v>
       </c>
       <c r="H195">
-        <v>23.56882857142857</v>
+        <v>23.60812</v>
       </c>
       <c r="I195">
-        <v>23.6794619047619</v>
+        <v>23.90168</v>
       </c>
       <c r="J195">
-        <v>23.45064285714286</v>
+        <v>23.56009</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -6658,31 +6658,31 @@
         <v>42095</v>
       </c>
       <c r="B196">
-        <v>21.05059047619048</v>
+        <v>19.21845454545455</v>
       </c>
       <c r="C196">
-        <v>21.76661578947368</v>
+        <v>19.11805</v>
       </c>
       <c r="D196">
-        <v>21.16166190476191</v>
+        <v>19.46123181818182</v>
       </c>
       <c r="E196">
-        <v>21.78959047619048</v>
+        <v>20.50128181818182</v>
       </c>
       <c r="F196">
-        <v>22.24249523809524</v>
+        <v>21.24760909090909</v>
       </c>
       <c r="G196">
-        <v>22.58272380952381</v>
+        <v>21.86579090909091</v>
       </c>
       <c r="H196">
-        <v>22.401285</v>
+        <v>21.72435238095238</v>
       </c>
       <c r="I196">
-        <v>23.08439047619047</v>
+        <v>22.68609545454546</v>
       </c>
       <c r="J196">
-        <v>23.11902380952381</v>
+        <v>22.64485</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -6690,31 +6690,31 @@
         <v>42125</v>
       </c>
       <c r="B197">
-        <v>22.20189545454545</v>
+        <v>20.99377</v>
       </c>
       <c r="C197">
-        <v>22.43794</v>
+        <v>20.40723888888889</v>
       </c>
       <c r="D197">
-        <v>22.17279090909091</v>
+        <v>21.03344</v>
       </c>
       <c r="E197">
-        <v>22.15376666666667</v>
+        <v>21.31792631578947</v>
       </c>
       <c r="F197">
-        <v>22.51665454545455</v>
+        <v>21.91464</v>
       </c>
       <c r="G197">
-        <v>22.63925454545454</v>
+        <v>22.137045</v>
       </c>
       <c r="H197">
-        <v>22.74965454545454</v>
+        <v>22.339805</v>
       </c>
       <c r="I197">
-        <v>23.15256818181818</v>
+        <v>22.957055</v>
       </c>
       <c r="J197">
-        <v>23.16846363636364</v>
+        <v>23.010635</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -6722,31 +6722,31 @@
         <v>42156</v>
       </c>
       <c r="B198">
-        <v>22.132135</v>
+        <v>22.01561578947369</v>
       </c>
       <c r="C198">
-        <v>22.53527777777778</v>
+        <v>23.42252941176471</v>
       </c>
       <c r="D198">
-        <v>22.11003</v>
+        <v>21.89373684210526</v>
       </c>
       <c r="E198">
-        <v>22.01700526315789</v>
+        <v>21.71273333333333</v>
       </c>
       <c r="F198">
-        <v>22.10556</v>
+        <v>21.81426842105263</v>
       </c>
       <c r="G198">
-        <v>22.14192</v>
+        <v>21.77243684210526</v>
       </c>
       <c r="H198">
-        <v>22.16634</v>
+        <v>21.80268421052632</v>
       </c>
       <c r="I198">
-        <v>22.46762</v>
+        <v>22.18881578947368</v>
       </c>
       <c r="J198">
-        <v>22.51895</v>
+        <v>22.20468421052632</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -6754,31 +6754,31 @@
         <v>42186</v>
       </c>
       <c r="B199">
-        <v>25.897985</v>
+        <v>26.15386818181818</v>
       </c>
       <c r="C199">
-        <v>27.49748888888889</v>
+        <v>28.602685</v>
       </c>
       <c r="D199">
-        <v>25.31661</v>
+        <v>25.4448</v>
       </c>
       <c r="E199">
-        <v>24.400555</v>
+        <v>24.18502272727273</v>
       </c>
       <c r="F199">
-        <v>23.610585</v>
+        <v>23.40067272727273</v>
       </c>
       <c r="G199">
-        <v>23.035735</v>
+        <v>22.60477727272727</v>
       </c>
       <c r="H199">
-        <v>22.89995</v>
+        <v>22.35738181818182</v>
       </c>
       <c r="I199">
-        <v>22.85282</v>
+        <v>22.35846363636364</v>
       </c>
       <c r="J199">
-        <v>22.81837894736842</v>
+        <v>22.29919523809524</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -6786,31 +6786,31 @@
         <v>42217</v>
       </c>
       <c r="B200">
-        <v>21.82979565217391</v>
+        <v>23.57867826086957</v>
       </c>
       <c r="C200">
-        <v>23.63585238095238</v>
+        <v>27.41342857142857</v>
       </c>
       <c r="D200">
-        <v>22.0403</v>
+        <v>23.36577826086957</v>
       </c>
       <c r="E200">
-        <v>22.18447727272727</v>
+        <v>22.96590909090909</v>
       </c>
       <c r="F200">
-        <v>22.13578695652174</v>
+        <v>22.0935</v>
       </c>
       <c r="G200">
-        <v>22.07611739130435</v>
+        <v>21.78750434782609</v>
       </c>
       <c r="H200">
-        <v>22.09734347826087</v>
+        <v>21.74931739130435</v>
       </c>
       <c r="I200">
-        <v>22.13615217391304</v>
+        <v>21.60453043478261</v>
       </c>
       <c r="J200">
-        <v>22.25397391304348</v>
+        <v>21.78126086956522</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -6818,31 +6818,31 @@
         <v>42248</v>
       </c>
       <c r="B201">
-        <v>27.46748095238095</v>
+        <v>25.11059047619048</v>
       </c>
       <c r="C201">
-        <v>29.32443684210526</v>
+        <v>26.12773157894737</v>
       </c>
       <c r="D201">
-        <v>26.71667619047619</v>
+        <v>24.49907142857143</v>
       </c>
       <c r="E201">
-        <v>25.235135</v>
+        <v>23.121445</v>
       </c>
       <c r="F201">
-        <v>24.88332380952381</v>
+        <v>23.19583333333333</v>
       </c>
       <c r="G201">
-        <v>24.08114761904762</v>
+        <v>22.57902857142857</v>
       </c>
       <c r="H201">
-        <v>23.60794761904762</v>
+        <v>22.2151380952381</v>
       </c>
       <c r="I201">
-        <v>23.06146190476191</v>
+        <v>21.78571428571428</v>
       </c>
       <c r="J201">
-        <v>22.70510476190476</v>
+        <v>21.56879523809524</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -6850,31 +6850,31 @@
         <v>42278</v>
       </c>
       <c r="B202">
-        <v>28.04060869565217</v>
+        <v>31.4502</v>
       </c>
       <c r="C202">
-        <v>30.34282380952381</v>
+        <v>34.62130000000001</v>
       </c>
       <c r="D202">
-        <v>27.57390434782609</v>
+        <v>30.86877272727273</v>
       </c>
       <c r="E202">
-        <v>27.0269</v>
+        <v>29.85863636363636</v>
       </c>
       <c r="F202">
-        <v>26.29558260869565</v>
+        <v>28.92725</v>
       </c>
       <c r="G202">
-        <v>25.90883043478261</v>
+        <v>27.88034090909091</v>
       </c>
       <c r="H202">
-        <v>25.25473181818182</v>
+        <v>27.00787142857143</v>
       </c>
       <c r="I202">
-        <v>25.35489130434783</v>
+        <v>26.45586363636363</v>
       </c>
       <c r="J202">
-        <v>24.81579130434783</v>
+        <v>25.39101363636364</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -6882,31 +6882,31 @@
         <v>42309</v>
       </c>
       <c r="B203">
-        <v>22.4910347826087</v>
+        <v>23.65094545454545</v>
       </c>
       <c r="C203">
-        <v>23.03558095238095</v>
+        <v>23.61063</v>
       </c>
       <c r="D203">
-        <v>22.86416956521739</v>
+        <v>24.05395454545454</v>
       </c>
       <c r="E203">
-        <v>22.78672727272727</v>
+        <v>24.10400476190476</v>
       </c>
       <c r="F203">
-        <v>23.35259130434783</v>
+        <v>24.4206</v>
       </c>
       <c r="G203">
-        <v>23.80046086956522</v>
+        <v>24.95308181818182</v>
       </c>
       <c r="H203">
-        <v>23.95740434782609</v>
+        <v>25.06099545454546</v>
       </c>
       <c r="I203">
-        <v>24.14618695652174</v>
+        <v>25.28279090909091</v>
       </c>
       <c r="J203">
-        <v>24.62716956521739</v>
+        <v>25.77899545454545</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -6914,31 +6914,31 @@
         <v>42339</v>
       </c>
       <c r="B204">
-        <v>23.88659</v>
+        <v>22.81996666666667</v>
       </c>
       <c r="C204">
-        <v>24.91788888888889</v>
+        <v>22.04816315789474</v>
       </c>
       <c r="D204">
-        <v>23.599405</v>
+        <v>22.76929523809524</v>
       </c>
       <c r="E204">
-        <v>23.25583157894737</v>
+        <v>22.446665</v>
       </c>
       <c r="F204">
-        <v>23.85684</v>
+        <v>23.51251428571429</v>
       </c>
       <c r="G204">
-        <v>24.191305</v>
+        <v>24.1919380952381</v>
       </c>
       <c r="H204">
-        <v>24.276175</v>
+        <v>24.37790952380952</v>
       </c>
       <c r="I204">
-        <v>24.419025</v>
+        <v>24.62228571428571</v>
       </c>
       <c r="J204">
-        <v>24.75193</v>
+        <v>25.23616666666667</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -6946,31 +6946,31 @@
         <v>42370</v>
       </c>
       <c r="B205">
-        <v>23.96514210526316</v>
+        <v>23.773375</v>
       </c>
       <c r="C205">
-        <v>27.71878235294118</v>
+        <v>27.78948333333333</v>
       </c>
       <c r="D205">
-        <v>24.15446315789474</v>
+        <v>23.7935</v>
       </c>
       <c r="E205">
-        <v>24.17673684210526</v>
+        <v>24.163295</v>
       </c>
       <c r="F205">
-        <v>24.57998421052632</v>
+        <v>24.78785</v>
       </c>
       <c r="G205">
-        <v>24.69860526315789</v>
+        <v>25.179785</v>
       </c>
       <c r="H205">
-        <v>24.66343684210526</v>
+        <v>25.328595</v>
       </c>
       <c r="I205">
-        <v>24.90904736842105</v>
+        <v>25.54358</v>
       </c>
       <c r="J205">
-        <v>24.92626666666667</v>
+        <v>25.92147368421053</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -6978,31 +6978,31 @@
         <v>42401</v>
       </c>
       <c r="B206">
-        <v>30.13405714285714</v>
+        <v>29.65048</v>
       </c>
       <c r="C206">
-        <v>30.14801666666667</v>
+        <v>30.79939444444445</v>
       </c>
       <c r="D206">
-        <v>30.00924285714286</v>
+        <v>29.462415</v>
       </c>
       <c r="E206">
-        <v>28.91874615384616</v>
+        <v>28.65832631578947</v>
       </c>
       <c r="F206">
-        <v>29.18754285714286</v>
+        <v>28.71821</v>
       </c>
       <c r="G206">
-        <v>28.57331428571429</v>
+        <v>28.1521</v>
       </c>
       <c r="H206">
-        <v>28.35567857142857</v>
+        <v>27.89567</v>
       </c>
       <c r="I206">
-        <v>28.24575</v>
+        <v>27.71179</v>
       </c>
       <c r="J206">
-        <v>27.87916428571429</v>
+        <v>27.275525</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -7010,351 +7010,31 @@
         <v>42430</v>
       </c>
       <c r="B207">
-        <v>29.1542</v>
+        <v>32.17172</v>
       </c>
       <c r="C207">
-        <v>28.9151</v>
+        <v>32.63776</v>
       </c>
       <c r="D207">
-        <v>29.2537</v>
+        <v>32.18991</v>
       </c>
       <c r="E207">
-        <v>28.5844</v>
+        <v>31.08979</v>
       </c>
       <c r="F207">
-        <v>28.7267</v>
+        <v>30.99692</v>
       </c>
       <c r="G207">
-        <v>28.4284</v>
+        <v>30.36333</v>
       </c>
       <c r="H207">
-        <v>28.5253</v>
+        <v>30.20602</v>
       </c>
       <c r="I207">
-        <v>28.5344</v>
+        <v>29.88049</v>
       </c>
       <c r="J207">
-        <v>28.3418</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
-      <c r="A208" s="2">
-        <v>42461</v>
-      </c>
-      <c r="B208">
-        <v>30.7369</v>
-      </c>
-      <c r="C208">
-        <v>30.4481</v>
-      </c>
-      <c r="D208">
-        <v>30.8369</v>
-      </c>
-      <c r="E208">
-        <v>29.9725</v>
-      </c>
-      <c r="F208">
-        <v>30.0971</v>
-      </c>
-      <c r="G208">
-        <v>29.3648</v>
-      </c>
-      <c r="H208">
-        <v>29.2513</v>
-      </c>
-      <c r="I208">
-        <v>28.9556</v>
-      </c>
-      <c r="J208">
-        <v>28.5753</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
-      <c r="A209" s="2">
-        <v>42491</v>
-      </c>
-      <c r="B209">
-        <v>28.32015</v>
-      </c>
-      <c r="C209">
-        <v>29.02555</v>
-      </c>
-      <c r="D209">
-        <v>28.1977</v>
-      </c>
-      <c r="E209">
-        <v>27.7856</v>
-      </c>
-      <c r="F209">
-        <v>27.9996</v>
-      </c>
-      <c r="G209">
-        <v>27.5735</v>
-      </c>
-      <c r="H209">
-        <v>27.4697</v>
-      </c>
-      <c r="I209">
-        <v>27.321</v>
-      </c>
-      <c r="J209">
-        <v>26.96565</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="A210" s="2">
-        <v>42522</v>
-      </c>
-      <c r="B210">
-        <v>28.1308</v>
-      </c>
-      <c r="C210">
-        <v>28.5022</v>
-      </c>
-      <c r="D210">
-        <v>28.09285</v>
-      </c>
-      <c r="E210">
-        <v>27.8123</v>
-      </c>
-      <c r="F210">
-        <v>27.95165</v>
-      </c>
-      <c r="G210">
-        <v>27.73515</v>
-      </c>
-      <c r="H210">
-        <v>27.62225</v>
-      </c>
-      <c r="I210">
-        <v>27.54015</v>
-      </c>
-      <c r="J210">
-        <v>27.1994</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
-      <c r="A211" s="2">
-        <v>42552</v>
-      </c>
-      <c r="B211">
-        <v>26.309</v>
-      </c>
-      <c r="C211">
-        <v>27.518</v>
-      </c>
-      <c r="D211">
-        <v>26.1478</v>
-      </c>
-      <c r="E211">
-        <v>26.4519</v>
-      </c>
-      <c r="F211">
-        <v>26.5632</v>
-      </c>
-      <c r="G211">
-        <v>26.4964</v>
-      </c>
-      <c r="H211">
-        <v>26.2585</v>
-      </c>
-      <c r="I211">
-        <v>26.2561</v>
-      </c>
-      <c r="J211">
-        <v>25.6727</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
-      <c r="A212" s="2">
-        <v>42583</v>
-      </c>
-      <c r="B212">
-        <v>29.7899</v>
-      </c>
-      <c r="C212">
-        <v>33.2689</v>
-      </c>
-      <c r="D212">
-        <v>29.403</v>
-      </c>
-      <c r="E212">
-        <v>29.0101</v>
-      </c>
-      <c r="F212">
-        <v>28.2844</v>
-      </c>
-      <c r="G212">
-        <v>27.8101</v>
-      </c>
-      <c r="H212">
-        <v>27.4533</v>
-      </c>
-      <c r="I212">
-        <v>27.0082</v>
-      </c>
-      <c r="J212">
-        <v>26.3111</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
-      <c r="A213" s="2">
-        <v>42614</v>
-      </c>
-      <c r="B213">
-        <v>31.8961</v>
-      </c>
-      <c r="C213">
-        <v>34.11935</v>
-      </c>
-      <c r="D213">
-        <v>31.67475</v>
-      </c>
-      <c r="E213">
-        <v>30.7518</v>
-      </c>
-      <c r="F213">
-        <v>30.18535</v>
-      </c>
-      <c r="G213">
-        <v>29.4172</v>
-      </c>
-      <c r="H213">
-        <v>29.0144</v>
-      </c>
-      <c r="I213">
-        <v>28.4577</v>
-      </c>
-      <c r="J213">
-        <v>27.8942</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
-      <c r="A214" s="2">
-        <v>42644</v>
-      </c>
-      <c r="B214">
-        <v>33.9664</v>
-      </c>
-      <c r="C214">
-        <v>35.7884</v>
-      </c>
-      <c r="D214">
-        <v>33.78</v>
-      </c>
-      <c r="E214">
-        <v>32.622</v>
-      </c>
-      <c r="F214">
-        <v>32.2459</v>
-      </c>
-      <c r="G214">
-        <v>31.5572</v>
-      </c>
-      <c r="H214">
-        <v>31.1659</v>
-      </c>
-      <c r="I214">
-        <v>30.5339</v>
-      </c>
-      <c r="J214">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
-      <c r="A215" s="2">
-        <v>42675</v>
-      </c>
-      <c r="B215">
-        <v>33.4528</v>
-      </c>
-      <c r="C215">
-        <v>34.602</v>
-      </c>
-      <c r="D215">
-        <v>33.3637</v>
-      </c>
-      <c r="E215">
-        <v>32.1438</v>
-      </c>
-      <c r="F215">
-        <v>32.0018</v>
-      </c>
-      <c r="G215">
-        <v>31.2099</v>
-      </c>
-      <c r="H215">
-        <v>30.9937</v>
-      </c>
-      <c r="I215">
-        <v>30.8174</v>
-      </c>
-      <c r="J215">
-        <v>30.2533</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
-      <c r="A216" s="2">
-        <v>42705</v>
-      </c>
-      <c r="B216">
-        <v>34.26165</v>
-      </c>
-      <c r="C216">
-        <v>38.2133</v>
-      </c>
-      <c r="D216">
-        <v>34.08815</v>
-      </c>
-      <c r="E216">
-        <v>32.7602</v>
-      </c>
-      <c r="F216">
-        <v>31.8922</v>
-      </c>
-      <c r="G216">
-        <v>30.9403</v>
-      </c>
-      <c r="H216">
-        <v>30.5571</v>
-      </c>
-      <c r="I216">
-        <v>29.7525</v>
-      </c>
-      <c r="J216">
-        <v>28.9368</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
-      <c r="A217" s="2">
-        <v>42736</v>
-      </c>
-      <c r="B217">
-        <v>32.1117</v>
-      </c>
-      <c r="C217">
-        <v>34.3646</v>
-      </c>
-      <c r="D217">
-        <v>32.063</v>
-      </c>
-      <c r="E217">
-        <v>31.22895</v>
-      </c>
-      <c r="F217">
-        <v>30.86555</v>
-      </c>
-      <c r="G217">
-        <v>30.2249</v>
-      </c>
-      <c r="H217">
-        <v>30.0096</v>
-      </c>
-      <c r="I217">
-        <v>29.67595</v>
-      </c>
-      <c r="J217">
-        <v>29.1818</v>
+        <v>29.42077</v>
       </c>
     </row>
   </sheetData>
